--- a/data/data_result.xlsx
+++ b/data/data_result.xlsx
@@ -498,42 +498,42 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688330.SH</t>
+          <t>600152.SH</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003742229</v>
+        <v>0.038532801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="E2" t="n">
-        <v>0.010793824</v>
+        <v>0.048257373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005357879</v>
+        <v>0.126691267</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.012445812</v>
+        <v>0.154761905</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.012445812</v>
+        <v>0.124537608</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008898015</v>
+        <v>0.09323116199999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.019634394</v>
+        <v>0.196832579</v>
       </c>
       <c r="K2" t="n">
-        <v>0.052107882</v>
+        <v>0.139210904</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>0.0158</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -541,42 +541,42 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688318.SH</t>
+          <t>601609.SH</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.030080334</v>
+        <v>0.176216785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="E3" t="n">
-        <v>0.024442847</v>
+        <v>-0.023529412</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01083497</v>
+        <v>-0.030139935</v>
       </c>
       <c r="G3" t="n">
-        <v>0.042834242</v>
+        <v>0.005197505</v>
       </c>
       <c r="H3" t="n">
-        <v>0.095716969</v>
+        <v>0.013402062</v>
       </c>
       <c r="I3" t="n">
-        <v>0.151923186</v>
+        <v>-0.049342105</v>
       </c>
       <c r="J3" t="n">
-        <v>0.213291873</v>
+        <v>-0.106358382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.121941176</v>
+        <v>-0.082579186</v>
       </c>
       <c r="L3" t="n">
-        <v>1.77</v>
+        <v>0.25</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -584,42 +584,42 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>603392.SH</t>
+          <t>300901.SZ</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.002409948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0.024047511</v>
+        <v>-0.032994924</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.034111619</v>
+        <v>-0.027129338</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07439212099999999</v>
+        <v>-0.008674102</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.274279661</v>
+        <v>-0.027129338</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.38674721</v>
+        <v>-0.01369863</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.139128788</v>
+        <v>0.003671971</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.167974212</v>
+        <v>-0.126643599</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>0.18</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -627,42 +627,42 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002821.SZ</t>
+          <t>300828.SZ</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.150958838</v>
+        <v>0.034091427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04479952</v>
+        <v>-0.11678487</v>
       </c>
       <c r="F5" t="n">
-        <v>0.030242482</v>
+        <v>-0.146045609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.129370629</v>
+        <v>-0.115203022</v>
       </c>
       <c r="H5" t="n">
-        <v>0.117511095</v>
+        <v>-0.149391727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.181272337</v>
+        <v>-0.157843137</v>
       </c>
       <c r="J5" t="n">
-        <v>0.284572142</v>
+        <v>-0.081006865</v>
       </c>
       <c r="K5" t="n">
-        <v>0.220179739</v>
+        <v>-0.164120256</v>
       </c>
       <c r="L5" t="n">
-        <v>1.78</v>
+        <v>0.28</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -670,42 +670,42 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>603301.SH</t>
+          <t>603682.SH</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.334151568</v>
+        <v>0.034543342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002961866</v>
+        <v>-0.06199460900000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.031120705</v>
+        <v>-0.109859155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.020371044</v>
+        <v>-0.1145686</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.019110691</v>
+        <v>-0.106741573</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.086982846</v>
+        <v>-0.145348837</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.15554602</v>
+        <v>-0.190332326</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.266698024</v>
+        <v>-0.28548124</v>
       </c>
       <c r="L6" t="n">
-        <v>1.66</v>
+        <v>0.14</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -713,42 +713,42 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>603185.SH</t>
+          <t>300902.SZ</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.007111028</v>
+        <v>0.001849397</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>0.038919668</v>
+        <v>-0.051304348</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.055361217</v>
+        <v>-0.053594771</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.011516035</v>
+        <v>-0.021546261</v>
       </c>
       <c r="H7" t="n">
-        <v>0.016929943</v>
+        <v>-0.04449244099999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05204918</v>
+        <v>0.009016393000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.164026263</v>
+        <v>0.014669927</v>
       </c>
       <c r="K7" t="n">
-        <v>0.386363636</v>
+        <v>0.034730539</v>
       </c>
       <c r="L7" t="n">
-        <v>3.212</v>
+        <v>0.09</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -756,42 +756,42 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>688788.SH</t>
+          <t>002983.SZ</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.004060746</v>
+        <v>0.006838070999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.038821693</v>
+        <v>0.011297376</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.059701493</v>
+        <v>-0.08087649400000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07554029499999999</v>
+        <v>-0.036287242</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.067562149</v>
+        <v>-0.025708885</v>
       </c>
       <c r="I8" t="n">
-        <v>0.14119829</v>
+        <v>0.008043876</v>
       </c>
       <c r="J8" t="n">
-        <v>0.227869209</v>
+        <v>0.08745375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.208766716</v>
+        <v>-0.010428305</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4183</v>
+        <v>0.26</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -799,42 +799,42 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002978.SZ</t>
+          <t>300383.SZ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.134174173</v>
+        <v>0.009827315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.022761434</v>
+        <v>0.004237288</v>
       </c>
       <c r="F9" t="n">
-        <v>0.021167283</v>
+        <v>-0.017316017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.013054289</v>
+        <v>0.018789144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.094486692</v>
+        <v>0.032921811</v>
       </c>
       <c r="I9" t="n">
-        <v>0.074786325</v>
+        <v>0.06187624799999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.211423841</v>
+        <v>0.015363128</v>
       </c>
       <c r="K9" t="n">
-        <v>0.089292543</v>
+        <v>0.07903331200000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1.9021</v>
+        <v>0.29</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -842,42 +842,42 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000661.SZ</t>
+          <t>688682.SH</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.491247682</v>
+        <v>0.040139968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.021670103</v>
+        <v>-0.175448558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.046442926</v>
+        <v>-0.327051282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007571479</v>
+        <v>-0.355197696</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.013867521</v>
+        <v>-0.281064356</v>
       </c>
       <c r="I10" t="n">
-        <v>0.062476537</v>
+        <v>-0.274910703</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.198509725</v>
+        <v>-0.183647799</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.151954358</v>
+        <v>0.353829827</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>0.31</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -885,88 +885,88 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>688682.SH</t>
+          <t>688126.SH</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.040139968</v>
+        <v>0.756710643</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.175448558</v>
+        <v>0.018457752</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.327051282</v>
+        <v>0.027235772</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.355197696</v>
+        <v>0.001668753</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.281064356</v>
+        <v>-0.098714417</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.274910703</v>
+        <v>-0.08723307599999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.183647799</v>
+        <v>0.197518444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.353829827</v>
+        <v>0.113046701</v>
       </c>
       <c r="L11" t="n">
-        <v>0.31</v>
+        <v>0.042</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>688126.SH</t>
+          <t>002891.SZ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.756710643</v>
+        <v>0.04493666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E12" t="n">
-        <v>0.018457752</v>
+        <v>-0.07324909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.027235772</v>
+        <v>-0.081588603</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001668753</v>
+        <v>0.08691691</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.098714417</v>
+        <v>-0.305968204</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08723307599999999</v>
+        <v>-0.240346535</v>
       </c>
       <c r="J12" t="n">
-        <v>0.197518444</v>
+        <v>-0.228186275</v>
       </c>
       <c r="K12" t="n">
-        <v>0.113046701</v>
+        <v>-0.505709135</v>
       </c>
       <c r="L12" t="n">
-        <v>0.042</v>
+        <v>0.2063</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1009,179 +1009,179 @@
         <v>-0.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>603353.SH</t>
+          <t>688129.SH</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.030849039</v>
+        <v>0.0009139389999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="E14" t="n">
-        <v>0.062084257</v>
+        <v>-0.049710983</v>
       </c>
       <c r="F14" t="n">
-        <v>0.076419214</v>
+        <v>-0.050925926</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07863210599999999</v>
+        <v>-0.052753623</v>
       </c>
       <c r="H14" t="n">
-        <v>0.099425165</v>
+        <v>-0.049104564</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06807666900000001</v>
+        <v>-0.054587689</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.460635359</v>
+        <v>0.040676175</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.466204506</v>
+        <v>0.080506329</v>
       </c>
       <c r="L14" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>688221.SH</t>
+          <t>603353.SH</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003302596</v>
+        <v>0.030849039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.062068966</v>
+        <v>0.062084257</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.067221067</v>
+        <v>0.076419214</v>
       </c>
       <c r="G15" t="n">
-        <v>0.042288557</v>
+        <v>0.07863210599999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.274952919</v>
+        <v>0.099425165</v>
       </c>
       <c r="I15" t="n">
-        <v>0.224962255</v>
+        <v>0.06807666900000001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.283387622</v>
+        <v>-0.460635359</v>
       </c>
       <c r="K15" t="n">
-        <v>0.154774973</v>
+        <v>-0.466204506</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.26</v>
+        <v>0.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002243.SZ</t>
+          <t>000895.SZ</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.025271474</v>
+        <v>0.294311088</v>
       </c>
       <c r="D16" t="n">
         <v>0.04</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.039045553</v>
+        <v>0.027390438</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.053905391</v>
+        <v>-0.05882352900000001</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04928806099999999</v>
+        <v>-0.066048035</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.044711014</v>
+        <v>-0.09136630300000001</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.026795284</v>
+        <v>-0.028165307</v>
       </c>
       <c r="J16" t="n">
-        <v>0.011351909</v>
+        <v>-0.247126437</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.123094959</v>
+        <v>-0.307228916</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1538</v>
+        <v>0.7323</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000895.SZ</t>
+          <t>600876.SH</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.294311088</v>
+        <v>0.00190682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.027390438</v>
+        <v>-0.005938242</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05882352900000001</v>
+        <v>0.001767826</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.066048035</v>
+        <v>-0.01864101</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.09136630300000001</v>
+        <v>0.015116279</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.028165307</v>
+        <v>0.041855204</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.247126437</v>
+        <v>-0.034819792</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.307228916</v>
+        <v>0.385786802</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7323</v>
+        <v>0.3611</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1224,1856 +1224,1856 @@
         <v>0.09300000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>300383.SZ</t>
+          <t>603773.SH</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.009827315</v>
+        <v>0.040851624</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004237288</v>
+        <v>0.012830189</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.017316017</v>
+        <v>0.027509294</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018789144</v>
+        <v>0.018018018</v>
       </c>
       <c r="H19" t="n">
-        <v>0.032921811</v>
+        <v>-0.004994237</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06187624799999999</v>
+        <v>-0.07213114799999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.015363128</v>
+        <v>0.01728024</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07903331200000001</v>
+        <v>-0.000382409</v>
       </c>
       <c r="L19" t="n">
-        <v>0.29</v>
+        <v>0.0263</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>603773.SH</t>
+          <t>603583.SH</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.040851624</v>
+        <v>0.079452118</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32</v>
+        <v>0.09</v>
       </c>
       <c r="E20" t="n">
-        <v>0.012830189</v>
+        <v>-0.01312295</v>
       </c>
       <c r="F20" t="n">
-        <v>0.027509294</v>
+        <v>-0.060680406</v>
       </c>
       <c r="G20" t="n">
-        <v>0.018018018</v>
+        <v>-0.059294348</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.004994237</v>
+        <v>-0.108547009</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.07213114799999999</v>
+        <v>0.00169335</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01728024</v>
+        <v>-0.492520138</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.000382409</v>
+        <v>-0.29080414</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0263</v>
+        <v>0.44</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>603583.SH</t>
+          <t>002243.SZ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.079452118</v>
+        <v>0.025271474</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01312295</v>
+        <v>-0.039045553</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.060680406</v>
+        <v>-0.053905391</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.059294348</v>
+        <v>-0.04928806099999999</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.108547009</v>
+        <v>-0.044711014</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00169335</v>
+        <v>-0.026795284</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.492520138</v>
+        <v>0.011351909</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.29080414</v>
+        <v>-0.123094959</v>
       </c>
       <c r="L21" t="n">
-        <v>0.44</v>
+        <v>0.1538</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>688365.SH</t>
+          <t>002579.SZ</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.121607246</v>
+        <v>0.055917691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.04038004799999999</v>
+        <v>0.0213858</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.085501859</v>
+        <v>0.012942192</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.056694813</v>
+        <v>0.009523810000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.056057866</v>
+        <v>-0.026929982</v>
       </c>
       <c r="I22" t="n">
-        <v>0.013513514</v>
+        <v>0.04427736</v>
       </c>
       <c r="J22" t="n">
-        <v>0.023411371</v>
+        <v>-0.104247104</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.13618677</v>
+        <v>0.052195526</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.06</v>
+        <v>0.16</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>300573.SZ</t>
+          <t>300548.SZ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.006006134000000001</v>
+        <v>0.000431308</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004520017</v>
+        <v>0.018889202</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.019920612</v>
+        <v>0.023294976</v>
       </c>
       <c r="G23" t="n">
-        <v>0.10483871</v>
+        <v>-0.07639962900000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.045079147</v>
+        <v>-0.131339402</v>
       </c>
       <c r="I23" t="n">
-        <v>0.104029446</v>
+        <v>-0.132443866</v>
       </c>
       <c r="J23" t="n">
-        <v>0.185356975</v>
+        <v>-0.000575043</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.527578994</v>
+        <v>0.086614173</v>
       </c>
       <c r="L23" t="n">
-        <v>0.99</v>
+        <v>0.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001202.SZ</t>
+          <t>300898.SZ</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03612139</v>
+        <v>0.002696246</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E24" t="n">
-        <v>0.090794979</v>
+        <v>0.138556884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.248616874</v>
+        <v>0.018163471</v>
       </c>
       <c r="G24" t="n">
-        <v>0.168706963</v>
+        <v>-0.046236559</v>
       </c>
       <c r="H24" t="n">
-        <v>0.103917526</v>
+        <v>-0.040363539</v>
       </c>
       <c r="I24" t="n">
-        <v>0.020730059</v>
+        <v>0.000770218</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.087043522</v>
+        <v>-0.043991416</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.215324385</v>
+        <v>-0.06630137</v>
       </c>
       <c r="L24" t="n">
-        <v>0.24</v>
+        <v>0.293</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>603967.SH</t>
+          <t>688222.SH</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.017067804</v>
+        <v>0.350558644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02122449</v>
+        <v>-0.122645291</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003207698</v>
+        <v>-0.08776699</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007142857</v>
+        <v>-0.143265306</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.038174274</v>
+        <v>-0.197520308</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.037313433</v>
+        <v>-0.149835796</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.07106164400000001</v>
+        <v>-0.011191336</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.152995392</v>
+        <v>0.09352750800000001</v>
       </c>
       <c r="L25" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>300548.SZ</t>
+          <t>002236.SZ</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000431308</v>
+        <v>0.036281603</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E26" t="n">
-        <v>0.018889202</v>
+        <v>0.061248528</v>
       </c>
       <c r="F26" t="n">
-        <v>0.023294976</v>
+        <v>0.002919099</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.07639962900000001</v>
+        <v>-0.019181586</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.131339402</v>
+        <v>-0.019181586</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.132443866</v>
+        <v>-0.032829374</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.000575043</v>
+        <v>-0.125706215</v>
       </c>
       <c r="K26" t="n">
-        <v>0.086614173</v>
+        <v>-0.164637116</v>
       </c>
       <c r="L26" t="n">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>300898.SZ</t>
+          <t>002645.SZ</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.002696246</v>
+        <v>0.014391501</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E27" t="n">
-        <v>0.138556884</v>
+        <v>0.02921069</v>
       </c>
       <c r="F27" t="n">
-        <v>0.018163471</v>
+        <v>0.035802469</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.046236559</v>
+        <v>-0.055405405</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.040363539</v>
+        <v>-0.103886926</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000770218</v>
+        <v>-0.103107345</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.043991416</v>
+        <v>0.09658762300000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.06630137</v>
+        <v>0.192764858</v>
       </c>
       <c r="L27" t="n">
-        <v>0.293</v>
+        <v>0.4424</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>688222.SH</t>
+          <t>600629.SH</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.350558644</v>
+        <v>0.001607779</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.122645291</v>
+        <v>0.008356545999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.08776699</v>
+        <v>-0.002816901</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.143265306</v>
+        <v>0.013850416</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.197520308</v>
+        <v>0.013850416</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.149835796</v>
+        <v>0.033921303</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.011191336</v>
+        <v>0.020632737</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09352750800000001</v>
+        <v>-0.190635452</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05</v>
+        <v>0.3745</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>600876.SH</t>
+          <t>600496.SH</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.00190682</v>
+        <v>0.07851678400000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.005938242</v>
+        <v>-0.131991051</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001767826</v>
+        <v>-0.12195122</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01864101</v>
+        <v>-0.155251142</v>
       </c>
       <c r="H29" t="n">
-        <v>0.015116279</v>
+        <v>-0.213429257</v>
       </c>
       <c r="I29" t="n">
-        <v>0.041855204</v>
+        <v>-0.196217494</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.034819792</v>
+        <v>-0.281012658</v>
       </c>
       <c r="K29" t="n">
-        <v>0.385786802</v>
+        <v>-0.237163814</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3611</v>
+        <v>0.1641</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>603386.SH</t>
+          <t>300680.SZ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.008981691</v>
+        <v>0.014250987</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.02195122</v>
+        <v>-0.06059405900000001</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.025703794</v>
+        <v>-0.04609375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.017584994</v>
+        <v>-0.073346693</v>
       </c>
       <c r="H30" t="n">
-        <v>0.043378995</v>
+        <v>-0.179735683</v>
       </c>
       <c r="I30" t="n">
-        <v>0.043924701</v>
+        <v>-0.126156434</v>
       </c>
       <c r="J30" t="n">
-        <v>0.057897695</v>
+        <v>-0.022918258</v>
       </c>
       <c r="K30" t="n">
-        <v>0.190338164</v>
+        <v>0.060680463</v>
       </c>
       <c r="L30" t="n">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>600152.SH</t>
+          <t>688221.SH</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.038532801</v>
+        <v>0.003302596</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
-        <v>0.048257373</v>
+        <v>-0.062068966</v>
       </c>
       <c r="F31" t="n">
-        <v>0.126691267</v>
+        <v>-0.067221067</v>
       </c>
       <c r="G31" t="n">
-        <v>0.154761905</v>
+        <v>0.042288557</v>
       </c>
       <c r="H31" t="n">
-        <v>0.124537608</v>
+        <v>0.274952919</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09323116199999999</v>
+        <v>0.224962255</v>
       </c>
       <c r="J31" t="n">
-        <v>0.196832579</v>
+        <v>0.283387622</v>
       </c>
       <c r="K31" t="n">
-        <v>0.139210904</v>
+        <v>0.154774973</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0158</v>
+        <v>-0.26</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002151.SZ</t>
+          <t>603439.SH</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.034387486</v>
+        <v>0.11035681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.002215657</v>
+        <v>-0.09147479800000001</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.009923095999999999</v>
+        <v>-0.125802311</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.016733267</v>
+        <v>-0.069512195</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.002956393</v>
+        <v>-0.072782875</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06392274099999999</v>
+        <v>-0.155467721</v>
       </c>
       <c r="J32" t="n">
-        <v>0.061981567</v>
+        <v>-0.238700565</v>
       </c>
       <c r="K32" t="n">
-        <v>0.07308743200000001</v>
+        <v>-0.43417825</v>
       </c>
       <c r="L32" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>300743.SZ</t>
+          <t>002151.SZ</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.010590408</v>
+        <v>0.034387486</v>
       </c>
       <c r="D33" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.030726257</v>
+        <v>-0.002215657</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.031446541</v>
+        <v>-0.009923095999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.010958904</v>
+        <v>-0.016733267</v>
       </c>
       <c r="H33" t="n">
-        <v>0.021220159</v>
+        <v>-0.002956393</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06582278499999999</v>
+        <v>0.06392274099999999</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.256170213</v>
+        <v>0.061981567</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.23</v>
+        <v>0.07308743200000001</v>
       </c>
       <c r="L33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002355.SZ</t>
+          <t>688323.SH</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003197409</v>
+        <v>0.051318391</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E34" t="n">
-        <v>0.025356577</v>
+        <v>0.013818182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.100877193</v>
+        <v>0.07755102</v>
       </c>
       <c r="G34" t="n">
-        <v>0.145833333</v>
+        <v>0.151173709</v>
       </c>
       <c r="H34" t="n">
-        <v>0.113832853</v>
+        <v>0.180417044</v>
       </c>
       <c r="I34" t="n">
-        <v>0.113832853</v>
+        <v>0.03795672200000001</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.031879195</v>
+        <v>0.07471852599999999</v>
       </c>
       <c r="K34" t="n">
-        <v>0.111271676</v>
+        <v>0.196206283</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.02</v>
+        <v>0.21</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>600566.SH</t>
+          <t>300664.SZ</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.072275431</v>
+        <v>0.001915907</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E35" t="n">
-        <v>0.011410788</v>
+        <v>-0.001453488</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.003157895</v>
+        <v>-0.002911208</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.047252747</v>
+        <v>-0.005839416</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.093709291</v>
+        <v>0.002894356</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.008465608000000001</v>
+        <v>0.017118402</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.09101316499999999</v>
+        <v>-0.028358209</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.181649101</v>
+        <v>-0.079937304</v>
       </c>
       <c r="L35" t="n">
-        <v>0.961</v>
+        <v>0.2531</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002141.SZ</t>
+          <t>001202.SZ</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.073921296</v>
+        <v>0.03612139</v>
       </c>
       <c r="D36" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.014134276</v>
+        <v>0.090794979</v>
       </c>
       <c r="F36" t="n">
-        <v>0.077170418</v>
+        <v>0.248616874</v>
       </c>
       <c r="G36" t="n">
-        <v>0.122324159</v>
+        <v>0.168706963</v>
       </c>
       <c r="H36" t="n">
-        <v>0.103125</v>
+        <v>0.103917526</v>
       </c>
       <c r="I36" t="n">
-        <v>0.116923077</v>
+        <v>0.020730059</v>
       </c>
       <c r="J36" t="n">
-        <v>0.275252525</v>
+        <v>-0.087043522</v>
       </c>
       <c r="K36" t="n">
-        <v>0.36784141</v>
+        <v>-0.215324385</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0078</v>
+        <v>0.24</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>300483.SZ</t>
+          <t>300686.SZ</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.037549023</v>
+        <v>0.001663904</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003198976</v>
+        <v>-0.026993095</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008274984000000001</v>
+        <v>-0.019950125</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.016971279</v>
+        <v>-0.018046049</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.016971279</v>
+        <v>-0.042702358</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.025</v>
+        <v>-0.031525851</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.060585432</v>
+        <v>-0.00245098</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.157503715</v>
+        <v>-0.071381794</v>
       </c>
       <c r="L37" t="n">
-        <v>0.202</v>
+        <v>0.2186</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002982.SZ</t>
+          <t>300483.SZ</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.05082480599999999</v>
+        <v>0.037549023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E38" t="n">
-        <v>0.015739543</v>
+        <v>0.003198976</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.013993781</v>
+        <v>0.008274984000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.043428571</v>
+        <v>-0.016971279</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.028848321</v>
+        <v>-0.016971279</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.015121192</v>
+        <v>-0.025</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.056712963</v>
+        <v>-0.060585432</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.221241306</v>
+        <v>-0.157503715</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.06</v>
+        <v>0.202</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>300686.SZ</t>
+          <t>300743.SZ</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.001663904</v>
+        <v>0.010590408</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.026993095</v>
+        <v>-0.030726257</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.019950125</v>
+        <v>-0.031446541</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.018046049</v>
+        <v>-0.010958904</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.042702358</v>
+        <v>0.021220159</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.031525851</v>
+        <v>0.06582278499999999</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.00245098</v>
+        <v>-0.256170213</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.071381794</v>
+        <v>-0.23</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2186</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>688179.SH</t>
+          <t>603967.SH</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.005345661</v>
+        <v>0.017067804</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.061207779</v>
+        <v>-0.02122449</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.070521425</v>
+        <v>-0.003207698</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.026534653</v>
+        <v>0.007142857</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.060882022</v>
+        <v>-0.038174274</v>
       </c>
       <c r="I40" t="n">
-        <v>0.098591549</v>
+        <v>-0.037313433</v>
       </c>
       <c r="J40" t="n">
-        <v>0.24043956</v>
+        <v>-0.07106164400000001</v>
       </c>
       <c r="K40" t="n">
-        <v>0.081502481</v>
+        <v>-0.152995392</v>
       </c>
       <c r="L40" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>603583.SH</t>
+          <t>300529.SZ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.003113664</v>
+        <v>0.0003278380000000001</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.01323097</v>
+        <v>0.02746114</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.014888743</v>
+        <v>-0.020108696</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.000645265</v>
+        <v>0.049812696</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.01655195</v>
+        <v>0.061406141</v>
       </c>
       <c r="I41" t="n">
-        <v>0.043779867</v>
+        <v>0.025137634</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.28426501</v>
+        <v>-0.08497109800000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.29094693</v>
+        <v>-0.291810048</v>
       </c>
       <c r="L41" t="n">
-        <v>0.44</v>
+        <v>0.78</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>300323.SZ</t>
+          <t>002545.SZ</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.118231377</v>
+        <v>0.001257446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.07545045</v>
+        <v>0.001547122</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.036916395</v>
+        <v>-0.007112376</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.06465997799999999</v>
+        <v>-0.032069971</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.073033708</v>
+        <v>-0.011428571</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.032432432</v>
+        <v>-0.001414427</v>
       </c>
       <c r="J42" t="n">
-        <v>0.145031334</v>
+        <v>0.059760956</v>
       </c>
       <c r="K42" t="n">
-        <v>0.225466342</v>
+        <v>0.242780749</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.02</v>
+        <v>0.1629</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002628.SZ</t>
+          <t>002392.SZ</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0009356039999999999</v>
+        <v>0.012860771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.002840909</v>
+        <v>-0.014184397</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.008571429</v>
+        <v>-0.002336449</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01396648</v>
+        <v>0.016055046</v>
       </c>
       <c r="H43" t="n">
-        <v>0.019444444</v>
+        <v>0.016055046</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.014367816</v>
+        <v>-0.004683840999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.023188406</v>
+        <v>0.018306636</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.044378698</v>
+        <v>-0.083333333</v>
       </c>
       <c r="L43" t="n">
-        <v>0.08</v>
+        <v>0.202</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>002392.SZ</t>
+          <t>300829.SZ</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.012860771</v>
+        <v>0.107302752</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.014184397</v>
+        <v>0.037031225</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.002336449</v>
+        <v>0.102121434</v>
       </c>
       <c r="G44" t="n">
-        <v>0.016055046</v>
+        <v>0.170451473</v>
       </c>
       <c r="H44" t="n">
-        <v>0.016055046</v>
+        <v>0.145264624</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.004683840999999999</v>
+        <v>-0.103776978</v>
       </c>
       <c r="J44" t="n">
-        <v>0.018306636</v>
+        <v>-0.008877199000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.083333333</v>
+        <v>-0.024028033</v>
       </c>
       <c r="L44" t="n">
-        <v>0.202</v>
+        <v>0.39</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>300192.SZ</t>
+          <t>002141.SZ</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.000566511</v>
+        <v>0.073921296</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.08015873</v>
+        <v>-0.014134276</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.122011542</v>
+        <v>0.077170418</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.11557377</v>
+        <v>0.122324159</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.110114192</v>
+        <v>0.103125</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.154368109</v>
+        <v>0.116923077</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.256694367</v>
+        <v>0.275252525</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.4266247379999999</v>
+        <v>0.36784141</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1688</v>
+        <v>0.0078</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>300123.SZ</t>
+          <t>002982.SZ</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.039096651</v>
+        <v>0.05082480599999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.08058608099999999</v>
+        <v>0.015739543</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.136071887</v>
+        <v>-0.013993781</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.09801488800000001</v>
+        <v>-0.043428571</v>
       </c>
       <c r="H46" t="n">
-        <v>0.104251012</v>
+        <v>-0.028848321</v>
       </c>
       <c r="I46" t="n">
-        <v>0.093237705</v>
+        <v>-0.015121192</v>
       </c>
       <c r="J46" t="n">
-        <v>0.27990236</v>
+        <v>-0.056712963</v>
       </c>
       <c r="K46" t="n">
-        <v>0.281655844</v>
+        <v>-0.221241306</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002483.SZ</t>
+          <t>688179.SH</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.002467765</v>
+        <v>0.005345661</v>
       </c>
       <c r="D47" t="n">
         <v>0.01</v>
       </c>
       <c r="E47" t="n">
-        <v>0.036190476</v>
+        <v>-0.061207779</v>
       </c>
       <c r="F47" t="n">
-        <v>0.034351145</v>
+        <v>-0.070521425</v>
       </c>
       <c r="G47" t="n">
-        <v>0.047080979</v>
+        <v>-0.026534653</v>
       </c>
       <c r="H47" t="n">
-        <v>0.023166023</v>
+        <v>-0.060882022</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.054166667</v>
+        <v>0.098591549</v>
       </c>
       <c r="J47" t="n">
-        <v>0.019379845</v>
+        <v>0.24043956</v>
       </c>
       <c r="K47" t="n">
-        <v>0.003937008</v>
+        <v>0.081502481</v>
       </c>
       <c r="L47" t="n">
-        <v>0.217</v>
+        <v>0.41</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>300680.SZ</t>
+          <t>603583.SH</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.014250987</v>
+        <v>0.003113664</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.06059405900000001</v>
+        <v>-0.01323097</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.04609375</v>
+        <v>-0.014888743</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.073346693</v>
+        <v>-0.000645265</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.179735683</v>
+        <v>-0.01655195</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.126156434</v>
+        <v>0.043779867</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.022918258</v>
+        <v>-0.28426501</v>
       </c>
       <c r="K48" t="n">
-        <v>0.060680463</v>
+        <v>-0.29094693</v>
       </c>
       <c r="L48" t="n">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>002545.SZ</t>
+          <t>300323.SZ</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.001257446</v>
+        <v>0.118231377</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001547122</v>
+        <v>-0.07545045</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.007112376</v>
+        <v>-0.036916395</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.032069971</v>
+        <v>-0.06465997799999999</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.011428571</v>
+        <v>-0.073033708</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.001414427</v>
+        <v>-0.032432432</v>
       </c>
       <c r="J49" t="n">
-        <v>0.059760956</v>
+        <v>0.145031334</v>
       </c>
       <c r="K49" t="n">
-        <v>0.242780749</v>
+        <v>0.225466342</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1629</v>
+        <v>-0.02</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>600496.SH</t>
+          <t>002628.SZ</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.07851678400000001</v>
+        <v>0.0009356039999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.131991051</v>
+        <v>-0.002840909</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.12195122</v>
+        <v>-0.008571429</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.155251142</v>
+        <v>0.01396648</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.213429257</v>
+        <v>0.019444444</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.196217494</v>
+        <v>-0.014367816</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.281012658</v>
+        <v>-0.023188406</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.237163814</v>
+        <v>-0.044378698</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1641</v>
+        <v>0.08</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>688129.SH</t>
+          <t>300192.SZ</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0009139389999999999</v>
+        <v>0.000566511</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.049710983</v>
+        <v>-0.08015873</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.050925926</v>
+        <v>-0.122011542</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.052753623</v>
+        <v>-0.11557377</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.049104564</v>
+        <v>-0.110114192</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.054587689</v>
+        <v>-0.154368109</v>
       </c>
       <c r="J51" t="n">
-        <v>0.040676175</v>
+        <v>-0.256694367</v>
       </c>
       <c r="K51" t="n">
-        <v>0.080506329</v>
+        <v>-0.4266247379999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.36</v>
+        <v>0.1688</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>601609.SH</t>
+          <t>300278.SZ</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.176216785</v>
+        <v>0.003665989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.023529412</v>
+        <v>-0.138686131</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.030139935</v>
+        <v>-0.424657534</v>
       </c>
       <c r="G52" t="n">
-        <v>0.005197505</v>
+        <v>-0.380530973</v>
       </c>
       <c r="H52" t="n">
-        <v>0.013402062</v>
+        <v>-0.142857143</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.049342105</v>
+        <v>-0.399103139</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.106358382</v>
+        <v>-0.114285714</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.082579186</v>
+        <v>0.054545455</v>
       </c>
       <c r="L52" t="n">
-        <v>0.25</v>
+        <v>-0.2135</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>300664.SZ</t>
+          <t>300123.SZ</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.001915907</v>
+        <v>0.039096651</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.001453488</v>
+        <v>-0.08058608099999999</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.002911208</v>
+        <v>-0.136071887</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.005839416</v>
+        <v>-0.09801488800000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002894356</v>
+        <v>0.104251012</v>
       </c>
       <c r="I53" t="n">
-        <v>0.017118402</v>
+        <v>0.093237705</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.028358209</v>
+        <v>0.27990236</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.079937304</v>
+        <v>0.281655844</v>
       </c>
       <c r="L53" t="n">
-        <v>0.2531</v>
+        <v>0.05</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>300828.SZ</t>
+          <t>002483.SZ</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.034091427</v>
+        <v>0.002467765</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.11678487</v>
+        <v>0.036190476</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.146045609</v>
+        <v>0.034351145</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.115203022</v>
+        <v>0.047080979</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.149391727</v>
+        <v>0.023166023</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.157843137</v>
+        <v>-0.054166667</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.081006865</v>
+        <v>0.019379845</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.164120256</v>
+        <v>0.003937008</v>
       </c>
       <c r="L54" t="n">
-        <v>0.28</v>
+        <v>0.217</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>603682.SH</t>
+          <t>002355.SZ</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.034543342</v>
+        <v>0.003197409</v>
       </c>
       <c r="D55" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.06199460900000001</v>
+        <v>0.025356577</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.109859155</v>
+        <v>0.100877193</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1145686</v>
+        <v>0.145833333</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.106741573</v>
+        <v>0.113832853</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.145348837</v>
+        <v>0.113832853</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.190332326</v>
+        <v>-0.031879195</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.28548124</v>
+        <v>0.111271676</v>
       </c>
       <c r="L55" t="n">
-        <v>0.14</v>
+        <v>-0.02</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>688323.SH</t>
+          <t>002683.SZ</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.051318391</v>
+        <v>0.04526105900000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E56" t="n">
-        <v>0.013818182</v>
+        <v>-0.013868613</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07755102</v>
+        <v>-0.082197117</v>
       </c>
       <c r="G56" t="n">
-        <v>0.151173709</v>
+        <v>-0.037341299</v>
       </c>
       <c r="H56" t="n">
-        <v>0.180417044</v>
+        <v>-0.034251675</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03795672200000001</v>
+        <v>0.027651383</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07471852599999999</v>
+        <v>0.016985138</v>
       </c>
       <c r="K56" t="n">
-        <v>0.196206283</v>
+        <v>0.078301261</v>
       </c>
       <c r="L56" t="n">
-        <v>0.21</v>
+        <v>0.2813</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>300278.SZ</t>
+          <t>002596.SZ</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.003665989</v>
+        <v>0.004700083</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.138686131</v>
+        <v>0.001897533</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.424657534</v>
+        <v>-0.005736138000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.380530973</v>
+        <v>-0.005736138000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.142857143</v>
+        <v>-0.047808765</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.399103139</v>
+        <v>-0.003816794</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.114285714</v>
+        <v>-0.08677686</v>
       </c>
       <c r="K57" t="n">
-        <v>0.054545455</v>
+        <v>-0.387862797</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.2135</v>
+        <v>-0.0267</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>603439.SH</t>
+          <t>600189.SH</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.11035681</v>
+        <v>0.006656685</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3</v>
+        <v>0.02</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.09147479800000001</v>
+        <v>0.019624573</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.125802311</v>
+        <v>0.07038835</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.069512195</v>
+        <v>0.01710864</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.072782875</v>
+        <v>-0.019520852</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.155467721</v>
+        <v>-0.04076087</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.238700565</v>
+        <v>0.06585365900000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.43417825</v>
+        <v>-0.002617801</v>
       </c>
       <c r="L58" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002236.SZ</t>
+          <t>600821.SH</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.036281603</v>
+        <v>0.030484173</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.061248528</v>
+        <v>-0.079726651</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002919099</v>
+        <v>-0.012820513</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.019181586</v>
+        <v>-0.004237288</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.019181586</v>
+        <v>0.030674847</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.032829374</v>
+        <v>0.026694045</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.125706215</v>
+        <v>0.228013029</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.164637116</v>
+        <v>0.164021164</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>600629.SH</t>
+          <t>600789.SH</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001607779</v>
+        <v>0.010555989</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008356545999999999</v>
+        <v>0.012032086</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.002816901</v>
+        <v>0.023778071</v>
       </c>
       <c r="G60" t="n">
-        <v>0.013850416</v>
+        <v>0.04890604900000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0.013850416</v>
+        <v>0.07044025200000001</v>
       </c>
       <c r="I60" t="n">
-        <v>0.033921303</v>
+        <v>0.04025974</v>
       </c>
       <c r="J60" t="n">
-        <v>0.020632737</v>
+        <v>0.03908324</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.190635452</v>
+        <v>-0.017906336</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3745</v>
+        <v>0.08</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>600189.SH</t>
+          <t>300827.SZ</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.006656685</v>
+        <v>0.029863731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E61" t="n">
-        <v>0.019624573</v>
+        <v>0.010315414</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07038835</v>
+        <v>0.050256996</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01710864</v>
+        <v>0.048627002</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.019520852</v>
+        <v>0.035942029</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.04076087</v>
+        <v>0.020612485</v>
       </c>
       <c r="J61" t="n">
-        <v>0.06585365900000001</v>
+        <v>0.138639503</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.002617801</v>
+        <v>0.060451977</v>
       </c>
       <c r="L61" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3116,1337 +3116,1337 @@
         <v>0.44</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>688096.SH</t>
+          <t>603266.SH</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.040294242</v>
+        <v>0.000333922</v>
       </c>
       <c r="D63" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.008816121</v>
+        <v>-0.009009009</v>
       </c>
       <c r="F63" t="n">
-        <v>0.030266344</v>
+        <v>-0.020966272</v>
       </c>
       <c r="G63" t="n">
-        <v>0.012939002</v>
+        <v>-0.031307551</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.035552683</v>
+        <v>-0.02003643</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.09351535800000001</v>
+        <v>-0.003584229</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.039584685</v>
+        <v>0.050042409</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.043648208</v>
+        <v>-0.011743451</v>
       </c>
       <c r="L63" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>603609.SH</t>
+          <t>688096.SH</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.002439834</v>
+        <v>0.040294242</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.033476395</v>
+        <v>-0.008816121</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.023809524</v>
+        <v>0.030266344</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.032590051</v>
+        <v>0.012939002</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.077887198</v>
+        <v>-0.035552683</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.107635695</v>
+        <v>-0.09351535800000001</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.128397376</v>
+        <v>-0.039584685</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.167798254</v>
+        <v>-0.043648208</v>
       </c>
       <c r="L64" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>600050.SH</t>
+          <t>603609.SH</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.047241219</v>
+        <v>0.002439834</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.012077295</v>
+        <v>-0.033476395</v>
       </c>
       <c r="F65" t="n">
-        <v>0.009456265</v>
+        <v>-0.023809524</v>
       </c>
       <c r="G65" t="n">
-        <v>0.021767396</v>
+        <v>-0.032590051</v>
       </c>
       <c r="H65" t="n">
-        <v>0.016431925</v>
+        <v>-0.077887198</v>
       </c>
       <c r="I65" t="n">
-        <v>0.027842227</v>
+        <v>-0.107635695</v>
       </c>
       <c r="J65" t="n">
-        <v>0.021028037</v>
+        <v>-0.128397376</v>
       </c>
       <c r="K65" t="n">
-        <v>0.014074759</v>
+        <v>-0.167798254</v>
       </c>
       <c r="L65" t="n">
-        <v>0.131</v>
+        <v>0.27</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>688468.SH</t>
+          <t>600050.SH</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.042649922</v>
+        <v>0.047241219</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.368074602</v>
+        <v>-0.012077295</v>
       </c>
       <c r="F66" t="n">
-        <v>0.050266565</v>
+        <v>0.009456265</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.069468268</v>
+        <v>0.021767396</v>
       </c>
       <c r="H66" t="n">
-        <v>0.037065637</v>
+        <v>0.016431925</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.106477374</v>
+        <v>0.027842227</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07458256000000001</v>
+        <v>0.021028037</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.217773438</v>
+        <v>0.014074759</v>
       </c>
       <c r="L66" t="n">
-        <v>0.19</v>
+        <v>0.131</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>300986.SZ</t>
+          <t>688468.SH</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.069024796</v>
+        <v>0.042649922</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="E67" t="n">
-        <v>0.139534884</v>
+        <v>-0.368074602</v>
       </c>
       <c r="F67" t="n">
-        <v>0.237476221</v>
+        <v>0.050266565</v>
       </c>
       <c r="G67" t="n">
-        <v>0.148220294</v>
+        <v>-0.069468268</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.06888888900000001</v>
+        <v>0.037065637</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.116009281</v>
+        <v>-0.106477374</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.230179028</v>
+        <v>0.07458256000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.157362849</v>
+        <v>-0.217773438</v>
       </c>
       <c r="L67" t="n">
-        <v>0.53</v>
+        <v>0.19</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>603266.SH</t>
+          <t>603363.SH</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.000333922</v>
+        <v>0.003894833</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.009009009</v>
+        <v>-0.043874172</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.020966272</v>
+        <v>-0.103237095</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.031307551</v>
+        <v>-0.084264832</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.02003643</v>
+        <v>-0.155820348</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.003584229</v>
+        <v>-0.190745987</v>
       </c>
       <c r="J68" t="n">
-        <v>0.050042409</v>
+        <v>-0.205544933</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.011743451</v>
+        <v>-0.633419689</v>
       </c>
       <c r="L68" t="n">
-        <v>0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>603363.SH</t>
+          <t>300826.SZ</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.003894833</v>
+        <v>0.023454094</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.043874172</v>
+        <v>-0.023051592</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.103237095</v>
+        <v>-0.009022014</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.084264832</v>
+        <v>-0.022303473</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.155820348</v>
+        <v>0.04312115</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.190745987</v>
+        <v>0.047359455</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.205544933</v>
+        <v>-0.387593052</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.633419689</v>
+        <v>-0.365234375</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.26</v>
+        <v>0.34</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>600789.SH</t>
+          <t>000603.SZ</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.010555989</v>
+        <v>0.011840608</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E70" t="n">
-        <v>0.012032086</v>
+        <v>-0.019838354</v>
       </c>
       <c r="F70" t="n">
-        <v>0.023778071</v>
+        <v>-0.006526468000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04890604900000001</v>
+        <v>0.019081272</v>
       </c>
       <c r="H70" t="n">
-        <v>0.07044025200000001</v>
+        <v>0.006442376999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04025974</v>
+        <v>0.038115038</v>
       </c>
       <c r="J70" t="n">
-        <v>0.03908324</v>
+        <v>0.005017921</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.017906336</v>
+        <v>-0.080996885</v>
       </c>
       <c r="L70" t="n">
-        <v>0.08</v>
+        <v>0.1647</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>300826.SZ</t>
+          <t>003042.SZ</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.023454094</v>
+        <v>0.04390933900000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.023051592</v>
+        <v>0.317132175</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.009022014</v>
+        <v>0.175955414</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.022303473</v>
+        <v>0.214123007</v>
       </c>
       <c r="H71" t="n">
-        <v>0.04312115</v>
+        <v>0.140603377</v>
       </c>
       <c r="I71" t="n">
-        <v>0.047359455</v>
+        <v>0.091308165</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.387593052</v>
+        <v>0.024505184</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.365234375</v>
+        <v>-0.147450111</v>
       </c>
       <c r="L71" t="n">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>003042.SZ</t>
+          <t>002931.SZ</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.04390933900000001</v>
+        <v>0.07011753700000001</v>
       </c>
       <c r="D72" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.022451456</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.056239016</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.034172662</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.028347407</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-0.018975332</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.229186603</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-0.233537519</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.25</v>
       </c>
-      <c r="E72" t="n">
-        <v>0.317132175</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.175955414</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.214123007</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.140603377</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.091308165</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.024505184</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-0.147450111</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.23</v>
-      </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>002931.SZ</t>
+          <t>600559.SH</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.07011753700000001</v>
+        <v>0.022799368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.59</v>
+        <v>0.02</v>
       </c>
       <c r="E73" t="n">
-        <v>0.022451456</v>
+        <v>-0.07738392400000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.056239016</v>
+        <v>0.05475251900000001</v>
       </c>
       <c r="G73" t="n">
-        <v>0.034172662</v>
+        <v>0.150059078</v>
       </c>
       <c r="H73" t="n">
-        <v>0.028347407</v>
+        <v>0.100458524</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.018975332</v>
+        <v>-0.013621419</v>
       </c>
       <c r="J73" t="n">
-        <v>0.229186603</v>
+        <v>0.270453009</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.233537519</v>
+        <v>0.157360406</v>
       </c>
       <c r="L73" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>600559.SH</t>
+          <t>603131.SH</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.022799368</v>
+        <v>0.002366873</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.07738392400000001</v>
+        <v>0.06974507000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05475251900000001</v>
+        <v>0.06929740099999999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.150059078</v>
+        <v>0.073754789</v>
       </c>
       <c r="H74" t="n">
-        <v>0.100458524</v>
+        <v>0.035892323</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.013621419</v>
+        <v>-0.035331906</v>
       </c>
       <c r="J74" t="n">
-        <v>0.270453009</v>
+        <v>-0.072062084</v>
       </c>
       <c r="K74" t="n">
-        <v>0.157360406</v>
+        <v>-0.119861031</v>
       </c>
       <c r="L74" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>603131.SH</t>
+          <t>002825.SZ</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.002366873</v>
+        <v>0.000310862</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06974507000000001</v>
+        <v>-0.008637874</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06929740099999999</v>
+        <v>-0.016064257</v>
       </c>
       <c r="G75" t="n">
-        <v>0.073754789</v>
+        <v>-0.00729927</v>
       </c>
       <c r="H75" t="n">
-        <v>0.035892323</v>
+        <v>0.027546445</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.035331906</v>
+        <v>-0.067510549</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.072062084</v>
+        <v>-0.084285714</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.119861031</v>
+        <v>-0.08583691</v>
       </c>
       <c r="L75" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>002825.SZ</t>
+          <t>002712.SZ</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.000310862</v>
+        <v>0.000448103</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.008637874</v>
+        <v>0.034274194</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.016064257</v>
+        <v>0.026422764</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.00729927</v>
+        <v>0.066276803</v>
       </c>
       <c r="H76" t="n">
-        <v>0.027546445</v>
+        <v>0.006224065999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.067510549</v>
+        <v>0.032323232</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.084285714</v>
+        <v>0.114602588</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.08583691</v>
+        <v>-0.043572985</v>
       </c>
       <c r="L76" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>002712.SZ</t>
+          <t>600853.SH</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.000448103</v>
+        <v>0.022715379</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E77" t="n">
-        <v>0.034274194</v>
+        <v>-0.011494253</v>
       </c>
       <c r="F77" t="n">
-        <v>0.026422764</v>
+        <v>-0.015384615</v>
       </c>
       <c r="G77" t="n">
-        <v>0.066276803</v>
+        <v>0.014925373</v>
       </c>
       <c r="H77" t="n">
-        <v>0.006224065999999999</v>
+        <v>-0.007633588</v>
       </c>
       <c r="I77" t="n">
-        <v>0.032323232</v>
+        <v>-0.035294118</v>
       </c>
       <c r="J77" t="n">
-        <v>0.114602588</v>
+        <v>-0.023255814</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.043572985</v>
+        <v>-0.086419753</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06</v>
+        <v>0.0358</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>600853.SH</t>
+          <t>603906.SH</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.022715379</v>
+        <v>0.002020243</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.011494253</v>
+        <v>-0.040438657</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.015384615</v>
+        <v>0.027546445</v>
       </c>
       <c r="G78" t="n">
-        <v>0.014925373</v>
+        <v>0.015883306</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.007633588</v>
+        <v>0.115126785</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.035294118</v>
+        <v>0.024734982</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.023255814</v>
+        <v>-0.09444845</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.086419753</v>
+        <v>0.109677419</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0358</v>
+        <v>0.3</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>603906.SH</t>
+          <t>688662.SH</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.002020243</v>
+        <v>0.037125371</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.040438657</v>
+        <v>-0.08230328599999999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.027546445</v>
+        <v>-0.188741722</v>
       </c>
       <c r="G79" t="n">
-        <v>0.015883306</v>
+        <v>-0.245662734</v>
       </c>
       <c r="H79" t="n">
-        <v>0.115126785</v>
+        <v>-0.256123163</v>
       </c>
       <c r="I79" t="n">
-        <v>0.024734982</v>
+        <v>-0.357277883</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.09444845</v>
+        <v>0.10896004</v>
       </c>
       <c r="K79" t="n">
-        <v>0.109677419</v>
+        <v>0.022331155</v>
       </c>
       <c r="L79" t="n">
-        <v>0.3</v>
+        <v>0.4601</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>688662.SH</t>
+          <t>300986.SZ</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.037125371</v>
+        <v>0.069024796</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.08230328599999999</v>
+        <v>0.139534884</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.188741722</v>
+        <v>0.237476221</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.245662734</v>
+        <v>0.148220294</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.256123163</v>
+        <v>-0.06888888900000001</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.357277883</v>
+        <v>-0.116009281</v>
       </c>
       <c r="J80" t="n">
-        <v>0.10896004</v>
+        <v>-0.230179028</v>
       </c>
       <c r="K80" t="n">
-        <v>0.022331155</v>
+        <v>-0.157362849</v>
       </c>
       <c r="L80" t="n">
-        <v>0.4601</v>
+        <v>0.53</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>000603.SZ</t>
+          <t>002493.SZ</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.011840608</v>
+        <v>0.627430563</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.019838354</v>
+        <v>0.042166485</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.006526468000000001</v>
+        <v>0.039022611</v>
       </c>
       <c r="G81" t="n">
-        <v>0.019081272</v>
+        <v>0.100682594</v>
       </c>
       <c r="H81" t="n">
-        <v>0.006442376999999999</v>
+        <v>0.069890575</v>
       </c>
       <c r="I81" t="n">
-        <v>0.038115038</v>
+        <v>-0.002663623</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005017921</v>
+        <v>-0.498010233</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.080996885</v>
+        <v>-0.542740047</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1647</v>
+        <v>0.65</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>600821.SH</t>
+          <t>688365.SH</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.030484173</v>
+        <v>0.121607246</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.079726651</v>
+        <v>-0.04038004799999999</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.012820513</v>
+        <v>-0.085501859</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.004237288</v>
+        <v>-0.056694813</v>
       </c>
       <c r="H82" t="n">
-        <v>0.030674847</v>
+        <v>-0.056057866</v>
       </c>
       <c r="I82" t="n">
-        <v>0.026694045</v>
+        <v>0.013513514</v>
       </c>
       <c r="J82" t="n">
-        <v>0.228013029</v>
+        <v>0.023411371</v>
       </c>
       <c r="K82" t="n">
-        <v>0.164021164</v>
+        <v>-0.13618677</v>
       </c>
       <c r="L82" t="n">
-        <v>0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>300827.SZ</t>
+          <t>002373.SZ</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.029863731</v>
+        <v>0.065118335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="E83" t="n">
-        <v>0.010315414</v>
+        <v>0.032914423</v>
       </c>
       <c r="F83" t="n">
-        <v>0.050256996</v>
+        <v>0.012224939</v>
       </c>
       <c r="G83" t="n">
-        <v>0.048627002</v>
+        <v>-0.07949231799999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0.035942029</v>
+        <v>-0.07949231799999999</v>
       </c>
       <c r="I83" t="n">
-        <v>0.020612485</v>
+        <v>-0.060367454</v>
       </c>
       <c r="J83" t="n">
-        <v>0.138639503</v>
+        <v>0.07498568999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>0.060451977</v>
+        <v>0.008588956999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>300529.SZ</t>
+          <t>000948.SZ</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0003278380000000001</v>
+        <v>0.008635378000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02746114</v>
+        <v>-0.02605042</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.020108696</v>
+        <v>-0.162857143</v>
       </c>
       <c r="G84" t="n">
-        <v>0.049812696</v>
+        <v>-0.216135458</v>
       </c>
       <c r="H84" t="n">
-        <v>0.061406141</v>
+        <v>-0.204142012</v>
       </c>
       <c r="I84" t="n">
-        <v>0.025137634</v>
+        <v>0.096893491</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.08497109800000001</v>
+        <v>0.06793893099999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.291810048</v>
+        <v>-0.011599006</v>
       </c>
       <c r="L84" t="n">
-        <v>0.78</v>
+        <v>0.0274</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>000948.SZ</t>
+          <t>002526.SZ</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.008635378000000001</v>
+        <v>0.000411562</v>
       </c>
       <c r="D85" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.02605042</v>
+        <v>0.045248869</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.162857143</v>
+        <v>0.004716980999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.216135458</v>
+        <v>-0.019323671</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.204142012</v>
+        <v>-0.029268293</v>
       </c>
       <c r="I85" t="n">
-        <v>0.096893491</v>
+        <v>-0.019323671</v>
       </c>
       <c r="J85" t="n">
-        <v>0.06793893099999999</v>
+        <v>-0.004761905</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.011599006</v>
+        <v>-0.034313725</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0274</v>
+        <v>0.0377</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>002891.SZ</t>
+          <t>000567.SZ</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.04493666</v>
+        <v>0.214671013</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09</v>
+        <v>0.66</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.07324909</v>
+        <v>0.023856859</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.081588603</v>
+        <v>-0.052518757</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08691691</v>
+        <v>-0.08388521</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.305968204</v>
+        <v>-0.052518757</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.240346535</v>
+        <v>-0.028272251</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.228186275</v>
+        <v>0.032512315</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.505709135</v>
+        <v>0.139351446</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2063</v>
+        <v>0.1873</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>002526.SZ</t>
+          <t>000952.SZ</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.000411562</v>
+        <v>0.002806065</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E87" t="n">
-        <v>0.045248869</v>
+        <v>0.024128686</v>
       </c>
       <c r="F87" t="n">
-        <v>0.004716980999999999</v>
+        <v>0.013550136</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.019323671</v>
+        <v>0.008174387</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.029268293</v>
+        <v>0.028037383</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.019323671</v>
+        <v>0.033200531</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.004761905</v>
+        <v>0.053315995</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.034313725</v>
+        <v>0.06185567</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0377</v>
+        <v>0.1736</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>002683.SZ</t>
+          <t>688683.SH</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.04526105900000001</v>
+        <v>0.027447288</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.013868613</v>
+        <v>-0.12627551</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.082197117</v>
+        <v>-0.137153896</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.037341299</v>
+        <v>-0.186827957</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.034251675</v>
+        <v>-0.255152807</v>
       </c>
       <c r="I88" t="n">
-        <v>0.027651383</v>
+        <v>-0.176548967</v>
       </c>
       <c r="J88" t="n">
-        <v>0.016985138</v>
+        <v>-0.073556231</v>
       </c>
       <c r="K88" t="n">
-        <v>0.078301261</v>
+        <v>-0.033352838</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2813</v>
+        <v>0.25</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>688663.SH</t>
+          <t>300254.SZ</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.034573653</v>
+        <v>0.005911544</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="E89" t="n">
-        <v>0.009790831999999999</v>
+        <v>0.025931929</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.092292587</v>
+        <v>0.025931929</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.159458051</v>
+        <v>0.185636856</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.104766634</v>
+        <v>0.185636856</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.103670635</v>
+        <v>0.146306818</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.09822310000000001</v>
+        <v>0.106983655</v>
       </c>
       <c r="K89" t="n">
-        <v>0.07791131400000001</v>
+        <v>0.126453488</v>
       </c>
       <c r="L89" t="n">
-        <v>0.29</v>
+        <v>-0.0181</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>000952.SZ</t>
+          <t>603228.SH</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.002806065</v>
+        <v>0.001524117</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.024128686</v>
+        <v>0.052650177</v>
       </c>
       <c r="F90" t="n">
-        <v>0.013550136</v>
+        <v>0.037342908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008174387</v>
+        <v>0.043524795</v>
       </c>
       <c r="H90" t="n">
-        <v>0.028037383</v>
+        <v>0.043524795</v>
       </c>
       <c r="I90" t="n">
-        <v>0.033200531</v>
+        <v>-0.052197802</v>
       </c>
       <c r="J90" t="n">
-        <v>0.053315995</v>
+        <v>-0.066428003</v>
       </c>
       <c r="K90" t="n">
-        <v>0.06185567</v>
+        <v>0.075517241</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1736</v>
+        <v>0.55</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>000528.SZ</t>
+          <t>688663.SH</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00181127</v>
+        <v>0.034573653</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E91" t="n">
-        <v>0.09389671400000001</v>
+        <v>0.009790831999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05019685</v>
+        <v>-0.092292587</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.015789474</v>
+        <v>-0.159458051</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.007306889</v>
+        <v>-0.104766634</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.100342075</v>
+        <v>-0.103670635</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.137971698</v>
+        <v>-0.09822310000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.209273183</v>
+        <v>0.07791131400000001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.52</v>
+        <v>0.29</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>002373.SZ</t>
+          <t>000528.SZ</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.065118335</v>
+        <v>0.00181127</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.032914423</v>
+        <v>0.09389671400000001</v>
       </c>
       <c r="F92" t="n">
-        <v>0.012224939</v>
+        <v>0.05019685</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07949231799999999</v>
+        <v>-0.015789474</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.07949231799999999</v>
+        <v>-0.007306889</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.060367454</v>
+        <v>-0.100342075</v>
       </c>
       <c r="J92" t="n">
-        <v>0.07498568999999999</v>
+        <v>-0.137971698</v>
       </c>
       <c r="K92" t="n">
-        <v>0.008588956999999999</v>
+        <v>-0.209273183</v>
       </c>
       <c r="L92" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>300254.SZ</t>
+          <t>300981.SZ</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.005911544</v>
+        <v>0.247607059</v>
       </c>
       <c r="D93" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="E93" t="n">
-        <v>0.025931929</v>
+        <v>0.134574087</v>
       </c>
       <c r="F93" t="n">
-        <v>0.025931929</v>
+        <v>0.030317613</v>
       </c>
       <c r="G93" t="n">
-        <v>0.185636856</v>
+        <v>0.033341329</v>
       </c>
       <c r="H93" t="n">
-        <v>0.185636856</v>
+        <v>0.039332539</v>
       </c>
       <c r="I93" t="n">
-        <v>0.146306818</v>
+        <v>-0.04449244099999999</v>
       </c>
       <c r="J93" t="n">
-        <v>0.106983655</v>
+        <v>-0.121521336</v>
       </c>
       <c r="K93" t="n">
-        <v>0.126453488</v>
+        <v>-0.189609367</v>
       </c>
       <c r="L93" t="n">
-        <v>-0.0181</v>
+        <v>15.0394</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
@@ -4454,1937 +4454,1937 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>688683.SH</t>
+          <t>688788.SH</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.027447288</v>
+        <v>0.004060746</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.12627551</v>
+        <v>-0.038821693</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.137153896</v>
+        <v>-0.059701493</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.186827957</v>
+        <v>-0.07554029499999999</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.255152807</v>
+        <v>-0.067562149</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.176548967</v>
+        <v>0.14119829</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.073556231</v>
+        <v>0.227869209</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.033352838</v>
+        <v>0.208766716</v>
       </c>
       <c r="L94" t="n">
-        <v>0.25</v>
+        <v>2.4183</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>300902.SZ</t>
+          <t>688330.SH</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.001849397</v>
+        <v>0.003742229</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.051304348</v>
+        <v>0.010793824</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.053594771</v>
+        <v>0.005357879</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.021546261</v>
+        <v>-0.012445812</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.04449244099999999</v>
+        <v>-0.012445812</v>
       </c>
       <c r="I95" t="n">
-        <v>0.009016393000000001</v>
+        <v>0.008898015</v>
       </c>
       <c r="J95" t="n">
-        <v>0.014669927</v>
+        <v>0.019634394</v>
       </c>
       <c r="K95" t="n">
-        <v>0.034730539</v>
+        <v>0.052107882</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09</v>
+        <v>2.1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>603228.SH</t>
+          <t>603392.SH</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.001524117</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E96" t="n">
-        <v>0.052650177</v>
+        <v>0.024047511</v>
       </c>
       <c r="F96" t="n">
-        <v>0.037342908</v>
+        <v>-0.034111619</v>
       </c>
       <c r="G96" t="n">
-        <v>0.043524795</v>
+        <v>0.07439212099999999</v>
       </c>
       <c r="H96" t="n">
-        <v>0.043524795</v>
+        <v>-0.274279661</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.052197802</v>
+        <v>-0.38674721</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.066428003</v>
+        <v>-0.139128788</v>
       </c>
       <c r="K96" t="n">
-        <v>0.075517241</v>
+        <v>-0.167974212</v>
       </c>
       <c r="L96" t="n">
-        <v>0.55</v>
+        <v>1.47</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>002493.SZ</t>
+          <t>603301.SH</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.627430563</v>
+        <v>0.334151568</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="E97" t="n">
-        <v>0.042166485</v>
+        <v>0.002961866</v>
       </c>
       <c r="F97" t="n">
-        <v>0.039022611</v>
+        <v>0.031120705</v>
       </c>
       <c r="G97" t="n">
-        <v>0.100682594</v>
+        <v>0.020371044</v>
       </c>
       <c r="H97" t="n">
-        <v>0.069890575</v>
+        <v>-0.019110691</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.002663623</v>
+        <v>-0.086982846</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.498010233</v>
+        <v>-0.15554602</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.542740047</v>
+        <v>-0.266698024</v>
       </c>
       <c r="L97" t="n">
-        <v>0.65</v>
+        <v>1.66</v>
       </c>
       <c r="M97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>300901.SZ</t>
+          <t>603185.SH</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.002409948</v>
+        <v>0.007111028</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.032994924</v>
+        <v>0.038919668</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.027129338</v>
+        <v>-0.055361217</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.008674102</v>
+        <v>-0.011516035</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.027129338</v>
+        <v>0.016929943</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.01369863</v>
+        <v>0.05204918</v>
       </c>
       <c r="J98" t="n">
-        <v>0.003671971</v>
+        <v>0.164026263</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.126643599</v>
+        <v>0.386363636</v>
       </c>
       <c r="L98" t="n">
-        <v>0.18</v>
+        <v>3.212</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>002645.SZ</t>
+          <t>688318.SH</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.014391501</v>
+        <v>0.030080334</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="E99" t="n">
-        <v>0.02921069</v>
+        <v>0.024442847</v>
       </c>
       <c r="F99" t="n">
-        <v>0.035802469</v>
+        <v>-0.01083497</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.055405405</v>
+        <v>0.042834242</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.103886926</v>
+        <v>0.095716969</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.103107345</v>
+        <v>0.151923186</v>
       </c>
       <c r="J99" t="n">
-        <v>0.09658762300000001</v>
+        <v>0.213291873</v>
       </c>
       <c r="K99" t="n">
-        <v>0.192764858</v>
+        <v>0.121941176</v>
       </c>
       <c r="L99" t="n">
-        <v>0.4424</v>
+        <v>1.77</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>300829.SZ</t>
+          <t>002978.SZ</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.107302752</v>
+        <v>0.134174173</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.037031225</v>
+        <v>-0.022761434</v>
       </c>
       <c r="F100" t="n">
-        <v>0.102121434</v>
+        <v>0.021167283</v>
       </c>
       <c r="G100" t="n">
-        <v>0.170451473</v>
+        <v>0.013054289</v>
       </c>
       <c r="H100" t="n">
-        <v>0.145264624</v>
+        <v>0.094486692</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.103776978</v>
+        <v>0.074786325</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.008877199000000001</v>
+        <v>0.211423841</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.024028033</v>
+        <v>0.089292543</v>
       </c>
       <c r="L100" t="n">
-        <v>0.39</v>
+        <v>1.9021</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>002596.SZ</t>
+          <t>002821.SZ</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.004700083</v>
+        <v>0.150958838</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001897533</v>
+        <v>0.04479952</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.005736138000000001</v>
+        <v>0.030242482</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.005736138000000001</v>
+        <v>0.129370629</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.047808765</v>
+        <v>0.117511095</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.003816794</v>
+        <v>0.181272337</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.08677686</v>
+        <v>0.284572142</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.387862797</v>
+        <v>0.220179739</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.0267</v>
+        <v>1.78</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>002579.SZ</t>
+          <t>000661.SZ</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.055917691</v>
+        <v>0.491247682</v>
       </c>
       <c r="D102" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0213858</v>
+        <v>0.021670103</v>
       </c>
       <c r="F102" t="n">
-        <v>0.012942192</v>
+        <v>0.046442926</v>
       </c>
       <c r="G102" t="n">
-        <v>0.009523810000000001</v>
+        <v>0.007571479</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.026929982</v>
+        <v>-0.013867521</v>
       </c>
       <c r="I102" t="n">
-        <v>0.04427736</v>
+        <v>0.062476537</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.104247104</v>
+        <v>-0.198509725</v>
       </c>
       <c r="K102" t="n">
-        <v>0.052195526</v>
+        <v>-0.151954358</v>
       </c>
       <c r="L102" t="n">
-        <v>0.16</v>
+        <v>4.75</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>603095.SH</t>
+          <t>688260.SH</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.005151967</v>
+        <v>0.040174309</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.002983802</v>
+        <v>-0.394428152</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.041150442</v>
+        <v>-0.463076923</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.04068996</v>
+        <v>-0.465331279</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.04068996</v>
+        <v>-0.4921548120000001</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.032017544</v>
+        <v>-0.717639976</v>
       </c>
       <c r="J103" t="n">
-        <v>0.024865313</v>
+        <v>-0.274229567</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.009005146</v>
+        <v>-0.374277457</v>
       </c>
       <c r="L103" t="n">
-        <v>0.83</v>
+        <v>-0.0008</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>000567.SZ</t>
+          <t>688611.SH</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.214671013</v>
+        <v>0.036838072</v>
       </c>
       <c r="D104" t="n">
-        <v>0.66</v>
+        <v>0.23</v>
       </c>
       <c r="E104" t="n">
-        <v>0.023856859</v>
+        <v>-0.234649123</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.052518757</v>
+        <v>-0.250555309</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.08388521</v>
+        <v>-0.283337132</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.052518757</v>
+        <v>-0.464239272</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.028272251</v>
+        <v>-0.451030928</v>
       </c>
       <c r="J104" t="n">
-        <v>0.032512315</v>
+        <v>-0.239815019</v>
       </c>
       <c r="K104" t="n">
-        <v>0.139351446</v>
+        <v>-0.125324805</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1873</v>
+        <v>0.37</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>002983.SZ</t>
+          <t>300690.SZ</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.006838070999999999</v>
+        <v>0.000688425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.011297376</v>
+        <v>-0.001687154</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.08087649400000001</v>
+        <v>-0.6071152360000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.036287242</v>
+        <v>-0.822807018</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.025708885</v>
+        <v>-0.8148471620000001</v>
       </c>
       <c r="I105" t="n">
-        <v>0.008043876</v>
+        <v>-0.8220078909999999</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08745375</v>
+        <v>-0.9366262809999999</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.010428305</v>
+        <v>-0.676482453</v>
       </c>
       <c r="L105" t="n">
-        <v>0.26</v>
+        <v>0.64</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>605300.SH</t>
+          <t>300702.SZ</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.033400601</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.090909091</v>
+        <v>-0.042507205</v>
       </c>
       <c r="F106" t="n">
-        <v>0.248608534</v>
+        <v>-0.075037147</v>
       </c>
       <c r="G106" t="n">
-        <v>0.448979592</v>
+        <v>-0.09787556900000001</v>
       </c>
       <c r="H106" t="n">
-        <v>0.394392523</v>
+        <v>-0.079689599</v>
       </c>
       <c r="I106" t="n">
-        <v>0.394166043</v>
+        <v>-0.106607525</v>
       </c>
       <c r="J106" t="n">
-        <v>0.404192718</v>
+        <v>-1.07842574</v>
       </c>
       <c r="K106" t="n">
-        <v>0.29900476</v>
+        <v>-1.640510949</v>
       </c>
       <c r="L106" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
       <c r="M106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>688133.SH</t>
+          <t>001201.SZ</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.00614463</v>
+        <v>0.149705791</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.02152698</v>
+        <v>-0.234546192</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.0366422</v>
+        <v>-0.426316612</v>
       </c>
       <c r="G107" t="n">
-        <v>0.022252747</v>
+        <v>-0.507847348</v>
       </c>
       <c r="H107" t="n">
-        <v>0.128550441</v>
+        <v>-0.531375839</v>
       </c>
       <c r="I107" t="n">
-        <v>0.17074421</v>
+        <v>-0.5453775820000001</v>
       </c>
       <c r="J107" t="n">
-        <v>0.431469649</v>
+        <v>-1.171544135</v>
       </c>
       <c r="K107" t="n">
-        <v>0.402952525</v>
+        <v>-1.607714286</v>
       </c>
       <c r="L107" t="n">
-        <v>0.6</v>
+        <v>1.57</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>603127.SH</t>
+          <t>688395.SH</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.001132627</v>
+        <v>0.032305271</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.058566373</v>
+        <v>-0.188059701</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.07847295900000001</v>
+        <v>-0.256842105</v>
       </c>
       <c r="G108" t="n">
-        <v>0.003527337</v>
+        <v>-0.3380649979999999</v>
       </c>
       <c r="H108" t="n">
-        <v>0.09088200199999999</v>
+        <v>-0.348644578</v>
       </c>
       <c r="I108" t="n">
-        <v>0.070667073</v>
+        <v>-0.339566193</v>
       </c>
       <c r="J108" t="n">
-        <v>0.171059066</v>
+        <v>-0.300653595</v>
       </c>
       <c r="K108" t="n">
-        <v>0.231873112</v>
+        <v>-0.339566193</v>
       </c>
       <c r="L108" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>688025.SH</t>
+          <t>603610.SH</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.00700472</v>
+        <v>0.024713382</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E109" t="n">
-        <v>0.032650946</v>
+        <v>-0.100601202</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.00080429</v>
+        <v>-0.08067689900000001</v>
       </c>
       <c r="G109" t="n">
-        <v>0.010863805</v>
+        <v>-0.050497322</v>
       </c>
       <c r="H109" t="n">
-        <v>0.051816104</v>
+        <v>-0.07307542</v>
       </c>
       <c r="I109" t="n">
-        <v>0.142627469</v>
+        <v>-0.036226415</v>
       </c>
       <c r="J109" t="n">
-        <v>0.164876957</v>
+        <v>-0.525555556</v>
       </c>
       <c r="K109" t="n">
-        <v>0.301720913</v>
+        <v>-0.655213984</v>
       </c>
       <c r="L109" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="M109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>601633.SH</t>
+          <t>300972.SZ</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.04119495</v>
+        <v>0.051321757</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E110" t="n">
-        <v>0.00478612</v>
+        <v>-0.193181818</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.06498079400000001</v>
+        <v>-0.418918919</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.083007813</v>
+        <v>-0.464592275</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.004832377000000001</v>
+        <v>-0.4145077720000001</v>
       </c>
       <c r="I110" t="n">
-        <v>0.08473177400000001</v>
+        <v>-0.436842105</v>
       </c>
       <c r="J110" t="n">
-        <v>0.241795807</v>
+        <v>-0.580775912</v>
       </c>
       <c r="K110" t="n">
-        <v>0.388756201</v>
+        <v>-0.683107275</v>
       </c>
       <c r="L110" t="n">
-        <v>0.39</v>
+        <v>-0.08</v>
       </c>
       <c r="M110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>688366.SH</t>
+          <t>688191.SH</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.116869258</v>
+        <v>0.04426250299999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.015684517</v>
+        <v>-0.356631811</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.075529896</v>
+        <v>-0.38795045</v>
       </c>
       <c r="G111" t="n">
-        <v>0.018122744</v>
+        <v>-0.32455669</v>
       </c>
       <c r="H111" t="n">
-        <v>0.136077759</v>
+        <v>-0.295323174</v>
       </c>
       <c r="I111" t="n">
-        <v>0.260119695</v>
+        <v>-0.5012180270000001</v>
       </c>
       <c r="J111" t="n">
-        <v>0.379041096</v>
+        <v>-0.437317784</v>
       </c>
       <c r="K111" t="n">
-        <v>0.387432432</v>
+        <v>-0.16</v>
       </c>
       <c r="L111" t="n">
-        <v>1.31</v>
+        <v>0.19</v>
       </c>
       <c r="M111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>688383.SH</t>
+          <t>002985.SZ</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.078588345</v>
+        <v>0.454148489</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="E112" t="n">
-        <v>0.205097087</v>
+        <v>0.020643432</v>
       </c>
       <c r="F112" t="n">
-        <v>0.192852742</v>
+        <v>-0.007376766999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>0.275282142</v>
+        <v>-0.560944344</v>
       </c>
       <c r="H112" t="n">
-        <v>0.317779398</v>
+        <v>-0.727799456</v>
       </c>
       <c r="I112" t="n">
-        <v>0.433635971</v>
+        <v>-0.607480748</v>
       </c>
       <c r="J112" t="n">
-        <v>0.415230783</v>
+        <v>-0.459011483</v>
       </c>
       <c r="K112" t="n">
-        <v>0.585940957</v>
+        <v>-0.330783242</v>
       </c>
       <c r="L112" t="n">
-        <v>1.17</v>
+        <v>0.89</v>
       </c>
       <c r="M112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>300642.SZ</t>
+          <t>300975.SZ</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.000468844</v>
+        <v>0.066312544</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E113" t="n">
-        <v>0.057539958</v>
+        <v>-0.435653003</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.032115677</v>
+        <v>-0.507507508</v>
       </c>
       <c r="G113" t="n">
-        <v>0.030731847</v>
+        <v>-0.432239658</v>
       </c>
       <c r="H113" t="n">
-        <v>0.045601689</v>
+        <v>-0.39897817</v>
       </c>
       <c r="I113" t="n">
-        <v>0.11103828</v>
+        <v>-0.540664962</v>
       </c>
       <c r="J113" t="n">
-        <v>0.214252607</v>
+        <v>-0.6004250800000001</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.072433971</v>
+        <v>-0.682681564</v>
       </c>
       <c r="L113" t="n">
-        <v>0.825</v>
+        <v>0.3257</v>
       </c>
       <c r="M113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>605089.SH</t>
+          <t>300985.SZ</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.05304992</v>
+        <v>0.07353308900000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E114" t="n">
-        <v>0.248719824</v>
+        <v>-0.180887372</v>
       </c>
       <c r="F114" t="n">
-        <v>0.379174853</v>
+        <v>-0.328803545</v>
       </c>
       <c r="G114" t="n">
-        <v>0.576014037</v>
+        <v>-0.4082654979999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0.649607642</v>
+        <v>-0.418032787</v>
       </c>
       <c r="I114" t="n">
-        <v>0.6521591870000001</v>
+        <v>-0.40694401</v>
       </c>
       <c r="J114" t="n">
-        <v>0.548571429</v>
+        <v>-0.554250173</v>
       </c>
       <c r="K114" t="n">
-        <v>0.37492392</v>
+        <v>-0.7687770350000001</v>
       </c>
       <c r="L114" t="n">
-        <v>0.74</v>
+        <v>0.2718</v>
       </c>
       <c r="M114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>002459.SZ</t>
+          <t>002886.SZ</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.329638959</v>
+        <v>0.018500463</v>
       </c>
       <c r="D115" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="E115" t="n">
-        <v>0.027985075</v>
+        <v>-0.003614458</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.020368194</v>
+        <v>-0.047359598</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.00269438</v>
+        <v>-0.08746736300000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0.08468025300000001</v>
+        <v>-0.094612352</v>
       </c>
       <c r="I115" t="n">
-        <v>0.162379421</v>
+        <v>-0.8511111109999999</v>
       </c>
       <c r="J115" t="n">
-        <v>0.446686491</v>
+        <v>-0.769830028</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5576498560000001</v>
+        <v>-0.592734226</v>
       </c>
       <c r="L115" t="n">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>605180.SH</t>
+          <t>605289.SH</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.041574271</v>
+        <v>0.043920277</v>
       </c>
       <c r="D116" t="n">
         <v>0.25</v>
       </c>
       <c r="E116" t="n">
-        <v>0.09083215800000001</v>
+        <v>-0.202756508</v>
       </c>
       <c r="F116" t="n">
-        <v>0.248717949</v>
+        <v>-0.299470549</v>
       </c>
       <c r="G116" t="n">
-        <v>0.105963939</v>
+        <v>-0.271285206</v>
       </c>
       <c r="H116" t="n">
-        <v>0.144184811</v>
+        <v>-0.265957447</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02185129</v>
+        <v>-0.352738546</v>
       </c>
       <c r="J116" t="n">
-        <v>0.118917441</v>
+        <v>-0.44534413</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.050521512</v>
+        <v>-0.595044679</v>
       </c>
       <c r="L116" t="n">
-        <v>1.23</v>
+        <v>0.63</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>603160.SH</t>
+          <t>300968.SZ</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.000200281</v>
+        <v>0.098600585</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E117" t="n">
-        <v>0.049528105</v>
+        <v>-0.117315574</v>
       </c>
       <c r="F117" t="n">
-        <v>0.020063722</v>
+        <v>-0.131811105</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08196192299999999</v>
+        <v>-0.245573958</v>
       </c>
       <c r="H117" t="n">
-        <v>0.009832071999999999</v>
+        <v>-0.245573958</v>
       </c>
       <c r="I117" t="n">
-        <v>0.099042039</v>
+        <v>-0.217755444</v>
       </c>
       <c r="J117" t="n">
-        <v>0.111354053</v>
+        <v>-0.313855422</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.011915348</v>
+        <v>-0.374291115</v>
       </c>
       <c r="L117" t="n">
-        <v>0.93</v>
+        <v>0.12</v>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>688630.SH</t>
+          <t>688533.SH</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.05594819400000001</v>
+        <v>0.05412684099999999</v>
       </c>
       <c r="D118" t="n">
         <v>0.2</v>
       </c>
       <c r="E118" t="n">
-        <v>0.382179882</v>
+        <v>-0.483633011</v>
       </c>
       <c r="F118" t="n">
-        <v>0.254563895</v>
+        <v>-0.6848167540000001</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1</v>
+        <v>-0.7026455029999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0.151923077</v>
+        <v>-0.573594132</v>
       </c>
       <c r="I118" t="n">
-        <v>0.151270208</v>
+        <v>-0.65025641</v>
       </c>
       <c r="J118" t="n">
-        <v>0.310506567</v>
+        <v>-0.587567834</v>
       </c>
       <c r="K118" t="n">
-        <v>0.427867151</v>
+        <v>-0.496744186</v>
       </c>
       <c r="L118" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>605098.SH</t>
+          <t>300967.SZ</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.043231163</v>
+        <v>0.07133951099999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E119" t="n">
-        <v>0.16519546</v>
+        <v>-0.466824645</v>
       </c>
       <c r="F119" t="n">
-        <v>0.117137142</v>
+        <v>-0.559193955</v>
       </c>
       <c r="G119" t="n">
-        <v>0.065411765</v>
+        <v>-0.6019668739999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0.176616915</v>
+        <v>-0.708057395</v>
       </c>
       <c r="I119" t="n">
-        <v>0.100339751</v>
+        <v>-0.6375661379999999</v>
       </c>
       <c r="J119" t="n">
-        <v>0.136709411</v>
+        <v>-0.725195095</v>
       </c>
       <c r="K119" t="n">
-        <v>0.330185497</v>
+        <v>-0.9128553770000001</v>
       </c>
       <c r="L119" t="n">
-        <v>1.09</v>
+        <v>0.33</v>
       </c>
       <c r="M119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>300999.SZ</t>
+          <t>300971.SZ</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.08511051800000001</v>
+        <v>0.046533904</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E120" t="n">
-        <v>0.047468354</v>
+        <v>-0.217976319</v>
       </c>
       <c r="F120" t="n">
-        <v>0.084642676</v>
+        <v>-0.227556279</v>
       </c>
       <c r="G120" t="n">
-        <v>0.080682107</v>
+        <v>-0.287990894</v>
       </c>
       <c r="H120" t="n">
-        <v>0.080682107</v>
+        <v>-0.287990894</v>
       </c>
       <c r="I120" t="n">
-        <v>0.08522223599999999</v>
+        <v>-0.223573939</v>
       </c>
       <c r="J120" t="n">
-        <v>0.212814645</v>
+        <v>-0.18699187</v>
       </c>
       <c r="K120" t="n">
-        <v>0.102385686</v>
+        <v>-0.290929835</v>
       </c>
       <c r="L120" t="n">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="M120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>601279.SH</t>
+          <t>300966.SZ</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.022878035</v>
+        <v>0.08107884900000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="E121" t="n">
-        <v>0.318077803</v>
+        <v>-0.538606911</v>
       </c>
       <c r="F121" t="n">
-        <v>0.436672968</v>
+        <v>-0.581737441</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6498237370000001</v>
+        <v>-0.7001789979999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0.6498237370000001</v>
+        <v>-0.051476015</v>
       </c>
       <c r="I121" t="n">
-        <v>0.7818448020000001</v>
+        <v>0.015376641</v>
       </c>
       <c r="J121" t="n">
-        <v>0.7374449340000001</v>
+        <v>-0.03392598</v>
       </c>
       <c r="K121" t="n">
-        <v>0.685654008</v>
+        <v>-0.238105583</v>
       </c>
       <c r="L121" t="n">
-        <v>0.03</v>
+        <v>0.43</v>
       </c>
       <c r="M121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>688315.SH</t>
+          <t>300962.SZ</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.045952678</v>
+        <v>0.112444237</v>
       </c>
       <c r="D122" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="E122" t="n">
-        <v>0.080536913</v>
+        <v>0.008571429</v>
       </c>
       <c r="F122" t="n">
-        <v>0.046956522</v>
+        <v>-0.05119660700000001</v>
       </c>
       <c r="G122" t="n">
-        <v>0.377272727</v>
+        <v>-0.31091802</v>
       </c>
       <c r="H122" t="n">
-        <v>0.365005794</v>
+        <v>-0.270596851</v>
       </c>
       <c r="I122" t="n">
-        <v>0.278947368</v>
+        <v>-0.322408537</v>
       </c>
       <c r="J122" t="n">
-        <v>0.494278331</v>
+        <v>-0.371541502</v>
       </c>
       <c r="K122" t="n">
-        <v>0.333819596</v>
+        <v>-0.4944013779999999</v>
       </c>
       <c r="L122" t="n">
-        <v>0.22</v>
+        <v>0.2286</v>
       </c>
       <c r="M122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>688386.SH</t>
+          <t>300963.SZ</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.00111522</v>
+        <v>0.073735071</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="E123" t="n">
-        <v>0.037558685</v>
+        <v>-0.423175234</v>
       </c>
       <c r="F123" t="n">
-        <v>0.086452763</v>
+        <v>-0.419546742</v>
       </c>
       <c r="G123" t="n">
-        <v>0.086859688</v>
+        <v>-0.620633894</v>
       </c>
       <c r="H123" t="n">
-        <v>0.10616961</v>
+        <v>-0.601982097</v>
       </c>
       <c r="I123" t="n">
-        <v>0.191640379</v>
+        <v>-0.251811142</v>
       </c>
       <c r="J123" t="n">
-        <v>0.317008163</v>
+        <v>-0.56105919</v>
       </c>
       <c r="K123" t="n">
-        <v>0.353414288</v>
+        <v>-0.566916823</v>
       </c>
       <c r="L123" t="n">
-        <v>0.49</v>
+        <v>0.23</v>
       </c>
       <c r="M123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>002895.SZ</t>
+          <t>688636.SH</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.041899495</v>
+        <v>0.056771293</v>
       </c>
       <c r="D124" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E124" t="n">
-        <v>0.007820137</v>
+        <v>-0.433426258</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.002964427</v>
+        <v>-0.446871231</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.032553408</v>
+        <v>-0.27485242</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.025252525</v>
+        <v>-0.45017459</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.001974334</v>
+        <v>-0.451149039</v>
       </c>
       <c r="J124" t="n">
-        <v>0.216820988</v>
+        <v>-0.038668719</v>
       </c>
       <c r="K124" t="n">
-        <v>0.545454545</v>
+        <v>0.099716525</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2163</v>
+        <v>1.1</v>
       </c>
       <c r="M124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>605086.SH</t>
+          <t>300978.SZ</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.030520822</v>
+        <v>0.0622474</v>
       </c>
       <c r="D125" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E125" t="n">
-        <v>0.317109145</v>
+        <v>-0.3749430520000001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.435537946</v>
+        <v>-0.383768913</v>
       </c>
       <c r="G125" t="n">
-        <v>0.311268129</v>
+        <v>-0.428300994</v>
       </c>
       <c r="H125" t="n">
-        <v>0.301132075</v>
+        <v>-0.495540139</v>
       </c>
       <c r="I125" t="n">
-        <v>0.32111437</v>
+        <v>-0.48816568</v>
       </c>
       <c r="J125" t="n">
-        <v>0.269428008</v>
+        <v>-0.596825397</v>
       </c>
       <c r="K125" t="n">
-        <v>0.288239816</v>
+        <v>-0.8213639109999999</v>
       </c>
       <c r="L125" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="M125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>605378.SH</t>
+          <t>300642.SZ</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.043653415</v>
+        <v>0.000468844</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.317092867</v>
+        <v>0.057539958</v>
       </c>
       <c r="F126" t="n">
-        <v>0.401650943</v>
+        <v>-0.032115677</v>
       </c>
       <c r="G126" t="n">
-        <v>0.282116582</v>
+        <v>0.030731847</v>
       </c>
       <c r="H126" t="n">
-        <v>0.329545455</v>
+        <v>0.045601689</v>
       </c>
       <c r="I126" t="n">
-        <v>0.252724595</v>
+        <v>0.11103828</v>
       </c>
       <c r="J126" t="n">
-        <v>0.388527356</v>
+        <v>0.214252607</v>
       </c>
       <c r="K126" t="n">
-        <v>0.453232759</v>
+        <v>-0.072433971</v>
       </c>
       <c r="L126" t="n">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="M126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>603897.SH</t>
+          <t>603160.SH</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.108434866</v>
+        <v>0.000200281</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.007683215</v>
+        <v>0.049528105</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.005306604</v>
+        <v>0.020063722</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.033333333</v>
+        <v>0.08196192299999999</v>
       </c>
       <c r="H127" t="n">
-        <v>0.05749032599999999</v>
+        <v>0.009832071999999999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.064215148</v>
+        <v>0.099042039</v>
       </c>
       <c r="J127" t="n">
-        <v>0.234739677</v>
+        <v>0.111354053</v>
       </c>
       <c r="K127" t="n">
-        <v>0.372700515</v>
+        <v>-0.011915348</v>
       </c>
       <c r="L127" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="M127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>300620.SZ</t>
+          <t>603127.SH</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7.879999999999999e-05</v>
+        <v>0.001132627</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.128065395</v>
+        <v>-0.058566373</v>
       </c>
       <c r="F128" t="n">
-        <v>0.05982906</v>
+        <v>-0.07847295900000001</v>
       </c>
       <c r="G128" t="n">
-        <v>0.061333333</v>
+        <v>0.003527337</v>
       </c>
       <c r="H128" t="n">
-        <v>0.07001321000000001</v>
+        <v>0.09088200199999999</v>
       </c>
       <c r="I128" t="n">
-        <v>0.102727504</v>
+        <v>0.070667073</v>
       </c>
       <c r="J128" t="n">
-        <v>0.171569781</v>
+        <v>0.171059066</v>
       </c>
       <c r="K128" t="n">
-        <v>0.375554373</v>
+        <v>0.231873112</v>
       </c>
       <c r="L128" t="n">
-        <v>0.535</v>
+        <v>0.6</v>
       </c>
       <c r="M128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>603876.SH</t>
+          <t>002459.SZ</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.124694473</v>
+        <v>0.329638959</v>
       </c>
       <c r="D129" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.027985075</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.020368194</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.00269438</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.08468025300000001</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.162379421</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.446686491</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.5576498560000001</v>
+      </c>
+      <c r="L129" t="n">
         <v>0.45</v>
       </c>
-      <c r="E129" t="n">
-        <v>0.054919908</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.012749004</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.008006404999999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.029757244</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.04911742099999999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.459424084</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.552546046</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.6</v>
-      </c>
       <c r="M129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>600889.SH</t>
+          <t>300573.SZ</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.006608101</v>
+        <v>0.006006134000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E130" t="n">
-        <v>0.03526971</v>
+        <v>0.004520017</v>
       </c>
       <c r="F130" t="n">
-        <v>0.006410256</v>
+        <v>-0.019920612</v>
       </c>
       <c r="G130" t="n">
-        <v>0.08823529400000001</v>
+        <v>0.10483871</v>
       </c>
       <c r="H130" t="n">
-        <v>0.174067496</v>
+        <v>0.045079147</v>
       </c>
       <c r="I130" t="n">
-        <v>0.265402844</v>
+        <v>0.104029446</v>
       </c>
       <c r="J130" t="n">
-        <v>0.30075188</v>
+        <v>0.185356975</v>
       </c>
       <c r="K130" t="n">
-        <v>0.360385144</v>
+        <v>-0.527578994</v>
       </c>
       <c r="L130" t="n">
-        <v>0.32</v>
+        <v>0.99</v>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>605117.SH</t>
+          <t>688025.SH</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.104126236</v>
+        <v>0.00700472</v>
       </c>
       <c r="D131" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E131" t="n">
-        <v>0.181991672</v>
+        <v>0.032650946</v>
       </c>
       <c r="F131" t="n">
-        <v>0.012565445</v>
+        <v>-0.00080429</v>
       </c>
       <c r="G131" t="n">
-        <v>0.021378165</v>
+        <v>0.010863805</v>
       </c>
       <c r="H131" t="n">
-        <v>0.09674329500000001</v>
+        <v>0.051816104</v>
       </c>
       <c r="I131" t="n">
-        <v>0.305596465</v>
+        <v>0.142627469</v>
       </c>
       <c r="J131" t="n">
-        <v>0.539595743</v>
+        <v>0.164876957</v>
       </c>
       <c r="K131" t="n">
-        <v>0.624840866</v>
+        <v>0.301720913</v>
       </c>
       <c r="L131" t="n">
-        <v>1.44</v>
+        <v>0.47</v>
       </c>
       <c r="M131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>688085.SH</t>
+          <t>605300.SH</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.056613766</v>
+        <v>0.033400601</v>
       </c>
       <c r="D132" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.090909091</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.248608534</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.448979592</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.394392523</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.394166043</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.404192718</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.29900476</v>
+      </c>
+      <c r="L132" t="n">
         <v>0.19</v>
       </c>
-      <c r="E132" t="n">
-        <v>-0.036357091</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.035833891</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.133614204</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.134915865</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.08195153099999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.17836758</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.26537382</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.34</v>
-      </c>
       <c r="M132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>688201.SH</t>
+          <t>688366.SH</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.040260108</v>
+        <v>0.116869258</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.06713323</v>
+        <v>-0.015684517</v>
       </c>
       <c r="F133" t="n">
-        <v>0.187968442</v>
+        <v>-0.075529896</v>
       </c>
       <c r="G133" t="n">
-        <v>0.251318422</v>
+        <v>0.018122744</v>
       </c>
       <c r="H133" t="n">
-        <v>0.280622051</v>
+        <v>0.136077759</v>
       </c>
       <c r="I133" t="n">
-        <v>0.325081967</v>
+        <v>0.260119695</v>
       </c>
       <c r="J133" t="n">
-        <v>0.25524602</v>
+        <v>0.379041096</v>
       </c>
       <c r="K133" t="n">
-        <v>0.306902357</v>
+        <v>0.387432432</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3149</v>
+        <v>1.31</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>605016.SH</t>
+          <t>605180.SH</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.034501641</v>
+        <v>0.041574271</v>
       </c>
       <c r="D134" t="n">
         <v>0.25</v>
       </c>
       <c r="E134" t="n">
-        <v>0.317223484</v>
+        <v>0.09083215800000001</v>
       </c>
       <c r="F134" t="n">
-        <v>0.233709501</v>
+        <v>0.248717949</v>
       </c>
       <c r="G134" t="n">
-        <v>0.260884831</v>
+        <v>0.105963939</v>
       </c>
       <c r="H134" t="n">
-        <v>0.315447154</v>
+        <v>0.144184811</v>
       </c>
       <c r="I134" t="n">
-        <v>0.504239284</v>
+        <v>0.02185129</v>
       </c>
       <c r="J134" t="n">
-        <v>0.398914906</v>
+        <v>0.118917441</v>
       </c>
       <c r="K134" t="n">
-        <v>0.242260619</v>
+        <v>-0.050521512</v>
       </c>
       <c r="L134" t="n">
-        <v>0.49</v>
+        <v>1.23</v>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>603324.SH</t>
+          <t>688133.SH</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.04576454</v>
+        <v>0.00614463</v>
       </c>
       <c r="D135" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E135" t="n">
-        <v>0.317020769</v>
+        <v>-0.02152698</v>
       </c>
       <c r="F135" t="n">
-        <v>0.372862779</v>
+        <v>-0.0366422</v>
       </c>
       <c r="G135" t="n">
-        <v>0.359955257</v>
+        <v>0.022252747</v>
       </c>
       <c r="H135" t="n">
-        <v>0.213146315</v>
+        <v>0.128550441</v>
       </c>
       <c r="I135" t="n">
-        <v>0.170002901</v>
+        <v>0.17074421</v>
       </c>
       <c r="J135" t="n">
-        <v>0.141356543</v>
+        <v>0.431469649</v>
       </c>
       <c r="K135" t="n">
-        <v>0.331854274</v>
+        <v>0.402952525</v>
       </c>
       <c r="L135" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="M135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>603733.SH</t>
+          <t>688630.SH</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.7326417340000001</v>
+        <v>0.05594819400000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.78</v>
+        <v>0.2</v>
       </c>
       <c r="E136" t="n">
-        <v>0.055514706</v>
+        <v>0.382179882</v>
       </c>
       <c r="F136" t="n">
-        <v>0.07189306400000001</v>
+        <v>0.254563895</v>
       </c>
       <c r="G136" t="n">
-        <v>0.061381074</v>
+        <v>0.1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.027262401</v>
+        <v>0.151923077</v>
       </c>
       <c r="I136" t="n">
-        <v>0.020960366</v>
+        <v>0.151270208</v>
       </c>
       <c r="J136" t="n">
-        <v>0.149900728</v>
+        <v>0.310506567</v>
       </c>
       <c r="K136" t="n">
-        <v>0.35549423</v>
+        <v>0.427867151</v>
       </c>
       <c r="L136" t="n">
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="M136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>603986.SH</t>
+          <t>603386.SH</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.001331569</v>
+        <v>0.008981691</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E137" t="n">
-        <v>0.128058436</v>
+        <v>-0.02195122</v>
       </c>
       <c r="F137" t="n">
-        <v>0.116596802</v>
+        <v>-0.025703794</v>
       </c>
       <c r="G137" t="n">
-        <v>0.040741781</v>
+        <v>0.017584994</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.004058585</v>
+        <v>0.043378995</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.401477833</v>
+        <v>0.043924701</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.07439577</v>
+        <v>0.057897695</v>
       </c>
       <c r="K137" t="n">
-        <v>0.072484243</v>
+        <v>0.190338164</v>
       </c>
       <c r="L137" t="n">
-        <v>1.19</v>
+        <v>0.52</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>688639.SH</t>
+          <t>003041.SZ</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.043122122</v>
+        <v>0.033392198</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E138" t="n">
-        <v>0.183271548</v>
+        <v>0.316996047</v>
       </c>
       <c r="F138" t="n">
-        <v>0.193732845</v>
+        <v>0.31392271</v>
       </c>
       <c r="G138" t="n">
-        <v>0.17755483</v>
+        <v>0.299648744</v>
       </c>
       <c r="H138" t="n">
-        <v>0.17755483</v>
+        <v>0.1641406</v>
       </c>
       <c r="I138" t="n">
-        <v>0.329210276</v>
+        <v>0.126095752</v>
       </c>
       <c r="J138" t="n">
-        <v>0.290744467</v>
+        <v>0.168431184</v>
       </c>
       <c r="K138" t="n">
-        <v>0.399488927</v>
+        <v>0.04</v>
       </c>
       <c r="L138" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.4256</v>
       </c>
       <c r="M138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -6427,305 +6427,305 @@
         <v>0.6899</v>
       </c>
       <c r="M139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>003041.SZ</t>
+          <t>603324.SH</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.033392198</v>
+        <v>0.04576454</v>
       </c>
       <c r="D140" t="n">
         <v>0.25</v>
       </c>
       <c r="E140" t="n">
-        <v>0.316996047</v>
+        <v>0.317020769</v>
       </c>
       <c r="F140" t="n">
-        <v>0.31392271</v>
+        <v>0.372862779</v>
       </c>
       <c r="G140" t="n">
-        <v>0.299648744</v>
+        <v>0.359955257</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1641406</v>
+        <v>0.213146315</v>
       </c>
       <c r="I140" t="n">
-        <v>0.126095752</v>
+        <v>0.170002901</v>
       </c>
       <c r="J140" t="n">
-        <v>0.168431184</v>
+        <v>0.141356543</v>
       </c>
       <c r="K140" t="n">
-        <v>0.04</v>
+        <v>0.331854274</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4256</v>
+        <v>0.48</v>
       </c>
       <c r="M140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>300979.SZ</t>
+          <t>688085.SH</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.399076033</v>
+        <v>0.056613766</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E141" t="n">
-        <v>0.015748031</v>
+        <v>-0.036357091</v>
       </c>
       <c r="F141" t="n">
-        <v>0.019607843</v>
+        <v>0.035833891</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.217137293</v>
+        <v>0.133614204</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.126126126</v>
+        <v>0.134915865</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.04427736</v>
+        <v>0.08195153099999999</v>
       </c>
       <c r="J141" t="n">
-        <v>-0.004016064000000001</v>
+        <v>0.17836758</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.07273117400000001</v>
+        <v>0.26537382</v>
       </c>
       <c r="L141" t="n">
-        <v>1.19</v>
+        <v>0.34</v>
       </c>
       <c r="M141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>000625.SZ</t>
+          <t>600889.SH</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.242258934</v>
+        <v>0.006608101</v>
       </c>
       <c r="D142" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.028711057</v>
+        <v>0.03526971</v>
       </c>
       <c r="F142" t="n">
-        <v>0.008244994</v>
+        <v>0.006410256</v>
       </c>
       <c r="G142" t="n">
-        <v>0.214918415</v>
+        <v>0.08823529400000001</v>
       </c>
       <c r="H142" t="n">
-        <v>0.268144285</v>
+        <v>0.174067496</v>
       </c>
       <c r="I142" t="n">
-        <v>0.23972912</v>
+        <v>0.265402844</v>
       </c>
       <c r="J142" t="n">
-        <v>0.363086233</v>
+        <v>0.30075188</v>
       </c>
       <c r="K142" t="n">
-        <v>0.135523614</v>
+        <v>0.360385144</v>
       </c>
       <c r="L142" t="n">
         <v>0.32</v>
       </c>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>300982.SZ</t>
+          <t>300620.SZ</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.061872736</v>
+        <v>7.879999999999999e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.070043939</v>
+        <v>0.128065395</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.02624073</v>
+        <v>0.05982906</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.04775771700000001</v>
+        <v>0.061333333</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.04623437</v>
+        <v>0.07001321000000001</v>
       </c>
       <c r="I143" t="n">
-        <v>0.135096154</v>
+        <v>0.102727504</v>
       </c>
       <c r="J143" t="n">
-        <v>0.27780008</v>
+        <v>0.171569781</v>
       </c>
       <c r="K143" t="n">
-        <v>0.410453875</v>
+        <v>0.375554373</v>
       </c>
       <c r="L143" t="n">
-        <v>1.09</v>
+        <v>0.535</v>
       </c>
       <c r="M143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>300973.SZ</t>
+          <t>603897.SH</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.192819049</v>
+        <v>0.108434866</v>
       </c>
       <c r="D144" t="n">
-        <v>0.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>0.141666667</v>
+        <v>-0.007683215</v>
       </c>
       <c r="F144" t="n">
-        <v>0.200930954</v>
+        <v>-0.005306604</v>
       </c>
       <c r="G144" t="n">
-        <v>0.299319728</v>
+        <v>-0.033333333</v>
       </c>
       <c r="H144" t="n">
-        <v>0.299319728</v>
+        <v>0.05749032599999999</v>
       </c>
       <c r="I144" t="n">
-        <v>0.346031746</v>
+        <v>0.064215148</v>
       </c>
       <c r="J144" t="n">
-        <v>0.361675756</v>
+        <v>0.234739677</v>
       </c>
       <c r="K144" t="n">
-        <v>0.297312048</v>
+        <v>0.372700515</v>
       </c>
       <c r="L144" t="n">
-        <v>0.9690000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="M144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>300981.SZ</t>
+          <t>605378.SH</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.247607059</v>
+        <v>0.043653415</v>
       </c>
       <c r="D145" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E145" t="n">
-        <v>0.134574087</v>
+        <v>0.317092867</v>
       </c>
       <c r="F145" t="n">
-        <v>0.030317613</v>
+        <v>0.401650943</v>
       </c>
       <c r="G145" t="n">
-        <v>0.033341329</v>
+        <v>0.282116582</v>
       </c>
       <c r="H145" t="n">
-        <v>0.039332539</v>
+        <v>0.329545455</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.04449244099999999</v>
+        <v>0.252724595</v>
       </c>
       <c r="J145" t="n">
-        <v>-0.121521336</v>
+        <v>0.388527356</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.189609367</v>
+        <v>0.453232759</v>
       </c>
       <c r="L145" t="n">
-        <v>15.0394</v>
+        <v>0.35</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>300985.SZ</t>
+          <t>002895.SZ</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.07353308900000001</v>
+        <v>0.041899495</v>
       </c>
       <c r="D146" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.180887372</v>
+        <v>0.007820137</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.328803545</v>
+        <v>-0.002964427</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.4082654979999999</v>
+        <v>-0.032553408</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.418032787</v>
+        <v>-0.025252525</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.40694401</v>
+        <v>-0.001974334</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.554250173</v>
+        <v>0.216820988</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.7687770350000001</v>
+        <v>0.545454545</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2718</v>
+        <v>0.2163</v>
       </c>
       <c r="M146" t="n">
         <v>4</v>
@@ -6733,42 +6733,42 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>605289.SH</t>
+          <t>688315.SH</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.043920277</v>
+        <v>0.045952678</v>
       </c>
       <c r="D147" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.202756508</v>
+        <v>0.080536913</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.299470549</v>
+        <v>0.046956522</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.271285206</v>
+        <v>0.377272727</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.265957447</v>
+        <v>0.365005794</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.352738546</v>
+        <v>0.278947368</v>
       </c>
       <c r="J147" t="n">
-        <v>-0.44534413</v>
+        <v>0.494278331</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.595044679</v>
+        <v>0.333819596</v>
       </c>
       <c r="L147" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="M147" t="n">
         <v>4</v>
@@ -6776,42 +6776,42 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>688260.SH</t>
+          <t>300999.SZ</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.040174309</v>
+        <v>0.08511051800000001</v>
       </c>
       <c r="D148" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.394428152</v>
+        <v>0.047468354</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.463076923</v>
+        <v>0.084642676</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.465331279</v>
+        <v>0.080682107</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.4921548120000001</v>
+        <v>0.080682107</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.717639976</v>
+        <v>0.08522223599999999</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.274229567</v>
+        <v>0.212814645</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.374277457</v>
+        <v>0.102385686</v>
       </c>
       <c r="L148" t="n">
-        <v>-0.0008</v>
+        <v>0.55</v>
       </c>
       <c r="M148" t="n">
         <v>4</v>
@@ -6819,42 +6819,42 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>300978.SZ</t>
+          <t>300973.SZ</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.0622474</v>
+        <v>0.192819049</v>
       </c>
       <c r="D149" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.3749430520000001</v>
+        <v>0.141666667</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.383768913</v>
+        <v>0.200930954</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.428300994</v>
+        <v>0.299319728</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.495540139</v>
+        <v>0.299319728</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.48816568</v>
+        <v>0.346031746</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.596825397</v>
+        <v>0.361675756</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.8213639109999999</v>
+        <v>0.297312048</v>
       </c>
       <c r="L149" t="n">
-        <v>0.18</v>
+        <v>0.9690000000000001</v>
       </c>
       <c r="M149" t="n">
         <v>4</v>
@@ -6862,42 +6862,42 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>300975.SZ</t>
+          <t>603095.SH</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.066312544</v>
+        <v>0.005151967</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.435653003</v>
+        <v>-0.002983802</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.507507508</v>
+        <v>-0.041150442</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.432239658</v>
+        <v>-0.04068996</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.39897817</v>
+        <v>-0.04068996</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.540664962</v>
+        <v>-0.032017544</v>
       </c>
       <c r="J150" t="n">
-        <v>-0.6004250800000001</v>
+        <v>0.024865313</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.682681564</v>
+        <v>-0.009005146</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3257</v>
+        <v>0.83</v>
       </c>
       <c r="M150" t="n">
         <v>4</v>
@@ -6905,42 +6905,42 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>688191.SH</t>
+          <t>601279.SH</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.04426250299999999</v>
+        <v>0.022878035</v>
       </c>
       <c r="D151" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.356631811</v>
+        <v>0.318077803</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.38795045</v>
+        <v>0.436672968</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.32455669</v>
+        <v>0.6498237370000001</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.295323174</v>
+        <v>0.6498237370000001</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.5012180270000001</v>
+        <v>0.7818448020000001</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.437317784</v>
+        <v>0.7374449340000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.16</v>
+        <v>0.685654008</v>
       </c>
       <c r="L151" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M151" t="n">
         <v>4</v>
@@ -6948,42 +6948,42 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>688636.SH</t>
+          <t>688386.SH</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.056771293</v>
+        <v>0.00111522</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.433426258</v>
+        <v>0.037558685</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.446871231</v>
+        <v>0.086452763</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.27485242</v>
+        <v>0.086859688</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.45017459</v>
+        <v>0.10616961</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.451149039</v>
+        <v>0.191640379</v>
       </c>
       <c r="J152" t="n">
-        <v>-0.038668719</v>
+        <v>0.317008163</v>
       </c>
       <c r="K152" t="n">
-        <v>0.099716525</v>
+        <v>0.353414288</v>
       </c>
       <c r="L152" t="n">
-        <v>1.1</v>
+        <v>0.49</v>
       </c>
       <c r="M152" t="n">
         <v>4</v>
@@ -6991,42 +6991,42 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>300963.SZ</t>
+          <t>605086.SH</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.073735071</v>
+        <v>0.030520822</v>
       </c>
       <c r="D153" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.423175234</v>
+        <v>0.317109145</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.419546742</v>
+        <v>0.435537946</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.620633894</v>
+        <v>0.311268129</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.601982097</v>
+        <v>0.301132075</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.251811142</v>
+        <v>0.32111437</v>
       </c>
       <c r="J153" t="n">
-        <v>-0.56105919</v>
+        <v>0.269428008</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.566916823</v>
+        <v>0.288239816</v>
       </c>
       <c r="L153" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
       <c r="M153" t="n">
         <v>4</v>
@@ -7034,42 +7034,42 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>300962.SZ</t>
+          <t>603876.SH</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.112444237</v>
+        <v>0.124694473</v>
       </c>
       <c r="D154" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
       <c r="E154" t="n">
-        <v>0.008571429</v>
+        <v>0.054919908</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.05119660700000001</v>
+        <v>0.012749004</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.31091802</v>
+        <v>0.008006404999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.270596851</v>
+        <v>0.029757244</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.322408537</v>
+        <v>0.04911742099999999</v>
       </c>
       <c r="J154" t="n">
-        <v>-0.371541502</v>
+        <v>0.459424084</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.4944013779999999</v>
+        <v>0.552546046</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2286</v>
+        <v>0.6</v>
       </c>
       <c r="M154" t="n">
         <v>4</v>
@@ -7077,42 +7077,42 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>300966.SZ</t>
+          <t>605117.SH</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.08107884900000001</v>
+        <v>0.104126236</v>
       </c>
       <c r="D155" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.538606911</v>
+        <v>0.181991672</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.581737441</v>
+        <v>0.012565445</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.7001789979999999</v>
+        <v>0.021378165</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.051476015</v>
+        <v>0.09674329500000001</v>
       </c>
       <c r="I155" t="n">
-        <v>0.015376641</v>
+        <v>0.305596465</v>
       </c>
       <c r="J155" t="n">
-        <v>-0.03392598</v>
+        <v>0.539595743</v>
       </c>
       <c r="K155" t="n">
-        <v>-0.238105583</v>
+        <v>0.624840866</v>
       </c>
       <c r="L155" t="n">
-        <v>0.43</v>
+        <v>1.44</v>
       </c>
       <c r="M155" t="n">
         <v>4</v>
@@ -7120,42 +7120,42 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>002985.SZ</t>
+          <t>688201.SH</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.454148489</v>
+        <v>0.040260108</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E156" t="n">
-        <v>0.020643432</v>
+        <v>-0.06713323</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.007376766999999999</v>
+        <v>0.187968442</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.560944344</v>
+        <v>0.251318422</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.727799456</v>
+        <v>0.280622051</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.607480748</v>
+        <v>0.325081967</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.459011483</v>
+        <v>0.25524602</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.330783242</v>
+        <v>0.306902357</v>
       </c>
       <c r="L156" t="n">
-        <v>0.89</v>
+        <v>0.3149</v>
       </c>
       <c r="M156" t="n">
         <v>4</v>
@@ -7163,42 +7163,42 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>001201.SZ</t>
+          <t>605016.SH</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.149705791</v>
+        <v>0.034501641</v>
       </c>
       <c r="D157" t="n">
         <v>0.25</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.234546192</v>
+        <v>0.317223484</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.426316612</v>
+        <v>0.233709501</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.507847348</v>
+        <v>0.260884831</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.531375839</v>
+        <v>0.315447154</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.5453775820000001</v>
+        <v>0.504239284</v>
       </c>
       <c r="J157" t="n">
-        <v>-1.171544135</v>
+        <v>0.398914906</v>
       </c>
       <c r="K157" t="n">
-        <v>-1.607714286</v>
+        <v>0.242260619</v>
       </c>
       <c r="L157" t="n">
-        <v>1.57</v>
+        <v>0.49</v>
       </c>
       <c r="M157" t="n">
         <v>4</v>
@@ -7206,42 +7206,42 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>002886.SZ</t>
+          <t>603733.SH</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.018500463</v>
+        <v>0.7326417340000001</v>
       </c>
       <c r="D158" t="n">
-        <v>0.11</v>
+        <v>0.78</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.003614458</v>
+        <v>0.055514706</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.047359598</v>
+        <v>0.07189306400000001</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.08746736300000001</v>
+        <v>0.061381074</v>
       </c>
       <c r="H158" t="n">
-        <v>-0.094612352</v>
+        <v>0.027262401</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.8511111109999999</v>
+        <v>0.020960366</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.769830028</v>
+        <v>0.149900728</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.592734226</v>
+        <v>0.35549423</v>
       </c>
       <c r="L158" t="n">
-        <v>0.18</v>
+        <v>0.86</v>
       </c>
       <c r="M158" t="n">
         <v>4</v>
@@ -7249,42 +7249,42 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>688533.SH</t>
+          <t>603986.SH</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.05412684099999999</v>
+        <v>0.001331569</v>
       </c>
       <c r="D159" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.483633011</v>
+        <v>0.128058436</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.6848167540000001</v>
+        <v>0.116596802</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.7026455029999999</v>
+        <v>0.040741781</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.573594132</v>
+        <v>-0.004058585</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.65025641</v>
+        <v>-0.401477833</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.587567834</v>
+        <v>-0.07439577</v>
       </c>
       <c r="K159" t="n">
-        <v>-0.496744186</v>
+        <v>0.072484243</v>
       </c>
       <c r="L159" t="n">
-        <v>0.23</v>
+        <v>1.19</v>
       </c>
       <c r="M159" t="n">
         <v>4</v>
@@ -7292,42 +7292,42 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>300972.SZ</t>
+          <t>688639.SH</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.051321757</v>
+        <v>0.043122122</v>
       </c>
       <c r="D160" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.193181818</v>
+        <v>0.183271548</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.418918919</v>
+        <v>0.193732845</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.464592275</v>
+        <v>0.17755483</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.4145077720000001</v>
+        <v>0.17755483</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.436842105</v>
+        <v>0.329210276</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.580775912</v>
+        <v>0.290744467</v>
       </c>
       <c r="K160" t="n">
-        <v>-0.683107275</v>
+        <v>0.399488927</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M160" t="n">
         <v>4</v>
@@ -7335,42 +7335,42 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>688395.SH</t>
+          <t>600566.SH</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.032305271</v>
+        <v>0.072275431</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.188059701</v>
+        <v>0.011410788</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.256842105</v>
+        <v>-0.003157895</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.3380649979999999</v>
+        <v>-0.047252747</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.348644578</v>
+        <v>-0.093709291</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.339566193</v>
+        <v>-0.008465608000000001</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.300653595</v>
+        <v>-0.09101316499999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.339566193</v>
+        <v>-0.181649101</v>
       </c>
       <c r="L161" t="n">
-        <v>0.57</v>
+        <v>0.961</v>
       </c>
       <c r="M161" t="n">
         <v>4</v>
@@ -7378,42 +7378,42 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>300690.SZ</t>
+          <t>300979.SZ</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.000688425</v>
+        <v>0.399076033</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.001687154</v>
+        <v>0.015748031</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.6071152360000001</v>
+        <v>0.019607843</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.822807018</v>
+        <v>-0.217137293</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.8148471620000001</v>
+        <v>-0.126126126</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.8220078909999999</v>
+        <v>-0.04427736</v>
       </c>
       <c r="J162" t="n">
-        <v>-0.9366262809999999</v>
+        <v>-0.004016064000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>-0.676482453</v>
+        <v>-0.07273117400000001</v>
       </c>
       <c r="L162" t="n">
-        <v>0.64</v>
+        <v>1.19</v>
       </c>
       <c r="M162" t="n">
         <v>4</v>
@@ -7421,42 +7421,42 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>688611.SH</t>
+          <t>000625.SZ</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.036838072</v>
+        <v>0.242258934</v>
       </c>
       <c r="D163" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.234649123</v>
+        <v>-0.028711057</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.250555309</v>
+        <v>0.008244994</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.283337132</v>
+        <v>0.214918415</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.464239272</v>
+        <v>0.268144285</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.451030928</v>
+        <v>0.23972912</v>
       </c>
       <c r="J163" t="n">
-        <v>-0.239815019</v>
+        <v>0.363086233</v>
       </c>
       <c r="K163" t="n">
-        <v>-0.125324805</v>
+        <v>0.135523614</v>
       </c>
       <c r="L163" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="M163" t="n">
         <v>4</v>
@@ -7464,42 +7464,42 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>300967.SZ</t>
+          <t>300982.SZ</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.07133951099999999</v>
+        <v>0.061872736</v>
       </c>
       <c r="D164" t="n">
         <v>0.24</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.466824645</v>
+        <v>0.070043939</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.559193955</v>
+        <v>-0.02624073</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.6019668739999999</v>
+        <v>-0.04775771700000001</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.708057395</v>
+        <v>-0.04623437</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.6375661379999999</v>
+        <v>0.135096154</v>
       </c>
       <c r="J164" t="n">
-        <v>-0.725195095</v>
+        <v>0.27780008</v>
       </c>
       <c r="K164" t="n">
-        <v>-0.9128553770000001</v>
+        <v>0.410453875</v>
       </c>
       <c r="L164" t="n">
-        <v>0.33</v>
+        <v>1.09</v>
       </c>
       <c r="M164" t="n">
         <v>4</v>
@@ -7507,42 +7507,42 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>603610.SH</t>
+          <t>605089.SH</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.024713382</v>
+        <v>0.05304992</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.100601202</v>
+        <v>0.248719824</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.08067689900000001</v>
+        <v>0.379174853</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.050497322</v>
+        <v>0.576014037</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.07307542</v>
+        <v>0.649607642</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.036226415</v>
+        <v>0.6521591870000001</v>
       </c>
       <c r="J165" t="n">
-        <v>-0.525555556</v>
+        <v>0.548571429</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.655213984</v>
+        <v>0.37492392</v>
       </c>
       <c r="L165" t="n">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="M165" t="n">
         <v>4</v>
@@ -7550,42 +7550,42 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>300968.SZ</t>
+          <t>601633.SH</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.098600585</v>
+        <v>0.04119495</v>
       </c>
       <c r="D166" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.117315574</v>
+        <v>0.00478612</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.131811105</v>
+        <v>-0.06498079400000001</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.245573958</v>
+        <v>-0.083007813</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.245573958</v>
+        <v>-0.004832377000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.217755444</v>
+        <v>0.08473177400000001</v>
       </c>
       <c r="J166" t="n">
-        <v>-0.313855422</v>
+        <v>0.241795807</v>
       </c>
       <c r="K166" t="n">
-        <v>-0.374291115</v>
+        <v>0.388756201</v>
       </c>
       <c r="L166" t="n">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="M166" t="n">
         <v>4</v>
@@ -7593,42 +7593,42 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>300702.SZ</t>
+          <t>688383.SH</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.078588345</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.042507205</v>
+        <v>0.205097087</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.075037147</v>
+        <v>0.192852742</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.09787556900000001</v>
+        <v>0.275282142</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.079689599</v>
+        <v>0.317779398</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.106607525</v>
+        <v>0.433635971</v>
       </c>
       <c r="J167" t="n">
-        <v>-1.07842574</v>
+        <v>0.415230783</v>
       </c>
       <c r="K167" t="n">
-        <v>-1.640510949</v>
+        <v>0.585940957</v>
       </c>
       <c r="L167" t="n">
-        <v>0.52</v>
+        <v>1.17</v>
       </c>
       <c r="M167" t="n">
         <v>4</v>
@@ -7636,42 +7636,42 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>300971.SZ</t>
+          <t>605098.SH</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.046533904</v>
+        <v>0.043231163</v>
       </c>
       <c r="D168" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.217976319</v>
+        <v>0.16519546</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.227556279</v>
+        <v>0.117137142</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.287990894</v>
+        <v>0.065411765</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.287990894</v>
+        <v>0.176616915</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.223573939</v>
+        <v>0.100339751</v>
       </c>
       <c r="J168" t="n">
-        <v>-0.18699187</v>
+        <v>0.136709411</v>
       </c>
       <c r="K168" t="n">
-        <v>-0.290929835</v>
+        <v>0.330185497</v>
       </c>
       <c r="L168" t="n">
-        <v>0.71</v>
+        <v>1.09</v>
       </c>
       <c r="M168" t="n">
         <v>4</v>

--- a/data/data_result.xlsx
+++ b/data/data_result.xlsx
@@ -498,42 +498,42 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600152.SH</t>
+          <t>300981.SZ</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.038532801</v>
+        <v>0.247607059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="E2" t="n">
-        <v>0.048257373</v>
+        <v>0.134574087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.126691267</v>
+        <v>0.030317613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.154761905</v>
+        <v>0.033341329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.124537608</v>
+        <v>0.039332539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09323116199999999</v>
+        <v>-0.04449244099999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.196832579</v>
+        <v>-0.121521336</v>
       </c>
       <c r="K2" t="n">
-        <v>0.139210904</v>
+        <v>-0.189609367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0158</v>
+        <v>15.0394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -541,3955 +541,3955 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>601609.SH</t>
+          <t>688395.SH</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.176216785</v>
+        <v>0.032305271</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.023529412</v>
+        <v>-0.188059701</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.030139935</v>
+        <v>-0.256842105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005197505</v>
+        <v>-0.3380649979999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.013402062</v>
+        <v>-0.348644578</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.049342105</v>
+        <v>-0.339566193</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.106358382</v>
+        <v>-0.300653595</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.082579186</v>
+        <v>-0.339566193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0.57</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>300901.SZ</t>
+          <t>300967.SZ</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.002409948</v>
+        <v>0.07133951099999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.032994924</v>
+        <v>-0.466824645</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.027129338</v>
+        <v>-0.559193955</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.008674102</v>
+        <v>-0.6019668739999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.027129338</v>
+        <v>-0.708057395</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01369863</v>
+        <v>-0.6375661379999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003671971</v>
+        <v>-0.725195095</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.126643599</v>
+        <v>-0.9128553770000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>300828.SZ</t>
+          <t>688611.SH</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.034091427</v>
+        <v>0.036838072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.11678487</v>
+        <v>-0.234649123</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.146045609</v>
+        <v>-0.250555309</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.115203022</v>
+        <v>-0.283337132</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.149391727</v>
+        <v>-0.464239272</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.157843137</v>
+        <v>-0.451030928</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.081006865</v>
+        <v>-0.239815019</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.164120256</v>
+        <v>-0.125324805</v>
       </c>
       <c r="L5" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>603682.SH</t>
+          <t>002985.SZ</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.034543342</v>
+        <v>0.454148489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06199460900000001</v>
+        <v>0.020643432</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.109859155</v>
+        <v>-0.007376766999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1145686</v>
+        <v>-0.560944344</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.106741573</v>
+        <v>-0.727799456</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.145348837</v>
+        <v>-0.607480748</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.190332326</v>
+        <v>-0.459011483</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.28548124</v>
+        <v>-0.330783242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.14</v>
+        <v>0.89</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>300902.SZ</t>
+          <t>300972.SZ</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.001849397</v>
+        <v>0.051321757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.051304348</v>
+        <v>-0.193181818</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.053594771</v>
+        <v>-0.418918919</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.021546261</v>
+        <v>-0.464592275</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04449244099999999</v>
+        <v>-0.4145077720000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009016393000000001</v>
+        <v>-0.436842105</v>
       </c>
       <c r="J7" t="n">
-        <v>0.014669927</v>
+        <v>-0.580775912</v>
       </c>
       <c r="K7" t="n">
-        <v>0.034730539</v>
+        <v>-0.683107275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002983.SZ</t>
+          <t>300985.SZ</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.006838070999999999</v>
+        <v>0.07353308900000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="E8" t="n">
-        <v>0.011297376</v>
+        <v>-0.180887372</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08087649400000001</v>
+        <v>-0.328803545</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.036287242</v>
+        <v>-0.4082654979999999</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.025708885</v>
+        <v>-0.418032787</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008043876</v>
+        <v>-0.40694401</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08745375</v>
+        <v>-0.554250173</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.010428305</v>
+        <v>-0.7687770350000001</v>
       </c>
       <c r="L8" t="n">
-        <v>0.26</v>
+        <v>0.2718</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>300383.SZ</t>
+          <t>300978.SZ</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.009827315</v>
+        <v>0.0622474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004237288</v>
+        <v>-0.3749430520000001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.017316017</v>
+        <v>-0.383768913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.018789144</v>
+        <v>-0.428300994</v>
       </c>
       <c r="H9" t="n">
-        <v>0.032921811</v>
+        <v>-0.495540139</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06187624799999999</v>
+        <v>-0.48816568</v>
       </c>
       <c r="J9" t="n">
-        <v>0.015363128</v>
+        <v>-0.596825397</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07903331200000001</v>
+        <v>-0.8213639109999999</v>
       </c>
       <c r="L9" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>688682.SH</t>
+          <t>300702.SZ</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.040139968</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.175448558</v>
+        <v>-0.042507205</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.327051282</v>
+        <v>-0.075037147</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.355197696</v>
+        <v>-0.09787556900000001</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.281064356</v>
+        <v>-0.079689599</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.274910703</v>
+        <v>-0.106607525</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.183647799</v>
+        <v>-1.07842574</v>
       </c>
       <c r="K10" t="n">
-        <v>0.353829827</v>
+        <v>-1.640510949</v>
       </c>
       <c r="L10" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>688126.SH</t>
+          <t>605289.SH</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.756710643</v>
+        <v>0.043920277</v>
       </c>
       <c r="D11" t="n">
         <v>0.25</v>
       </c>
       <c r="E11" t="n">
-        <v>0.018457752</v>
+        <v>-0.202756508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.027235772</v>
+        <v>-0.299470549</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001668753</v>
+        <v>-0.271285206</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.098714417</v>
+        <v>-0.265957447</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08723307599999999</v>
+        <v>-0.352738546</v>
       </c>
       <c r="J11" t="n">
-        <v>0.197518444</v>
+        <v>-0.44534413</v>
       </c>
       <c r="K11" t="n">
-        <v>0.113046701</v>
+        <v>-0.595044679</v>
       </c>
       <c r="L11" t="n">
-        <v>0.042</v>
+        <v>0.63</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002891.SZ</t>
+          <t>300975.SZ</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04493666</v>
+        <v>0.066312544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.07324909</v>
+        <v>-0.435653003</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.081588603</v>
+        <v>-0.507507508</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08691691</v>
+        <v>-0.432239658</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.305968204</v>
+        <v>-0.39897817</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.240346535</v>
+        <v>-0.540664962</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.228186275</v>
+        <v>-0.6004250800000001</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.505709135</v>
+        <v>-0.682681564</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2063</v>
+        <v>0.3257</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>601727.SH</t>
+          <t>300971.SZ</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.244306569</v>
+        <v>0.046533904</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03667953700000001</v>
+        <v>-0.217976319</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.050880626</v>
+        <v>-0.227556279</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.048828125</v>
+        <v>-0.287990894</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.07400000000000001</v>
+        <v>-0.287990894</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.055009823</v>
+        <v>-0.223573939</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.278571429</v>
+        <v>-0.18699187</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.345864662</v>
+        <v>-0.290929835</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.32</v>
+        <v>0.71</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>688129.SH</t>
+          <t>300968.SZ</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0009139389999999999</v>
+        <v>0.098600585</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01</v>
+        <v>0.21</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.049710983</v>
+        <v>-0.117315574</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.050925926</v>
+        <v>-0.131811105</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.052753623</v>
+        <v>-0.245573958</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.049104564</v>
+        <v>-0.245573958</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.054587689</v>
+        <v>-0.217755444</v>
       </c>
       <c r="J14" t="n">
-        <v>0.040676175</v>
+        <v>-0.313855422</v>
       </c>
       <c r="K14" t="n">
-        <v>0.080506329</v>
+        <v>-0.374291115</v>
       </c>
       <c r="L14" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603353.SH</t>
+          <t>300966.SZ</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.030849039</v>
+        <v>0.08107884900000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="E15" t="n">
-        <v>0.062084257</v>
+        <v>-0.538606911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.076419214</v>
+        <v>-0.581737441</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07863210599999999</v>
+        <v>-0.7001789979999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.099425165</v>
+        <v>-0.051476015</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06807666900000001</v>
+        <v>0.015376641</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.460635359</v>
+        <v>-0.03392598</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.466204506</v>
+        <v>-0.238105583</v>
       </c>
       <c r="L15" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000895.SZ</t>
+          <t>300963.SZ</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.294311088</v>
+        <v>0.073735071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.027390438</v>
+        <v>-0.423175234</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05882352900000001</v>
+        <v>-0.419546742</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.066048035</v>
+        <v>-0.620633894</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09136630300000001</v>
+        <v>-0.601982097</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.028165307</v>
+        <v>-0.251811142</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.247126437</v>
+        <v>-0.56105919</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.307228916</v>
+        <v>-0.566916823</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7323</v>
+        <v>0.23</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>600876.SH</t>
+          <t>688636.SH</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.00190682</v>
+        <v>0.056771293</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.005938242</v>
+        <v>-0.433426258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001767826</v>
+        <v>-0.446871231</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01864101</v>
+        <v>-0.27485242</v>
       </c>
       <c r="H17" t="n">
-        <v>0.015116279</v>
+        <v>-0.45017459</v>
       </c>
       <c r="I17" t="n">
-        <v>0.041855204</v>
+        <v>-0.451149039</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.034819792</v>
+        <v>-0.038668719</v>
       </c>
       <c r="K17" t="n">
-        <v>0.385786802</v>
+        <v>0.099716525</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3611</v>
+        <v>1.1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>600738.SH</t>
+          <t>300962.SZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.009909763</v>
+        <v>0.112444237</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="E18" t="n">
-        <v>0.021069692</v>
+        <v>0.008571429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.039745628</v>
+        <v>-0.05119660700000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06211180099999999</v>
+        <v>-0.31091802</v>
       </c>
       <c r="H18" t="n">
-        <v>0.111764706</v>
+        <v>-0.270596851</v>
       </c>
       <c r="I18" t="n">
-        <v>0.190348525</v>
+        <v>-0.322408537</v>
       </c>
       <c r="J18" t="n">
-        <v>0.17373461</v>
+        <v>-0.371541502</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.006666666999999999</v>
+        <v>-0.4944013779999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09300000000000001</v>
+        <v>0.2286</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>603773.SH</t>
+          <t>002886.SZ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.040851624</v>
+        <v>0.018500463</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.012830189</v>
+        <v>-0.003614458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.027509294</v>
+        <v>-0.047359598</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018018018</v>
+        <v>-0.08746736300000001</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.004994237</v>
+        <v>-0.094612352</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07213114799999999</v>
+        <v>-0.8511111109999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01728024</v>
+        <v>-0.769830028</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.000382409</v>
+        <v>-0.592734226</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0263</v>
+        <v>0.18</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>603583.SH</t>
+          <t>603610.SH</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.079452118</v>
+        <v>0.024713382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01312295</v>
+        <v>-0.100601202</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.060680406</v>
+        <v>-0.08067689900000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.059294348</v>
+        <v>-0.050497322</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.108547009</v>
+        <v>-0.07307542</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00169335</v>
+        <v>-0.036226415</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.492520138</v>
+        <v>-0.525555556</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.29080414</v>
+        <v>-0.655213984</v>
       </c>
       <c r="L20" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002243.SZ</t>
+          <t>001201.SZ</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.025271474</v>
+        <v>0.149705791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.039045553</v>
+        <v>-0.234546192</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.053905391</v>
+        <v>-0.426316612</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04928806099999999</v>
+        <v>-0.507847348</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.044711014</v>
+        <v>-0.531375839</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.026795284</v>
+        <v>-0.5453775820000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.011351909</v>
+        <v>-1.171544135</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.123094959</v>
+        <v>-1.607714286</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1538</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002579.SZ</t>
+          <t>688260.SH</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.055917691</v>
+        <v>0.040174309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0213858</v>
+        <v>-0.394428152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.012942192</v>
+        <v>-0.463076923</v>
       </c>
       <c r="G22" t="n">
-        <v>0.009523810000000001</v>
+        <v>-0.465331279</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.026929982</v>
+        <v>-0.4921548120000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04427736</v>
+        <v>-0.717639976</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.104247104</v>
+        <v>-0.274229567</v>
       </c>
       <c r="K22" t="n">
-        <v>0.052195526</v>
+        <v>-0.374277457</v>
       </c>
       <c r="L22" t="n">
-        <v>0.16</v>
+        <v>-0.0008</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>300548.SZ</t>
+          <t>300690.SZ</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000431308</v>
+        <v>0.000688425</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.018889202</v>
+        <v>-0.001687154</v>
       </c>
       <c r="F23" t="n">
-        <v>0.023294976</v>
+        <v>-0.6071152360000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07639962900000001</v>
+        <v>-0.822807018</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.131339402</v>
+        <v>-0.8148471620000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.132443866</v>
+        <v>-0.8220078909999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.000575043</v>
+        <v>-0.9366262809999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.086614173</v>
+        <v>-0.676482453</v>
       </c>
       <c r="L23" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>300898.SZ</t>
+          <t>688191.SH</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.002696246</v>
+        <v>0.04426250299999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="E24" t="n">
-        <v>0.138556884</v>
+        <v>-0.356631811</v>
       </c>
       <c r="F24" t="n">
-        <v>0.018163471</v>
+        <v>-0.38795045</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.046236559</v>
+        <v>-0.32455669</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.040363539</v>
+        <v>-0.295323174</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000770218</v>
+        <v>-0.5012180270000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.043991416</v>
+        <v>-0.437317784</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.06630137</v>
+        <v>-0.16</v>
       </c>
       <c r="L24" t="n">
-        <v>0.293</v>
+        <v>0.19</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>688222.SH</t>
+          <t>688533.SH</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.350558644</v>
+        <v>0.05412684099999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.122645291</v>
+        <v>-0.483633011</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.08776699</v>
+        <v>-0.6848167540000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.143265306</v>
+        <v>-0.7026455029999999</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.197520308</v>
+        <v>-0.573594132</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.149835796</v>
+        <v>-0.65025641</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.011191336</v>
+        <v>-0.587567834</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09352750800000001</v>
+        <v>-0.496744186</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002236.SZ</t>
+          <t>600876.SH</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.036281603</v>
+        <v>0.00190682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.061248528</v>
+        <v>-0.005938242</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002919099</v>
+        <v>0.001767826</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.019181586</v>
+        <v>-0.01864101</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.019181586</v>
+        <v>0.015116279</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.032829374</v>
+        <v>0.041855204</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.125706215</v>
+        <v>-0.034819792</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.164637116</v>
+        <v>0.385786802</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3611</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002645.SZ</t>
+          <t>000895.SZ</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.014391501</v>
+        <v>0.294311088</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02921069</v>
+        <v>0.027390438</v>
       </c>
       <c r="F27" t="n">
-        <v>0.035802469</v>
+        <v>-0.05882352900000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.055405405</v>
+        <v>-0.066048035</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.103886926</v>
+        <v>-0.09136630300000001</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.103107345</v>
+        <v>-0.028165307</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09658762300000001</v>
+        <v>-0.247126437</v>
       </c>
       <c r="K27" t="n">
-        <v>0.192764858</v>
+        <v>-0.307228916</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4424</v>
+        <v>0.7323</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>600629.SH</t>
+          <t>601609.SH</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001607779</v>
+        <v>0.176216785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008356545999999999</v>
+        <v>-0.023529412</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.002816901</v>
+        <v>-0.030139935</v>
       </c>
       <c r="G28" t="n">
-        <v>0.013850416</v>
+        <v>0.005197505</v>
       </c>
       <c r="H28" t="n">
-        <v>0.013850416</v>
+        <v>0.013402062</v>
       </c>
       <c r="I28" t="n">
-        <v>0.033921303</v>
+        <v>-0.049342105</v>
       </c>
       <c r="J28" t="n">
-        <v>0.020632737</v>
+        <v>-0.106358382</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.190635452</v>
+        <v>-0.082579186</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3745</v>
+        <v>0.25</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>600496.SH</t>
+          <t>300901.SZ</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.07851678400000001</v>
+        <v>0.002409948</v>
       </c>
       <c r="D29" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.131991051</v>
+        <v>-0.032994924</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.12195122</v>
+        <v>-0.027129338</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.155251142</v>
+        <v>-0.008674102</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.213429257</v>
+        <v>-0.027129338</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.196217494</v>
+        <v>-0.01369863</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.281012658</v>
+        <v>0.003671971</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.237163814</v>
+        <v>-0.126643599</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1641</v>
+        <v>0.18</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>300680.SZ</t>
+          <t>300828.SZ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.014250987</v>
+        <v>0.034091427</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.06059405900000001</v>
+        <v>-0.11678487</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04609375</v>
+        <v>-0.146045609</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.073346693</v>
+        <v>-0.115203022</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.179735683</v>
+        <v>-0.149391727</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.126156434</v>
+        <v>-0.157843137</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.022918258</v>
+        <v>-0.081006865</v>
       </c>
       <c r="K30" t="n">
-        <v>0.060680463</v>
+        <v>-0.164120256</v>
       </c>
       <c r="L30" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>688221.SH</t>
+          <t>603682.SH</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.003302596</v>
+        <v>0.034543342</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.062068966</v>
+        <v>-0.06199460900000001</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.067221067</v>
+        <v>-0.109859155</v>
       </c>
       <c r="G31" t="n">
-        <v>0.042288557</v>
+        <v>-0.1145686</v>
       </c>
       <c r="H31" t="n">
-        <v>0.274952919</v>
+        <v>-0.106741573</v>
       </c>
       <c r="I31" t="n">
-        <v>0.224962255</v>
+        <v>-0.145348837</v>
       </c>
       <c r="J31" t="n">
-        <v>0.283387622</v>
+        <v>-0.190332326</v>
       </c>
       <c r="K31" t="n">
-        <v>0.154774973</v>
+        <v>-0.28548124</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.26</v>
+        <v>0.14</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>603439.SH</t>
+          <t>300383.SZ</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.11035681</v>
+        <v>0.009827315</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.09147479800000001</v>
+        <v>0.004237288</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.125802311</v>
+        <v>-0.017316017</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.069512195</v>
+        <v>0.018789144</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.072782875</v>
+        <v>0.032921811</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.155467721</v>
+        <v>0.06187624799999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.238700565</v>
+        <v>0.015363128</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.43417825</v>
+        <v>0.07903331200000001</v>
       </c>
       <c r="L32" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002151.SZ</t>
+          <t>603353.SH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.034387486</v>
+        <v>0.030849039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.002215657</v>
+        <v>0.062084257</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.009923095999999999</v>
+        <v>0.076419214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.016733267</v>
+        <v>0.07863210599999999</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.002956393</v>
+        <v>0.099425165</v>
       </c>
       <c r="I33" t="n">
-        <v>0.06392274099999999</v>
+        <v>0.06807666900000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.061981567</v>
+        <v>-0.460635359</v>
       </c>
       <c r="K33" t="n">
-        <v>0.07308743200000001</v>
+        <v>-0.466204506</v>
       </c>
       <c r="L33" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>688323.SH</t>
+          <t>601727.SH</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.051318391</v>
+        <v>0.244306569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.013818182</v>
+        <v>-0.03667953700000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07755102</v>
+        <v>-0.050880626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.151173709</v>
+        <v>-0.048828125</v>
       </c>
       <c r="H34" t="n">
-        <v>0.180417044</v>
+        <v>-0.07400000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03795672200000001</v>
+        <v>-0.055009823</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07471852599999999</v>
+        <v>-0.278571429</v>
       </c>
       <c r="K34" t="n">
-        <v>0.196206283</v>
+        <v>-0.345864662</v>
       </c>
       <c r="L34" t="n">
-        <v>0.21</v>
+        <v>-0.32</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>300664.SZ</t>
+          <t>300902.SZ</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001915907</v>
+        <v>0.001849397</v>
       </c>
       <c r="D35" t="n">
         <v>0.01</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.001453488</v>
+        <v>-0.051304348</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.002911208</v>
+        <v>-0.053594771</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.005839416</v>
+        <v>-0.021546261</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002894356</v>
+        <v>-0.04449244099999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0.017118402</v>
+        <v>0.009016393000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.028358209</v>
+        <v>0.014669927</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.079937304</v>
+        <v>0.034730539</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2531</v>
+        <v>0.09</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001202.SZ</t>
+          <t>002891.SZ</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.03612139</v>
+        <v>0.04493666</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E36" t="n">
-        <v>0.090794979</v>
+        <v>-0.07324909</v>
       </c>
       <c r="F36" t="n">
-        <v>0.248616874</v>
+        <v>-0.081588603</v>
       </c>
       <c r="G36" t="n">
-        <v>0.168706963</v>
+        <v>0.08691691</v>
       </c>
       <c r="H36" t="n">
-        <v>0.103917526</v>
+        <v>-0.305968204</v>
       </c>
       <c r="I36" t="n">
-        <v>0.020730059</v>
+        <v>-0.240346535</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.087043522</v>
+        <v>-0.228186275</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.215324385</v>
+        <v>-0.505709135</v>
       </c>
       <c r="L36" t="n">
-        <v>0.24</v>
+        <v>0.2063</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>300686.SZ</t>
+          <t>688126.SH</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.001663904</v>
+        <v>0.756710643</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.026993095</v>
+        <v>0.018457752</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.019950125</v>
+        <v>0.027235772</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.018046049</v>
+        <v>0.001668753</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.042702358</v>
+        <v>-0.098714417</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.031525851</v>
+        <v>-0.08723307599999999</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.00245098</v>
+        <v>0.197518444</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.071381794</v>
+        <v>0.113046701</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2186</v>
+        <v>0.042</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>300483.SZ</t>
+          <t>688682.SH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.037549023</v>
+        <v>0.040139968</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003198976</v>
+        <v>-0.175448558</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008274984000000001</v>
+        <v>-0.327051282</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.016971279</v>
+        <v>-0.355197696</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.016971279</v>
+        <v>-0.281064356</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.025</v>
+        <v>-0.274910703</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.060585432</v>
+        <v>-0.183647799</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.157503715</v>
+        <v>0.353829827</v>
       </c>
       <c r="L38" t="n">
-        <v>0.202</v>
+        <v>0.31</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>300743.SZ</t>
+          <t>688129.SH</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.010590408</v>
+        <v>0.0009139389999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.030726257</v>
+        <v>-0.049710983</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.031446541</v>
+        <v>-0.050925926</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.010958904</v>
+        <v>-0.052753623</v>
       </c>
       <c r="H39" t="n">
-        <v>0.021220159</v>
+        <v>-0.049104564</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06582278499999999</v>
+        <v>-0.054587689</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.256170213</v>
+        <v>0.040676175</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.23</v>
+        <v>0.080506329</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>603967.SH</t>
+          <t>002983.SZ</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.017067804</v>
+        <v>0.006838070999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.02122449</v>
+        <v>0.011297376</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.003207698</v>
+        <v>-0.08087649400000001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.007142857</v>
+        <v>-0.036287242</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.038174274</v>
+        <v>-0.025708885</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.037313433</v>
+        <v>0.008043876</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.07106164400000001</v>
+        <v>0.08745375</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.152995392</v>
+        <v>-0.010428305</v>
       </c>
       <c r="L40" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>300529.SZ</t>
+          <t>002645.SZ</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0003278380000000001</v>
+        <v>0.014391501</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02746114</v>
+        <v>0.02921069</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.020108696</v>
+        <v>0.035802469</v>
       </c>
       <c r="G41" t="n">
-        <v>0.049812696</v>
+        <v>-0.055405405</v>
       </c>
       <c r="H41" t="n">
-        <v>0.061406141</v>
+        <v>-0.103886926</v>
       </c>
       <c r="I41" t="n">
-        <v>0.025137634</v>
+        <v>-0.103107345</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.08497109800000001</v>
+        <v>0.09658762300000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.291810048</v>
+        <v>0.192764858</v>
       </c>
       <c r="L41" t="n">
-        <v>0.78</v>
+        <v>0.4424</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002545.SZ</t>
+          <t>600496.SH</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.001257446</v>
+        <v>0.07851678400000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001547122</v>
+        <v>-0.131991051</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.007112376</v>
+        <v>-0.12195122</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.032069971</v>
+        <v>-0.155251142</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.011428571</v>
+        <v>-0.213429257</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.001414427</v>
+        <v>-0.196217494</v>
       </c>
       <c r="J42" t="n">
-        <v>0.059760956</v>
+        <v>-0.281012658</v>
       </c>
       <c r="K42" t="n">
-        <v>0.242780749</v>
+        <v>-0.237163814</v>
       </c>
       <c r="L42" t="n">
-        <v>0.1629</v>
+        <v>0.1641</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002392.SZ</t>
+          <t>300192.SZ</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.012860771</v>
+        <v>0.000566511</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.014184397</v>
+        <v>-0.08015873</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.002336449</v>
+        <v>-0.122011542</v>
       </c>
       <c r="G43" t="n">
-        <v>0.016055046</v>
+        <v>-0.11557377</v>
       </c>
       <c r="H43" t="n">
-        <v>0.016055046</v>
+        <v>-0.110114192</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.004683840999999999</v>
+        <v>-0.154368109</v>
       </c>
       <c r="J43" t="n">
-        <v>0.018306636</v>
+        <v>-0.256694367</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.083333333</v>
+        <v>-0.4266247379999999</v>
       </c>
       <c r="L43" t="n">
-        <v>0.202</v>
+        <v>0.1688</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>300829.SZ</t>
+          <t>300680.SZ</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.107302752</v>
+        <v>0.014250987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.037031225</v>
+        <v>-0.06059405900000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.102121434</v>
+        <v>-0.04609375</v>
       </c>
       <c r="G44" t="n">
-        <v>0.170451473</v>
+        <v>-0.073346693</v>
       </c>
       <c r="H44" t="n">
-        <v>0.145264624</v>
+        <v>-0.179735683</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.103776978</v>
+        <v>-0.126156434</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.008877199000000001</v>
+        <v>-0.022918258</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.024028033</v>
+        <v>0.060680463</v>
       </c>
       <c r="L44" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002141.SZ</t>
+          <t>002243.SZ</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.073921296</v>
+        <v>0.025271474</v>
       </c>
       <c r="D45" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.014134276</v>
+        <v>-0.039045553</v>
       </c>
       <c r="F45" t="n">
-        <v>0.077170418</v>
+        <v>-0.053905391</v>
       </c>
       <c r="G45" t="n">
-        <v>0.122324159</v>
+        <v>-0.04928806099999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0.103125</v>
+        <v>-0.044711014</v>
       </c>
       <c r="I45" t="n">
-        <v>0.116923077</v>
+        <v>-0.026795284</v>
       </c>
       <c r="J45" t="n">
-        <v>0.275252525</v>
+        <v>0.011351909</v>
       </c>
       <c r="K45" t="n">
-        <v>0.36784141</v>
+        <v>-0.123094959</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0078</v>
+        <v>0.1538</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002982.SZ</t>
+          <t>688221.SH</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.05082480599999999</v>
+        <v>0.003302596</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="E46" t="n">
-        <v>0.015739543</v>
+        <v>-0.062068966</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.013993781</v>
+        <v>-0.067221067</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.043428571</v>
+        <v>0.042288557</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.028848321</v>
+        <v>0.274952919</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.015121192</v>
+        <v>0.224962255</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.056712963</v>
+        <v>0.283387622</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.221241306</v>
+        <v>0.154774973</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.06</v>
+        <v>-0.26</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>688179.SH</t>
+          <t>001202.SZ</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.005345661</v>
+        <v>0.03612139</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.061207779</v>
+        <v>0.090794979</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.070521425</v>
+        <v>0.248616874</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.026534653</v>
+        <v>0.168706963</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.060882022</v>
+        <v>0.103917526</v>
       </c>
       <c r="I47" t="n">
-        <v>0.098591549</v>
+        <v>0.020730059</v>
       </c>
       <c r="J47" t="n">
-        <v>0.24043956</v>
+        <v>-0.087043522</v>
       </c>
       <c r="K47" t="n">
-        <v>0.081502481</v>
+        <v>-0.215324385</v>
       </c>
       <c r="L47" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>603583.SH</t>
+          <t>603439.SH</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.003113664</v>
+        <v>0.11035681</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.01323097</v>
+        <v>-0.09147479800000001</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.014888743</v>
+        <v>-0.125802311</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.000645265</v>
+        <v>-0.069512195</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.01655195</v>
+        <v>-0.072782875</v>
       </c>
       <c r="I48" t="n">
-        <v>0.043779867</v>
+        <v>-0.155467721</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.28426501</v>
+        <v>-0.238700565</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.29094693</v>
+        <v>-0.43417825</v>
       </c>
       <c r="L48" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>300323.SZ</t>
+          <t>002151.SZ</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.118231377</v>
+        <v>0.034387486</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.07545045</v>
+        <v>-0.002215657</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.036916395</v>
+        <v>-0.009923095999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.06465997799999999</v>
+        <v>-0.016733267</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.073033708</v>
+        <v>-0.002956393</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.032432432</v>
+        <v>0.06392274099999999</v>
       </c>
       <c r="J49" t="n">
-        <v>0.145031334</v>
+        <v>0.061981567</v>
       </c>
       <c r="K49" t="n">
-        <v>0.225466342</v>
+        <v>0.07308743200000001</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.02</v>
+        <v>0.22</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002628.SZ</t>
+          <t>688323.SH</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0009356039999999999</v>
+        <v>0.051318391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.002840909</v>
+        <v>0.013818182</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.008571429</v>
+        <v>0.07755102</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01396648</v>
+        <v>0.151173709</v>
       </c>
       <c r="H50" t="n">
-        <v>0.019444444</v>
+        <v>0.180417044</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.014367816</v>
+        <v>0.03795672200000001</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.023188406</v>
+        <v>0.07471852599999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.044378698</v>
+        <v>0.196206283</v>
       </c>
       <c r="L50" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>300192.SZ</t>
+          <t>300664.SZ</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.000566511</v>
+        <v>0.001915907</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08015873</v>
+        <v>-0.001453488</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.122011542</v>
+        <v>-0.002911208</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.11557377</v>
+        <v>-0.005839416</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.110114192</v>
+        <v>0.002894356</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.154368109</v>
+        <v>0.017118402</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.256694367</v>
+        <v>-0.028358209</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.4266247379999999</v>
+        <v>-0.079937304</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1688</v>
+        <v>0.2531</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>300278.SZ</t>
+          <t>603967.SH</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.003665989</v>
+        <v>0.017067804</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.138686131</v>
+        <v>-0.02122449</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.424657534</v>
+        <v>-0.003207698</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.380530973</v>
+        <v>0.007142857</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.142857143</v>
+        <v>-0.038174274</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.399103139</v>
+        <v>-0.037313433</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.114285714</v>
+        <v>-0.07106164400000001</v>
       </c>
       <c r="K52" t="n">
-        <v>0.054545455</v>
+        <v>-0.152995392</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.2135</v>
+        <v>0.38</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>300123.SZ</t>
+          <t>300686.SZ</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.039096651</v>
+        <v>0.001663904</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.08058608099999999</v>
+        <v>-0.026993095</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.136071887</v>
+        <v>-0.019950125</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09801488800000001</v>
+        <v>-0.018046049</v>
       </c>
       <c r="H53" t="n">
-        <v>0.104251012</v>
+        <v>-0.042702358</v>
       </c>
       <c r="I53" t="n">
-        <v>0.093237705</v>
+        <v>-0.031525851</v>
       </c>
       <c r="J53" t="n">
-        <v>0.27990236</v>
+        <v>-0.00245098</v>
       </c>
       <c r="K53" t="n">
-        <v>0.281655844</v>
+        <v>-0.071381794</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05</v>
+        <v>0.2186</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>002483.SZ</t>
+          <t>300483.SZ</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.002467765</v>
+        <v>0.037549023</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="E54" t="n">
-        <v>0.036190476</v>
+        <v>0.003198976</v>
       </c>
       <c r="F54" t="n">
-        <v>0.034351145</v>
+        <v>0.008274984000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>0.047080979</v>
+        <v>-0.016971279</v>
       </c>
       <c r="H54" t="n">
-        <v>0.023166023</v>
+        <v>-0.016971279</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.054166667</v>
+        <v>-0.025</v>
       </c>
       <c r="J54" t="n">
-        <v>0.019379845</v>
+        <v>-0.060585432</v>
       </c>
       <c r="K54" t="n">
-        <v>0.003937008</v>
+        <v>-0.157503715</v>
       </c>
       <c r="L54" t="n">
-        <v>0.217</v>
+        <v>0.202</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002355.SZ</t>
+          <t>300743.SZ</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.003197409</v>
+        <v>0.010590408</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="E55" t="n">
-        <v>0.025356577</v>
+        <v>-0.030726257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.100877193</v>
+        <v>-0.031446541</v>
       </c>
       <c r="G55" t="n">
-        <v>0.145833333</v>
+        <v>-0.010958904</v>
       </c>
       <c r="H55" t="n">
-        <v>0.113832853</v>
+        <v>0.021220159</v>
       </c>
       <c r="I55" t="n">
-        <v>0.113832853</v>
+        <v>0.06582278499999999</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.031879195</v>
+        <v>-0.256170213</v>
       </c>
       <c r="K55" t="n">
-        <v>0.111271676</v>
+        <v>-0.23</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>002683.SZ</t>
+          <t>002392.SZ</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.04526105900000001</v>
+        <v>0.012860771</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.013868613</v>
+        <v>-0.014184397</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.082197117</v>
+        <v>-0.002336449</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.037341299</v>
+        <v>0.016055046</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.034251675</v>
+        <v>0.016055046</v>
       </c>
       <c r="I56" t="n">
-        <v>0.027651383</v>
+        <v>-0.004683840999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>0.016985138</v>
+        <v>0.018306636</v>
       </c>
       <c r="K56" t="n">
-        <v>0.078301261</v>
+        <v>-0.083333333</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2813</v>
+        <v>0.202</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>002596.SZ</t>
+          <t>300529.SZ</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.004700083</v>
+        <v>0.0003278380000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001897533</v>
+        <v>0.02746114</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.005736138000000001</v>
+        <v>-0.020108696</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.005736138000000001</v>
+        <v>0.049812696</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.047808765</v>
+        <v>0.061406141</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.003816794</v>
+        <v>0.025137634</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.08677686</v>
+        <v>-0.08497109800000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.387862797</v>
+        <v>-0.291810048</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0267</v>
+        <v>0.78</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>600189.SH</t>
+          <t>300829.SZ</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.006656685</v>
+        <v>0.107302752</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="E58" t="n">
-        <v>0.019624573</v>
+        <v>0.037031225</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07038835</v>
+        <v>0.102121434</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01710864</v>
+        <v>0.170451473</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.019520852</v>
+        <v>0.145264624</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.04076087</v>
+        <v>-0.103776978</v>
       </c>
       <c r="J58" t="n">
-        <v>0.06585365900000001</v>
+        <v>-0.008877199000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.002617801</v>
+        <v>-0.024028033</v>
       </c>
       <c r="L58" t="n">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>600821.SH</t>
+          <t>002355.SZ</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.030484173</v>
+        <v>0.003197409</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.079726651</v>
+        <v>0.025356577</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.012820513</v>
+        <v>0.100877193</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.004237288</v>
+        <v>0.145833333</v>
       </c>
       <c r="H59" t="n">
-        <v>0.030674847</v>
+        <v>0.113832853</v>
       </c>
       <c r="I59" t="n">
-        <v>0.026694045</v>
+        <v>0.113832853</v>
       </c>
       <c r="J59" t="n">
-        <v>0.228013029</v>
+        <v>-0.031879195</v>
       </c>
       <c r="K59" t="n">
-        <v>0.164021164</v>
+        <v>0.111271676</v>
       </c>
       <c r="L59" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>600789.SH</t>
+          <t>600566.SH</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.010555989</v>
+        <v>0.072275431</v>
       </c>
       <c r="D60" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E60" t="n">
-        <v>0.012032086</v>
+        <v>0.011410788</v>
       </c>
       <c r="F60" t="n">
-        <v>0.023778071</v>
+        <v>-0.003157895</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04890604900000001</v>
+        <v>-0.047252747</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07044025200000001</v>
+        <v>-0.093709291</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04025974</v>
+        <v>-0.008465608000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>0.03908324</v>
+        <v>-0.09101316499999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.017906336</v>
+        <v>-0.181649101</v>
       </c>
       <c r="L60" t="n">
-        <v>0.08</v>
+        <v>0.961</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>300827.SZ</t>
+          <t>002141.SZ</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.029863731</v>
+        <v>0.073921296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="E61" t="n">
-        <v>0.010315414</v>
+        <v>-0.014134276</v>
       </c>
       <c r="F61" t="n">
-        <v>0.050256996</v>
+        <v>0.077170418</v>
       </c>
       <c r="G61" t="n">
-        <v>0.048627002</v>
+        <v>0.122324159</v>
       </c>
       <c r="H61" t="n">
-        <v>0.035942029</v>
+        <v>0.103125</v>
       </c>
       <c r="I61" t="n">
-        <v>0.020612485</v>
+        <v>0.116923077</v>
       </c>
       <c r="J61" t="n">
-        <v>0.138639503</v>
+        <v>0.275252525</v>
       </c>
       <c r="K61" t="n">
-        <v>0.060451977</v>
+        <v>0.36784141</v>
       </c>
       <c r="L61" t="n">
-        <v>0.18</v>
+        <v>0.0078</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>002979.SZ</t>
+          <t>002982.SZ</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.128539295</v>
+        <v>0.05082480599999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.023476523</v>
+        <v>0.015739543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.031892275</v>
+        <v>-0.013993781</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05445316099999999</v>
+        <v>-0.043428571</v>
       </c>
       <c r="H62" t="n">
-        <v>0.089535659</v>
+        <v>-0.028848321</v>
       </c>
       <c r="I62" t="n">
-        <v>0.028449502</v>
+        <v>-0.015121192</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.349802372</v>
+        <v>-0.056712963</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.226211849</v>
+        <v>-0.221241306</v>
       </c>
       <c r="L62" t="n">
-        <v>0.44</v>
+        <v>-0.06</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>603266.SH</t>
+          <t>688179.SH</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.000333922</v>
+        <v>0.005345661</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.009009009</v>
+        <v>-0.061207779</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.020966272</v>
+        <v>-0.070521425</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.031307551</v>
+        <v>-0.026534653</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.02003643</v>
+        <v>-0.060882022</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.003584229</v>
+        <v>0.098591549</v>
       </c>
       <c r="J63" t="n">
-        <v>0.050042409</v>
+        <v>0.24043956</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.011743451</v>
+        <v>0.081502481</v>
       </c>
       <c r="L63" t="n">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>688096.SH</t>
+          <t>603583.SH</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.040294242</v>
+        <v>0.003113664</v>
       </c>
       <c r="D64" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.008816121</v>
+        <v>-0.01323097</v>
       </c>
       <c r="F64" t="n">
-        <v>0.030266344</v>
+        <v>-0.014888743</v>
       </c>
       <c r="G64" t="n">
-        <v>0.012939002</v>
+        <v>-0.000645265</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.035552683</v>
+        <v>-0.01655195</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.09351535800000001</v>
+        <v>0.043779867</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.039584685</v>
+        <v>-0.28426501</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.043648208</v>
+        <v>-0.29094693</v>
       </c>
       <c r="L64" t="n">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>603609.SH</t>
+          <t>300323.SZ</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.002439834</v>
+        <v>0.118231377</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.033476395</v>
+        <v>-0.07545045</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.023809524</v>
+        <v>-0.036916395</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.032590051</v>
+        <v>-0.06465997799999999</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.077887198</v>
+        <v>-0.073033708</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.107635695</v>
+        <v>-0.032432432</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.128397376</v>
+        <v>0.145031334</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.167798254</v>
+        <v>0.225466342</v>
       </c>
       <c r="L65" t="n">
-        <v>0.27</v>
+        <v>-0.02</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>600050.SH</t>
+          <t>002628.SZ</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.047241219</v>
+        <v>0.0009356039999999999</v>
       </c>
       <c r="D66" t="n">
         <v>0.01</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.012077295</v>
+        <v>-0.002840909</v>
       </c>
       <c r="F66" t="n">
-        <v>0.009456265</v>
+        <v>-0.008571429</v>
       </c>
       <c r="G66" t="n">
-        <v>0.021767396</v>
+        <v>0.01396648</v>
       </c>
       <c r="H66" t="n">
-        <v>0.016431925</v>
+        <v>0.019444444</v>
       </c>
       <c r="I66" t="n">
-        <v>0.027842227</v>
+        <v>-0.014367816</v>
       </c>
       <c r="J66" t="n">
-        <v>0.021028037</v>
+        <v>-0.023188406</v>
       </c>
       <c r="K66" t="n">
-        <v>0.014074759</v>
+        <v>-0.044378698</v>
       </c>
       <c r="L66" t="n">
-        <v>0.131</v>
+        <v>0.08</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>688468.SH</t>
+          <t>300278.SZ</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.042649922</v>
+        <v>0.003665989</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.368074602</v>
+        <v>-0.138686131</v>
       </c>
       <c r="F67" t="n">
-        <v>0.050266565</v>
+        <v>-0.424657534</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.069468268</v>
+        <v>-0.380530973</v>
       </c>
       <c r="H67" t="n">
-        <v>0.037065637</v>
+        <v>-0.142857143</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.106477374</v>
+        <v>-0.399103139</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07458256000000001</v>
+        <v>-0.114285714</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.217773438</v>
+        <v>0.054545455</v>
       </c>
       <c r="L67" t="n">
-        <v>0.19</v>
+        <v>-0.2135</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>603363.SH</t>
+          <t>300123.SZ</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.003894833</v>
+        <v>0.039096651</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.043874172</v>
+        <v>-0.08058608099999999</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.103237095</v>
+        <v>-0.136071887</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.084264832</v>
+        <v>-0.09801488800000001</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.155820348</v>
+        <v>0.104251012</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.190745987</v>
+        <v>0.093237705</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.205544933</v>
+        <v>0.27990236</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.633419689</v>
+        <v>0.281655844</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.26</v>
+        <v>0.05</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>300826.SZ</t>
+          <t>002483.SZ</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.023454094</v>
+        <v>0.002467765</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.023051592</v>
+        <v>0.036190476</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.009022014</v>
+        <v>0.034351145</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.022303473</v>
+        <v>0.047080979</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04312115</v>
+        <v>0.023166023</v>
       </c>
       <c r="I69" t="n">
-        <v>0.047359455</v>
+        <v>-0.054166667</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.387593052</v>
+        <v>0.019379845</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.365234375</v>
+        <v>0.003937008</v>
       </c>
       <c r="L69" t="n">
-        <v>0.34</v>
+        <v>0.217</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>000603.SZ</t>
+          <t>002545.SZ</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.011840608</v>
+        <v>0.001257446</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.019838354</v>
+        <v>0.001547122</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.006526468000000001</v>
+        <v>-0.007112376</v>
       </c>
       <c r="G70" t="n">
-        <v>0.019081272</v>
+        <v>-0.032069971</v>
       </c>
       <c r="H70" t="n">
-        <v>0.006442376999999999</v>
+        <v>-0.011428571</v>
       </c>
       <c r="I70" t="n">
-        <v>0.038115038</v>
+        <v>-0.001414427</v>
       </c>
       <c r="J70" t="n">
-        <v>0.005017921</v>
+        <v>0.059760956</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.080996885</v>
+        <v>0.242780749</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1647</v>
+        <v>0.1629</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>003042.SZ</t>
+          <t>600738.SH</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.04390933900000001</v>
+        <v>0.009909763</v>
       </c>
       <c r="D71" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="E71" t="n">
-        <v>0.317132175</v>
+        <v>0.021069692</v>
       </c>
       <c r="F71" t="n">
-        <v>0.175955414</v>
+        <v>0.039745628</v>
       </c>
       <c r="G71" t="n">
-        <v>0.214123007</v>
+        <v>0.06211180099999999</v>
       </c>
       <c r="H71" t="n">
-        <v>0.140603377</v>
+        <v>0.111764706</v>
       </c>
       <c r="I71" t="n">
-        <v>0.091308165</v>
+        <v>0.190348525</v>
       </c>
       <c r="J71" t="n">
-        <v>0.024505184</v>
+        <v>0.17373461</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.147450111</v>
+        <v>-0.006666666999999999</v>
       </c>
       <c r="L71" t="n">
-        <v>0.23</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>002931.SZ</t>
+          <t>600152.SH</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.07011753700000001</v>
+        <v>0.038532801</v>
       </c>
       <c r="D72" t="n">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="E72" t="n">
-        <v>0.022451456</v>
+        <v>0.048257373</v>
       </c>
       <c r="F72" t="n">
-        <v>0.056239016</v>
+        <v>0.126691267</v>
       </c>
       <c r="G72" t="n">
-        <v>0.034172662</v>
+        <v>0.154761905</v>
       </c>
       <c r="H72" t="n">
-        <v>0.028347407</v>
+        <v>0.124537608</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.018975332</v>
+        <v>0.09323116199999999</v>
       </c>
       <c r="J72" t="n">
-        <v>0.229186603</v>
+        <v>0.196832579</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.233537519</v>
+        <v>0.139210904</v>
       </c>
       <c r="L72" t="n">
-        <v>0.25</v>
+        <v>0.0158</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>600559.SH</t>
+          <t>603583.SH</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.022799368</v>
+        <v>0.079452118</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07738392400000001</v>
+        <v>-0.01312295</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05475251900000001</v>
+        <v>-0.060680406</v>
       </c>
       <c r="G73" t="n">
-        <v>0.150059078</v>
+        <v>-0.059294348</v>
       </c>
       <c r="H73" t="n">
-        <v>0.100458524</v>
+        <v>-0.108547009</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.013621419</v>
+        <v>0.00169335</v>
       </c>
       <c r="J73" t="n">
-        <v>0.270453009</v>
+        <v>-0.492520138</v>
       </c>
       <c r="K73" t="n">
-        <v>0.157360406</v>
+        <v>-0.29080414</v>
       </c>
       <c r="L73" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>603131.SH</t>
+          <t>000528.SZ</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.002366873</v>
+        <v>0.00181127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06974507000000001</v>
+        <v>0.09389671400000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.06929740099999999</v>
+        <v>0.05019685</v>
       </c>
       <c r="G74" t="n">
-        <v>0.073754789</v>
+        <v>-0.015789474</v>
       </c>
       <c r="H74" t="n">
-        <v>0.035892323</v>
+        <v>-0.007306889</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.035331906</v>
+        <v>-0.100342075</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.072062084</v>
+        <v>-0.137971698</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.119861031</v>
+        <v>-0.209273183</v>
       </c>
       <c r="L74" t="n">
-        <v>0.16</v>
+        <v>0.52</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>002825.SZ</t>
+          <t>688683.SH</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.000310862</v>
+        <v>0.027447288</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.008637874</v>
+        <v>-0.12627551</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.016064257</v>
+        <v>-0.137153896</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.00729927</v>
+        <v>-0.186827957</v>
       </c>
       <c r="H75" t="n">
-        <v>0.027546445</v>
+        <v>-0.255152807</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.067510549</v>
+        <v>-0.176548967</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.084285714</v>
+        <v>-0.073556231</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.08583691</v>
+        <v>-0.033352838</v>
       </c>
       <c r="L75" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>002712.SZ</t>
+          <t>002493.SZ</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.000448103</v>
+        <v>0.627430563</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.034274194</v>
+        <v>0.042166485</v>
       </c>
       <c r="F76" t="n">
-        <v>0.026422764</v>
+        <v>0.039022611</v>
       </c>
       <c r="G76" t="n">
-        <v>0.066276803</v>
+        <v>0.100682594</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006224065999999999</v>
+        <v>0.069890575</v>
       </c>
       <c r="I76" t="n">
-        <v>0.032323232</v>
+        <v>-0.002663623</v>
       </c>
       <c r="J76" t="n">
-        <v>0.114602588</v>
+        <v>-0.498010233</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.043572985</v>
+        <v>-0.542740047</v>
       </c>
       <c r="L76" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>600853.SH</t>
+          <t>600559.SH</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.022715379</v>
+        <v>0.022799368</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.011494253</v>
+        <v>-0.07738392400000001</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.015384615</v>
+        <v>0.05475251900000001</v>
       </c>
       <c r="G77" t="n">
-        <v>0.014925373</v>
+        <v>0.150059078</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.007633588</v>
+        <v>0.100458524</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.035294118</v>
+        <v>-0.013621419</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.023255814</v>
+        <v>0.270453009</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.086419753</v>
+        <v>0.157360406</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0358</v>
+        <v>0.14</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>603906.SH</t>
+          <t>002931.SZ</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.002020243</v>
+        <v>0.07011753700000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.040438657</v>
+        <v>0.022451456</v>
       </c>
       <c r="F78" t="n">
-        <v>0.027546445</v>
+        <v>0.056239016</v>
       </c>
       <c r="G78" t="n">
-        <v>0.015883306</v>
+        <v>0.034172662</v>
       </c>
       <c r="H78" t="n">
-        <v>0.115126785</v>
+        <v>0.028347407</v>
       </c>
       <c r="I78" t="n">
-        <v>0.024734982</v>
+        <v>-0.018975332</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.09444845</v>
+        <v>0.229186603</v>
       </c>
       <c r="K78" t="n">
-        <v>0.109677419</v>
+        <v>-0.233537519</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>688662.SH</t>
+          <t>300986.SZ</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.037125371</v>
+        <v>0.069024796</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.08230328599999999</v>
+        <v>0.139534884</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.188741722</v>
+        <v>0.237476221</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.245662734</v>
+        <v>0.148220294</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.256123163</v>
+        <v>-0.06888888900000001</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.357277883</v>
+        <v>-0.116009281</v>
       </c>
       <c r="J79" t="n">
-        <v>0.10896004</v>
+        <v>-0.230179028</v>
       </c>
       <c r="K79" t="n">
-        <v>0.022331155</v>
+        <v>-0.157362849</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4601</v>
+        <v>0.53</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>300986.SZ</t>
+          <t>603773.SH</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.069024796</v>
+        <v>0.040851624</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="E80" t="n">
-        <v>0.139534884</v>
+        <v>0.012830189</v>
       </c>
       <c r="F80" t="n">
-        <v>0.237476221</v>
+        <v>0.027509294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.148220294</v>
+        <v>0.018018018</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.06888888900000001</v>
+        <v>-0.004994237</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.116009281</v>
+        <v>-0.07213114799999999</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.230179028</v>
+        <v>0.01728024</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.157362849</v>
+        <v>-0.000382409</v>
       </c>
       <c r="L80" t="n">
-        <v>0.53</v>
+        <v>0.0263</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>002493.SZ</t>
+          <t>003042.SZ</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.627430563</v>
+        <v>0.04390933900000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="n">
-        <v>0.042166485</v>
+        <v>0.317132175</v>
       </c>
       <c r="F81" t="n">
-        <v>0.039022611</v>
+        <v>0.175955414</v>
       </c>
       <c r="G81" t="n">
-        <v>0.100682594</v>
+        <v>0.214123007</v>
       </c>
       <c r="H81" t="n">
-        <v>0.069890575</v>
+        <v>0.140603377</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.002663623</v>
+        <v>0.091308165</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.498010233</v>
+        <v>0.024505184</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.542740047</v>
+        <v>-0.147450111</v>
       </c>
       <c r="L81" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>688365.SH</t>
+          <t>000603.SZ</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.121607246</v>
+        <v>0.011840608</v>
       </c>
       <c r="D82" t="n">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.04038004799999999</v>
+        <v>-0.019838354</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.085501859</v>
+        <v>-0.006526468000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.056694813</v>
+        <v>0.019081272</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.056057866</v>
+        <v>0.006442376999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>0.013513514</v>
+        <v>0.038115038</v>
       </c>
       <c r="J82" t="n">
-        <v>0.023411371</v>
+        <v>0.005017921</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.13618677</v>
+        <v>-0.080996885</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.06</v>
+        <v>0.1647</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>002373.SZ</t>
+          <t>000952.SZ</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.065118335</v>
+        <v>0.002806065</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E83" t="n">
-        <v>0.032914423</v>
+        <v>0.024128686</v>
       </c>
       <c r="F83" t="n">
-        <v>0.012224939</v>
+        <v>0.013550136</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07949231799999999</v>
+        <v>0.008174387</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.07949231799999999</v>
+        <v>0.028037383</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.060367454</v>
+        <v>0.033200531</v>
       </c>
       <c r="J83" t="n">
-        <v>0.07498568999999999</v>
+        <v>0.053315995</v>
       </c>
       <c r="K83" t="n">
-        <v>0.008588956999999999</v>
+        <v>0.06185567</v>
       </c>
       <c r="L83" t="n">
-        <v>0.32</v>
+        <v>0.1736</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>000948.SZ</t>
+          <t>600821.SH</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.008635378000000001</v>
+        <v>0.030484173</v>
       </c>
       <c r="D84" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.02605042</v>
+        <v>-0.079726651</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.162857143</v>
+        <v>-0.012820513</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.216135458</v>
+        <v>-0.004237288</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.204142012</v>
+        <v>0.030674847</v>
       </c>
       <c r="I84" t="n">
-        <v>0.096893491</v>
+        <v>0.026694045</v>
       </c>
       <c r="J84" t="n">
-        <v>0.06793893099999999</v>
+        <v>0.228013029</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.011599006</v>
+        <v>0.164021164</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0274</v>
+        <v>0.17</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>002526.SZ</t>
+          <t>600189.SH</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.000411562</v>
+        <v>0.006656685</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E85" t="n">
-        <v>0.045248869</v>
+        <v>0.019624573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.004716980999999999</v>
+        <v>0.07038835</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.019323671</v>
+        <v>0.01710864</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.029268293</v>
+        <v>-0.019520852</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.019323671</v>
+        <v>-0.04076087</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.004761905</v>
+        <v>0.06585365900000001</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.034313725</v>
+        <v>-0.002617801</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0377</v>
+        <v>0.09</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>000567.SZ</t>
+          <t>300827.SZ</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.214671013</v>
+        <v>0.029863731</v>
       </c>
       <c r="D86" t="n">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
       <c r="E86" t="n">
-        <v>0.023856859</v>
+        <v>0.010315414</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.052518757</v>
+        <v>0.050256996</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.08388521</v>
+        <v>0.048627002</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.052518757</v>
+        <v>0.035942029</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.028272251</v>
+        <v>0.020612485</v>
       </c>
       <c r="J86" t="n">
-        <v>0.032512315</v>
+        <v>0.138639503</v>
       </c>
       <c r="K86" t="n">
-        <v>0.139351446</v>
+        <v>0.060451977</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1873</v>
+        <v>0.18</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>000952.SZ</t>
+          <t>002979.SZ</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.002806065</v>
+        <v>0.128539295</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="E87" t="n">
-        <v>0.024128686</v>
+        <v>-0.023476523</v>
       </c>
       <c r="F87" t="n">
-        <v>0.013550136</v>
+        <v>0.031892275</v>
       </c>
       <c r="G87" t="n">
-        <v>0.008174387</v>
+        <v>0.05445316099999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0.028037383</v>
+        <v>0.089535659</v>
       </c>
       <c r="I87" t="n">
-        <v>0.033200531</v>
+        <v>0.028449502</v>
       </c>
       <c r="J87" t="n">
-        <v>0.053315995</v>
+        <v>-0.349802372</v>
       </c>
       <c r="K87" t="n">
-        <v>0.06185567</v>
+        <v>-0.226211849</v>
       </c>
       <c r="L87" t="n">
-        <v>0.1736</v>
+        <v>0.44</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>688683.SH</t>
+          <t>603266.SH</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.027447288</v>
+        <v>0.000333922</v>
       </c>
       <c r="D88" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.12627551</v>
+        <v>-0.009009009</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.137153896</v>
+        <v>-0.020966272</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.186827957</v>
+        <v>-0.031307551</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.255152807</v>
+        <v>-0.02003643</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.176548967</v>
+        <v>-0.003584229</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.073556231</v>
+        <v>0.050042409</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.033352838</v>
+        <v>-0.011743451</v>
       </c>
       <c r="L88" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>300254.SZ</t>
+          <t>688096.SH</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.005911544</v>
+        <v>0.040294242</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="E89" t="n">
-        <v>0.025931929</v>
+        <v>-0.008816121</v>
       </c>
       <c r="F89" t="n">
-        <v>0.025931929</v>
+        <v>0.030266344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.185636856</v>
+        <v>0.012939002</v>
       </c>
       <c r="H89" t="n">
-        <v>0.185636856</v>
+        <v>-0.035552683</v>
       </c>
       <c r="I89" t="n">
-        <v>0.146306818</v>
+        <v>-0.09351535800000001</v>
       </c>
       <c r="J89" t="n">
-        <v>0.106983655</v>
+        <v>-0.039584685</v>
       </c>
       <c r="K89" t="n">
-        <v>0.126453488</v>
+        <v>-0.043648208</v>
       </c>
       <c r="L89" t="n">
-        <v>-0.0181</v>
+        <v>0.19</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>603228.SH</t>
+          <t>603609.SH</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.001524117</v>
+        <v>0.002439834</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.052650177</v>
+        <v>-0.033476395</v>
       </c>
       <c r="F90" t="n">
-        <v>0.037342908</v>
+        <v>-0.023809524</v>
       </c>
       <c r="G90" t="n">
-        <v>0.043524795</v>
+        <v>-0.032590051</v>
       </c>
       <c r="H90" t="n">
-        <v>0.043524795</v>
+        <v>-0.077887198</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.052197802</v>
+        <v>-0.107635695</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.066428003</v>
+        <v>-0.128397376</v>
       </c>
       <c r="K90" t="n">
-        <v>0.075517241</v>
+        <v>-0.167798254</v>
       </c>
       <c r="L90" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>688663.SH</t>
+          <t>300826.SZ</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.034573653</v>
+        <v>0.023454094</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E91" t="n">
-        <v>0.009790831999999999</v>
+        <v>-0.023051592</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.092292587</v>
+        <v>-0.009022014</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.159458051</v>
+        <v>-0.022303473</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.104766634</v>
+        <v>0.04312115</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.103670635</v>
+        <v>0.047359455</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.09822310000000001</v>
+        <v>-0.387593052</v>
       </c>
       <c r="K91" t="n">
-        <v>0.07791131400000001</v>
+        <v>-0.365234375</v>
       </c>
       <c r="L91" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>000528.SZ</t>
+          <t>600050.SH</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.00181127</v>
+        <v>0.047241219</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E92" t="n">
-        <v>0.09389671400000001</v>
+        <v>-0.012077295</v>
       </c>
       <c r="F92" t="n">
-        <v>0.05019685</v>
+        <v>0.009456265</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.015789474</v>
+        <v>0.021767396</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.007306889</v>
+        <v>0.016431925</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.100342075</v>
+        <v>0.027842227</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.137971698</v>
+        <v>0.021028037</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.209273183</v>
+        <v>0.014074759</v>
       </c>
       <c r="L92" t="n">
-        <v>0.52</v>
+        <v>0.131</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>300981.SZ</t>
+          <t>688468.SH</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.247607059</v>
+        <v>0.042649922</v>
       </c>
       <c r="D93" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="E93" t="n">
-        <v>0.134574087</v>
+        <v>-0.368074602</v>
       </c>
       <c r="F93" t="n">
-        <v>0.030317613</v>
+        <v>0.050266565</v>
       </c>
       <c r="G93" t="n">
-        <v>0.033341329</v>
+        <v>-0.069468268</v>
       </c>
       <c r="H93" t="n">
-        <v>0.039332539</v>
+        <v>0.037065637</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.04449244099999999</v>
+        <v>-0.106477374</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.121521336</v>
+        <v>0.07458256000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.189609367</v>
+        <v>-0.217773438</v>
       </c>
       <c r="L93" t="n">
-        <v>15.0394</v>
+        <v>0.19</v>
       </c>
       <c r="M93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>688788.SH</t>
+          <t>600789.SH</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.004060746</v>
+        <v>0.010555989</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.038821693</v>
+        <v>0.012032086</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.059701493</v>
+        <v>0.023778071</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07554029499999999</v>
+        <v>0.04890604900000001</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.067562149</v>
+        <v>0.07044025200000001</v>
       </c>
       <c r="I94" t="n">
-        <v>0.14119829</v>
+        <v>0.04025974</v>
       </c>
       <c r="J94" t="n">
-        <v>0.227869209</v>
+        <v>0.03908324</v>
       </c>
       <c r="K94" t="n">
-        <v>0.208766716</v>
+        <v>-0.017906336</v>
       </c>
       <c r="L94" t="n">
-        <v>2.4183</v>
+        <v>0.08</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
@@ -4497,42 +4497,42 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>688330.SH</t>
+          <t>603363.SH</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.003742229</v>
+        <v>0.003894833</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
       </c>
       <c r="E95" t="n">
-        <v>0.010793824</v>
+        <v>-0.043874172</v>
       </c>
       <c r="F95" t="n">
-        <v>0.005357879</v>
+        <v>-0.103237095</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.012445812</v>
+        <v>-0.084264832</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.012445812</v>
+        <v>-0.155820348</v>
       </c>
       <c r="I95" t="n">
-        <v>0.008898015</v>
+        <v>-0.190745987</v>
       </c>
       <c r="J95" t="n">
-        <v>0.019634394</v>
+        <v>-0.205544933</v>
       </c>
       <c r="K95" t="n">
-        <v>0.052107882</v>
+        <v>-0.633419689</v>
       </c>
       <c r="L95" t="n">
-        <v>2.1</v>
+        <v>-0.26</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
@@ -4540,42 +4540,42 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>603392.SH</t>
+          <t>002526.SZ</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0.000411562</v>
       </c>
       <c r="D96" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.024047511</v>
+        <v>0.045248869</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.034111619</v>
+        <v>0.004716980999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>0.07439212099999999</v>
+        <v>-0.019323671</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.274279661</v>
+        <v>-0.029268293</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.38674721</v>
+        <v>-0.019323671</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.139128788</v>
+        <v>-0.004761905</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.167974212</v>
+        <v>-0.034313725</v>
       </c>
       <c r="L96" t="n">
-        <v>1.47</v>
+        <v>0.0377</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
@@ -4583,42 +4583,42 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>603301.SH</t>
+          <t>603131.SH</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.334151568</v>
+        <v>0.002366873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.53</v>
+        <v>0.01</v>
       </c>
       <c r="E97" t="n">
-        <v>0.002961866</v>
+        <v>0.06974507000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.031120705</v>
+        <v>0.06929740099999999</v>
       </c>
       <c r="G97" t="n">
-        <v>0.020371044</v>
+        <v>0.073754789</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.019110691</v>
+        <v>0.035892323</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.086982846</v>
+        <v>-0.035331906</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.15554602</v>
+        <v>-0.072062084</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.266698024</v>
+        <v>-0.119861031</v>
       </c>
       <c r="L97" t="n">
-        <v>1.66</v>
+        <v>0.16</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
@@ -4626,42 +4626,42 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>603185.SH</t>
+          <t>688365.SH</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.007111028</v>
+        <v>0.121607246</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E98" t="n">
-        <v>0.038919668</v>
+        <v>-0.04038004799999999</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.055361217</v>
+        <v>-0.085501859</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.011516035</v>
+        <v>-0.056694813</v>
       </c>
       <c r="H98" t="n">
-        <v>0.016929943</v>
+        <v>-0.056057866</v>
       </c>
       <c r="I98" t="n">
-        <v>0.05204918</v>
+        <v>0.013513514</v>
       </c>
       <c r="J98" t="n">
-        <v>0.164026263</v>
+        <v>0.023411371</v>
       </c>
       <c r="K98" t="n">
-        <v>0.386363636</v>
+        <v>-0.13618677</v>
       </c>
       <c r="L98" t="n">
-        <v>3.212</v>
+        <v>-0.06</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
@@ -4669,42 +4669,42 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>688318.SH</t>
+          <t>002596.SZ</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.030080334</v>
+        <v>0.004700083</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E99" t="n">
-        <v>0.024442847</v>
+        <v>0.001897533</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.01083497</v>
+        <v>-0.005736138000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.042834242</v>
+        <v>-0.005736138000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>0.095716969</v>
+        <v>-0.047808765</v>
       </c>
       <c r="I99" t="n">
-        <v>0.151923186</v>
+        <v>-0.003816794</v>
       </c>
       <c r="J99" t="n">
-        <v>0.213291873</v>
+        <v>-0.08677686</v>
       </c>
       <c r="K99" t="n">
-        <v>0.121941176</v>
+        <v>-0.387862797</v>
       </c>
       <c r="L99" t="n">
-        <v>1.77</v>
+        <v>-0.0267</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
@@ -4712,42 +4712,42 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>002978.SZ</t>
+          <t>002579.SZ</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.134174173</v>
+        <v>0.055917691</v>
       </c>
       <c r="D100" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.022761434</v>
+        <v>0.0213858</v>
       </c>
       <c r="F100" t="n">
-        <v>0.021167283</v>
+        <v>0.012942192</v>
       </c>
       <c r="G100" t="n">
-        <v>0.013054289</v>
+        <v>0.009523810000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>0.094486692</v>
+        <v>-0.026929982</v>
       </c>
       <c r="I100" t="n">
-        <v>0.074786325</v>
+        <v>0.04427736</v>
       </c>
       <c r="J100" t="n">
-        <v>0.211423841</v>
+        <v>-0.104247104</v>
       </c>
       <c r="K100" t="n">
-        <v>0.089292543</v>
+        <v>0.052195526</v>
       </c>
       <c r="L100" t="n">
-        <v>1.9021</v>
+        <v>0.16</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
@@ -4755,42 +4755,42 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>002821.SZ</t>
+          <t>300548.SZ</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.150958838</v>
+        <v>0.000431308</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04479952</v>
+        <v>0.018889202</v>
       </c>
       <c r="F101" t="n">
-        <v>0.030242482</v>
+        <v>0.023294976</v>
       </c>
       <c r="G101" t="n">
-        <v>0.129370629</v>
+        <v>-0.07639962900000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0.117511095</v>
+        <v>-0.131339402</v>
       </c>
       <c r="I101" t="n">
-        <v>0.181272337</v>
+        <v>-0.132443866</v>
       </c>
       <c r="J101" t="n">
-        <v>0.284572142</v>
+        <v>-0.000575043</v>
       </c>
       <c r="K101" t="n">
-        <v>0.220179739</v>
+        <v>0.086614173</v>
       </c>
       <c r="L101" t="n">
-        <v>1.78</v>
+        <v>0.46</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
@@ -4798,42 +4798,42 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>000661.SZ</t>
+          <t>688662.SH</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.491247682</v>
+        <v>0.037125371</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="E102" t="n">
-        <v>0.021670103</v>
+        <v>-0.08230328599999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.046442926</v>
+        <v>-0.188741722</v>
       </c>
       <c r="G102" t="n">
-        <v>0.007571479</v>
+        <v>-0.245662734</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.013867521</v>
+        <v>-0.256123163</v>
       </c>
       <c r="I102" t="n">
-        <v>0.062476537</v>
+        <v>-0.357277883</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.198509725</v>
+        <v>0.10896004</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.151954358</v>
+        <v>0.022331155</v>
       </c>
       <c r="L102" t="n">
-        <v>4.75</v>
+        <v>0.4601</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
@@ -4841,687 +4841,687 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>688260.SH</t>
+          <t>300898.SZ</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.040174309</v>
+        <v>0.002696246</v>
       </c>
       <c r="D103" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.394428152</v>
+        <v>0.138556884</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.463076923</v>
+        <v>0.018163471</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.465331279</v>
+        <v>-0.046236559</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.4921548120000001</v>
+        <v>-0.040363539</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.717639976</v>
+        <v>0.000770218</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.274229567</v>
+        <v>-0.043991416</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.374277457</v>
+        <v>-0.06630137</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0008</v>
+        <v>0.293</v>
       </c>
       <c r="M103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>688611.SH</t>
+          <t>688222.SH</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.036838072</v>
+        <v>0.350558644</v>
       </c>
       <c r="D104" t="n">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.234649123</v>
+        <v>-0.122645291</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.250555309</v>
+        <v>-0.08776699</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.283337132</v>
+        <v>-0.143265306</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.464239272</v>
+        <v>-0.197520308</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.451030928</v>
+        <v>-0.149835796</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.239815019</v>
+        <v>-0.011191336</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.125324805</v>
+        <v>0.09352750800000001</v>
       </c>
       <c r="L104" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="M104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>300690.SZ</t>
+          <t>603906.SH</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.000688425</v>
+        <v>0.002020243</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.001687154</v>
+        <v>-0.040438657</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.6071152360000001</v>
+        <v>0.027546445</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.822807018</v>
+        <v>0.015883306</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.8148471620000001</v>
+        <v>0.115126785</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.8220078909999999</v>
+        <v>0.024734982</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.9366262809999999</v>
+        <v>-0.09444845</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.676482453</v>
+        <v>0.109677419</v>
       </c>
       <c r="L105" t="n">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>300702.SZ</t>
+          <t>000948.SZ</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>0.008635378000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.042507205</v>
+        <v>-0.02605042</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.075037147</v>
+        <v>-0.162857143</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.09787556900000001</v>
+        <v>-0.216135458</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.079689599</v>
+        <v>-0.204142012</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.106607525</v>
+        <v>0.096893491</v>
       </c>
       <c r="J106" t="n">
-        <v>-1.07842574</v>
+        <v>0.06793893099999999</v>
       </c>
       <c r="K106" t="n">
-        <v>-1.640510949</v>
+        <v>-0.011599006</v>
       </c>
       <c r="L106" t="n">
-        <v>0.52</v>
+        <v>0.0274</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>001201.SZ</t>
+          <t>600853.SH</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.149705791</v>
+        <v>0.022715379</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.234546192</v>
+        <v>-0.011494253</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.426316612</v>
+        <v>-0.015384615</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.507847348</v>
+        <v>0.014925373</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.531375839</v>
+        <v>-0.007633588</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.5453775820000001</v>
+        <v>-0.035294118</v>
       </c>
       <c r="J107" t="n">
-        <v>-1.171544135</v>
+        <v>-0.023255814</v>
       </c>
       <c r="K107" t="n">
-        <v>-1.607714286</v>
+        <v>-0.086419753</v>
       </c>
       <c r="L107" t="n">
-        <v>1.57</v>
+        <v>0.0358</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>688395.SH</t>
+          <t>600629.SH</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.032305271</v>
+        <v>0.001607779</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.188059701</v>
+        <v>0.008356545999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.256842105</v>
+        <v>-0.002816901</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.3380649979999999</v>
+        <v>0.013850416</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.348644578</v>
+        <v>0.013850416</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.339566193</v>
+        <v>0.033921303</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.300653595</v>
+        <v>0.020632737</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.339566193</v>
+        <v>-0.190635452</v>
       </c>
       <c r="L108" t="n">
-        <v>0.57</v>
+        <v>0.3745</v>
       </c>
       <c r="M108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>603610.SH</t>
+          <t>002683.SZ</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.024713382</v>
+        <v>0.04526105900000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.100601202</v>
+        <v>-0.013868613</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.08067689900000001</v>
+        <v>-0.082197117</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.050497322</v>
+        <v>-0.037341299</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.07307542</v>
+        <v>-0.034251675</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.036226415</v>
+        <v>0.027651383</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.525555556</v>
+        <v>0.016985138</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.655213984</v>
+        <v>0.078301261</v>
       </c>
       <c r="L109" t="n">
-        <v>0.48</v>
+        <v>0.2813</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>300972.SZ</t>
+          <t>002712.SZ</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.051321757</v>
+        <v>0.000448103</v>
       </c>
       <c r="D110" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.193181818</v>
+        <v>0.034274194</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.418918919</v>
+        <v>0.026422764</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.464592275</v>
+        <v>0.066276803</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.4145077720000001</v>
+        <v>0.006224065999999999</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.436842105</v>
+        <v>0.032323232</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.580775912</v>
+        <v>0.114602588</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.683107275</v>
+        <v>-0.043572985</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>688191.SH</t>
+          <t>603228.SH</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.04426250299999999</v>
+        <v>0.001524117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.356631811</v>
+        <v>0.052650177</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.38795045</v>
+        <v>0.037342908</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.32455669</v>
+        <v>0.043524795</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.295323174</v>
+        <v>0.043524795</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.5012180270000001</v>
+        <v>-0.052197802</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.437317784</v>
+        <v>-0.066428003</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.16</v>
+        <v>0.075517241</v>
       </c>
       <c r="L111" t="n">
-        <v>0.19</v>
+        <v>0.55</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>002985.SZ</t>
+          <t>300254.SZ</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.454148489</v>
+        <v>0.005911544</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="E112" t="n">
-        <v>0.020643432</v>
+        <v>0.025931929</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.007376766999999999</v>
+        <v>0.025931929</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.560944344</v>
+        <v>0.185636856</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.727799456</v>
+        <v>0.185636856</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.607480748</v>
+        <v>0.146306818</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.459011483</v>
+        <v>0.106983655</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.330783242</v>
+        <v>0.126453488</v>
       </c>
       <c r="L112" t="n">
-        <v>0.89</v>
+        <v>-0.0181</v>
       </c>
       <c r="M112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>300975.SZ</t>
+          <t>002373.SZ</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.066312544</v>
+        <v>0.065118335</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.435653003</v>
+        <v>0.032914423</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.507507508</v>
+        <v>0.012224939</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.432239658</v>
+        <v>-0.07949231799999999</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.39897817</v>
+        <v>-0.07949231799999999</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.540664962</v>
+        <v>-0.060367454</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.6004250800000001</v>
+        <v>0.07498568999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.682681564</v>
+        <v>0.008588956999999999</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3257</v>
+        <v>0.32</v>
       </c>
       <c r="M113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>300985.SZ</t>
+          <t>688663.SH</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.07353308900000001</v>
+        <v>0.034573653</v>
       </c>
       <c r="D114" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.180887372</v>
+        <v>0.009790831999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.328803545</v>
+        <v>-0.092292587</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.4082654979999999</v>
+        <v>-0.159458051</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.418032787</v>
+        <v>-0.104766634</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.40694401</v>
+        <v>-0.103670635</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.554250173</v>
+        <v>-0.09822310000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.7687770350000001</v>
+        <v>0.07791131400000001</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2718</v>
+        <v>0.29</v>
       </c>
       <c r="M114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>002886.SZ</t>
+          <t>000567.SZ</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.018500463</v>
+        <v>0.214671013</v>
       </c>
       <c r="D115" t="n">
-        <v>0.11</v>
+        <v>0.66</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.003614458</v>
+        <v>0.023856859</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.047359598</v>
+        <v>-0.052518757</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.08746736300000001</v>
+        <v>-0.08388521</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.094612352</v>
+        <v>-0.052518757</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.8511111109999999</v>
+        <v>-0.028272251</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.769830028</v>
+        <v>0.032512315</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.592734226</v>
+        <v>0.139351446</v>
       </c>
       <c r="L115" t="n">
-        <v>0.18</v>
+        <v>0.1873</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>605289.SH</t>
+          <t>002825.SZ</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.043920277</v>
+        <v>0.000310862</v>
       </c>
       <c r="D116" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.202756508</v>
+        <v>-0.008637874</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.299470549</v>
+        <v>-0.016064257</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.271285206</v>
+        <v>-0.00729927</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.265957447</v>
+        <v>0.027546445</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.352738546</v>
+        <v>-0.067510549</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.44534413</v>
+        <v>-0.084285714</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.595044679</v>
+        <v>-0.08583691</v>
       </c>
       <c r="L116" t="n">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="M116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>300968.SZ</t>
+          <t>002236.SZ</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.098600585</v>
+        <v>0.036281603</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.117315574</v>
+        <v>0.061248528</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.131811105</v>
+        <v>0.002919099</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.245573958</v>
+        <v>-0.019181586</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.245573958</v>
+        <v>-0.019181586</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.217755444</v>
+        <v>-0.032829374</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.313855422</v>
+        <v>-0.125706215</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.374291115</v>
+        <v>-0.164637116</v>
       </c>
       <c r="L117" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>688533.SH</t>
+          <t>603185.SH</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.05412684099999999</v>
+        <v>0.007111028</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.483633011</v>
+        <v>0.038919668</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.6848167540000001</v>
+        <v>-0.055361217</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.7026455029999999</v>
+        <v>-0.011516035</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.573594132</v>
+        <v>0.016929943</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.65025641</v>
+        <v>0.05204918</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.587567834</v>
+        <v>0.164026263</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.496744186</v>
+        <v>0.386363636</v>
       </c>
       <c r="L118" t="n">
-        <v>0.23</v>
+        <v>3.212</v>
       </c>
       <c r="M118" t="n">
         <v>3</v>
@@ -5529,42 +5529,42 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>300967.SZ</t>
+          <t>688318.SH</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.07133951099999999</v>
+        <v>0.030080334</v>
       </c>
       <c r="D119" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.466824645</v>
+        <v>0.024442847</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.559193955</v>
+        <v>-0.01083497</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.6019668739999999</v>
+        <v>0.042834242</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.708057395</v>
+        <v>0.095716969</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.6375661379999999</v>
+        <v>0.151923186</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.725195095</v>
+        <v>0.213291873</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.9128553770000001</v>
+        <v>0.121941176</v>
       </c>
       <c r="L119" t="n">
-        <v>0.33</v>
+        <v>1.77</v>
       </c>
       <c r="M119" t="n">
         <v>3</v>
@@ -5572,42 +5572,42 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>300971.SZ</t>
+          <t>603301.SH</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.046533904</v>
+        <v>0.334151568</v>
       </c>
       <c r="D120" t="n">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.217976319</v>
+        <v>0.002961866</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.227556279</v>
+        <v>0.031120705</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.287990894</v>
+        <v>0.020371044</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.287990894</v>
+        <v>-0.019110691</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.223573939</v>
+        <v>-0.086982846</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.18699187</v>
+        <v>-0.15554602</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.290929835</v>
+        <v>-0.266698024</v>
       </c>
       <c r="L120" t="n">
-        <v>0.71</v>
+        <v>1.66</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
@@ -5615,42 +5615,42 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>300966.SZ</t>
+          <t>603392.SH</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.08107884900000001</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.538606911</v>
+        <v>0.024047511</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.581737441</v>
+        <v>-0.034111619</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.7001789979999999</v>
+        <v>0.07439212099999999</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.051476015</v>
+        <v>-0.274279661</v>
       </c>
       <c r="I121" t="n">
-        <v>0.015376641</v>
+        <v>-0.38674721</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.03392598</v>
+        <v>-0.139128788</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.238105583</v>
+        <v>-0.167974212</v>
       </c>
       <c r="L121" t="n">
-        <v>0.43</v>
+        <v>1.47</v>
       </c>
       <c r="M121" t="n">
         <v>3</v>
@@ -5658,42 +5658,42 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>300962.SZ</t>
+          <t>688788.SH</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.112444237</v>
+        <v>0.004060746</v>
       </c>
       <c r="D122" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="E122" t="n">
-        <v>0.008571429</v>
+        <v>-0.038821693</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.05119660700000001</v>
+        <v>-0.059701493</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.31091802</v>
+        <v>-0.07554029499999999</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.270596851</v>
+        <v>-0.067562149</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.322408537</v>
+        <v>0.14119829</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.371541502</v>
+        <v>0.227869209</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.4944013779999999</v>
+        <v>0.208766716</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2286</v>
+        <v>2.4183</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
@@ -5701,42 +5701,42 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>300963.SZ</t>
+          <t>688330.SH</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.073735071</v>
+        <v>0.003742229</v>
       </c>
       <c r="D123" t="n">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.423175234</v>
+        <v>0.010793824</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.419546742</v>
+        <v>0.005357879</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.620633894</v>
+        <v>-0.012445812</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.601982097</v>
+        <v>-0.012445812</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.251811142</v>
+        <v>0.008898015</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.56105919</v>
+        <v>0.019634394</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.566916823</v>
+        <v>0.052107882</v>
       </c>
       <c r="L123" t="n">
-        <v>0.23</v>
+        <v>2.1</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -5744,42 +5744,42 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>688636.SH</t>
+          <t>002821.SZ</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.056771293</v>
+        <v>0.150958838</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.433426258</v>
+        <v>0.04479952</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.446871231</v>
+        <v>0.030242482</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.27485242</v>
+        <v>0.129370629</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.45017459</v>
+        <v>0.117511095</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.451149039</v>
+        <v>0.181272337</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.038668719</v>
+        <v>0.284572142</v>
       </c>
       <c r="K124" t="n">
-        <v>0.099716525</v>
+        <v>0.220179739</v>
       </c>
       <c r="L124" t="n">
-        <v>1.1</v>
+        <v>1.78</v>
       </c>
       <c r="M124" t="n">
         <v>3</v>
@@ -5787,42 +5787,42 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>300978.SZ</t>
+          <t>000661.SZ</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0622474</v>
+        <v>0.491247682</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.3749430520000001</v>
+        <v>0.021670103</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.383768913</v>
+        <v>0.046442926</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.428300994</v>
+        <v>0.007571479</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.495540139</v>
+        <v>-0.013867521</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.48816568</v>
+        <v>0.062476537</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.596825397</v>
+        <v>-0.198509725</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.8213639109999999</v>
+        <v>-0.151954358</v>
       </c>
       <c r="L125" t="n">
-        <v>0.18</v>
+        <v>4.75</v>
       </c>
       <c r="M125" t="n">
         <v>3</v>
@@ -5830,45 +5830,45 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>300642.SZ</t>
+          <t>002978.SZ</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.000468844</v>
+        <v>0.134174173</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E126" t="n">
-        <v>0.057539958</v>
+        <v>-0.022761434</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.032115677</v>
+        <v>0.021167283</v>
       </c>
       <c r="G126" t="n">
-        <v>0.030731847</v>
+        <v>0.013054289</v>
       </c>
       <c r="H126" t="n">
-        <v>0.045601689</v>
+        <v>0.094486692</v>
       </c>
       <c r="I126" t="n">
-        <v>0.11103828</v>
+        <v>0.074786325</v>
       </c>
       <c r="J126" t="n">
-        <v>0.214252607</v>
+        <v>0.211423841</v>
       </c>
       <c r="K126" t="n">
-        <v>-0.072433971</v>
+        <v>0.089292543</v>
       </c>
       <c r="L126" t="n">
-        <v>0.825</v>
+        <v>1.9021</v>
       </c>
       <c r="M126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -5916,42 +5916,42 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>603127.SH</t>
+          <t>605180.SH</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.001132627</v>
+        <v>0.041574271</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.058566373</v>
+        <v>0.09083215800000001</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.07847295900000001</v>
+        <v>0.248717949</v>
       </c>
       <c r="G128" t="n">
-        <v>0.003527337</v>
+        <v>0.105963939</v>
       </c>
       <c r="H128" t="n">
-        <v>0.09088200199999999</v>
+        <v>0.144184811</v>
       </c>
       <c r="I128" t="n">
-        <v>0.070667073</v>
+        <v>0.02185129</v>
       </c>
       <c r="J128" t="n">
-        <v>0.171059066</v>
+        <v>0.118917441</v>
       </c>
       <c r="K128" t="n">
-        <v>0.231873112</v>
+        <v>-0.050521512</v>
       </c>
       <c r="L128" t="n">
-        <v>0.6</v>
+        <v>1.23</v>
       </c>
       <c r="M128" t="n">
         <v>4</v>
@@ -5959,42 +5959,42 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>002459.SZ</t>
+          <t>603127.SH</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.329638959</v>
+        <v>0.001132627</v>
       </c>
       <c r="D129" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.027985075</v>
+        <v>-0.058566373</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.020368194</v>
+        <v>-0.07847295900000001</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.00269438</v>
+        <v>0.003527337</v>
       </c>
       <c r="H129" t="n">
-        <v>0.08468025300000001</v>
+        <v>0.09088200199999999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.162379421</v>
+        <v>0.070667073</v>
       </c>
       <c r="J129" t="n">
-        <v>0.446686491</v>
+        <v>0.171059066</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5576498560000001</v>
+        <v>0.231873112</v>
       </c>
       <c r="L129" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="M129" t="n">
         <v>4</v>
@@ -6002,42 +6002,42 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>300573.SZ</t>
+          <t>688025.SH</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.006006134000000001</v>
+        <v>0.00700472</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004520017</v>
+        <v>0.032650946</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.019920612</v>
+        <v>-0.00080429</v>
       </c>
       <c r="G130" t="n">
-        <v>0.10483871</v>
+        <v>0.010863805</v>
       </c>
       <c r="H130" t="n">
-        <v>0.045079147</v>
+        <v>0.051816104</v>
       </c>
       <c r="I130" t="n">
-        <v>0.104029446</v>
+        <v>0.142627469</v>
       </c>
       <c r="J130" t="n">
-        <v>0.185356975</v>
+        <v>0.164876957</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.527578994</v>
+        <v>0.301720913</v>
       </c>
       <c r="L130" t="n">
-        <v>0.99</v>
+        <v>0.47</v>
       </c>
       <c r="M130" t="n">
         <v>4</v>
@@ -6045,42 +6045,42 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>688025.SH</t>
+          <t>688366.SH</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.00700472</v>
+        <v>0.116869258</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="E131" t="n">
-        <v>0.032650946</v>
+        <v>-0.015684517</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.00080429</v>
+        <v>-0.075529896</v>
       </c>
       <c r="G131" t="n">
-        <v>0.010863805</v>
+        <v>0.018122744</v>
       </c>
       <c r="H131" t="n">
-        <v>0.051816104</v>
+        <v>0.136077759</v>
       </c>
       <c r="I131" t="n">
-        <v>0.142627469</v>
+        <v>0.260119695</v>
       </c>
       <c r="J131" t="n">
-        <v>0.164876957</v>
+        <v>0.379041096</v>
       </c>
       <c r="K131" t="n">
-        <v>0.301720913</v>
+        <v>0.387432432</v>
       </c>
       <c r="L131" t="n">
-        <v>0.47</v>
+        <v>1.31</v>
       </c>
       <c r="M131" t="n">
         <v>4</v>
@@ -6088,42 +6088,42 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>605300.SH</t>
+          <t>300642.SZ</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.033400601</v>
+        <v>0.000468844</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.090909091</v>
+        <v>0.057539958</v>
       </c>
       <c r="F132" t="n">
-        <v>0.248608534</v>
+        <v>-0.032115677</v>
       </c>
       <c r="G132" t="n">
-        <v>0.448979592</v>
+        <v>0.030731847</v>
       </c>
       <c r="H132" t="n">
-        <v>0.394392523</v>
+        <v>0.045601689</v>
       </c>
       <c r="I132" t="n">
-        <v>0.394166043</v>
+        <v>0.11103828</v>
       </c>
       <c r="J132" t="n">
-        <v>0.404192718</v>
+        <v>0.214252607</v>
       </c>
       <c r="K132" t="n">
-        <v>0.29900476</v>
+        <v>-0.072433971</v>
       </c>
       <c r="L132" t="n">
-        <v>0.19</v>
+        <v>0.825</v>
       </c>
       <c r="M132" t="n">
         <v>4</v>
@@ -6131,42 +6131,42 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>688366.SH</t>
+          <t>605300.SH</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.116869258</v>
+        <v>0.033400601</v>
       </c>
       <c r="D133" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.015684517</v>
+        <v>0.090909091</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.075529896</v>
+        <v>0.248608534</v>
       </c>
       <c r="G133" t="n">
-        <v>0.018122744</v>
+        <v>0.448979592</v>
       </c>
       <c r="H133" t="n">
-        <v>0.136077759</v>
+        <v>0.394392523</v>
       </c>
       <c r="I133" t="n">
-        <v>0.260119695</v>
+        <v>0.394166043</v>
       </c>
       <c r="J133" t="n">
-        <v>0.379041096</v>
+        <v>0.404192718</v>
       </c>
       <c r="K133" t="n">
-        <v>0.387432432</v>
+        <v>0.29900476</v>
       </c>
       <c r="L133" t="n">
-        <v>1.31</v>
+        <v>0.19</v>
       </c>
       <c r="M133" t="n">
         <v>4</v>
@@ -6174,42 +6174,42 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>605180.SH</t>
+          <t>002459.SZ</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.041574271</v>
+        <v>0.329638959</v>
       </c>
       <c r="D134" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E134" t="n">
-        <v>0.09083215800000001</v>
+        <v>0.027985075</v>
       </c>
       <c r="F134" t="n">
-        <v>0.248717949</v>
+        <v>-0.020368194</v>
       </c>
       <c r="G134" t="n">
-        <v>0.105963939</v>
+        <v>-0.00269438</v>
       </c>
       <c r="H134" t="n">
-        <v>0.144184811</v>
+        <v>0.08468025300000001</v>
       </c>
       <c r="I134" t="n">
-        <v>0.02185129</v>
+        <v>0.162379421</v>
       </c>
       <c r="J134" t="n">
-        <v>0.118917441</v>
+        <v>0.446686491</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.050521512</v>
+        <v>0.5576498560000001</v>
       </c>
       <c r="L134" t="n">
-        <v>1.23</v>
+        <v>0.45</v>
       </c>
       <c r="M134" t="n">
         <v>4</v>
@@ -6217,42 +6217,42 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>688133.SH</t>
+          <t>300573.SZ</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.00614463</v>
+        <v>0.006006134000000001</v>
       </c>
       <c r="D135" t="n">
         <v>0.01</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.02152698</v>
+        <v>0.004520017</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.0366422</v>
+        <v>-0.019920612</v>
       </c>
       <c r="G135" t="n">
-        <v>0.022252747</v>
+        <v>0.10483871</v>
       </c>
       <c r="H135" t="n">
-        <v>0.128550441</v>
+        <v>0.045079147</v>
       </c>
       <c r="I135" t="n">
-        <v>0.17074421</v>
+        <v>0.104029446</v>
       </c>
       <c r="J135" t="n">
-        <v>0.431469649</v>
+        <v>0.185356975</v>
       </c>
       <c r="K135" t="n">
-        <v>0.402952525</v>
+        <v>-0.527578994</v>
       </c>
       <c r="L135" t="n">
-        <v>0.6</v>
+        <v>0.99</v>
       </c>
       <c r="M135" t="n">
         <v>4</v>
@@ -6260,42 +6260,42 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>688630.SH</t>
+          <t>688133.SH</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.05594819400000001</v>
+        <v>0.00614463</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E136" t="n">
-        <v>0.382179882</v>
+        <v>-0.02152698</v>
       </c>
       <c r="F136" t="n">
-        <v>0.254563895</v>
+        <v>-0.0366422</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1</v>
+        <v>0.022252747</v>
       </c>
       <c r="H136" t="n">
-        <v>0.151923077</v>
+        <v>0.128550441</v>
       </c>
       <c r="I136" t="n">
-        <v>0.151270208</v>
+        <v>0.17074421</v>
       </c>
       <c r="J136" t="n">
-        <v>0.310506567</v>
+        <v>0.431469649</v>
       </c>
       <c r="K136" t="n">
-        <v>0.427867151</v>
+        <v>0.402952525</v>
       </c>
       <c r="L136" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="M136" t="n">
         <v>4</v>
@@ -6303,42 +6303,42 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>603386.SH</t>
+          <t>688630.SH</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.008981691</v>
+        <v>0.05594819400000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.02195122</v>
+        <v>0.382179882</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.025703794</v>
+        <v>0.254563895</v>
       </c>
       <c r="G137" t="n">
-        <v>0.017584994</v>
+        <v>0.1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.043378995</v>
+        <v>0.151923077</v>
       </c>
       <c r="I137" t="n">
-        <v>0.043924701</v>
+        <v>0.151270208</v>
       </c>
       <c r="J137" t="n">
-        <v>0.057897695</v>
+        <v>0.310506567</v>
       </c>
       <c r="K137" t="n">
-        <v>0.190338164</v>
+        <v>0.427867151</v>
       </c>
       <c r="L137" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="M137" t="n">
         <v>4</v>
@@ -6346,42 +6346,42 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>003041.SZ</t>
+          <t>603386.SH</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.033392198</v>
+        <v>0.008981691</v>
       </c>
       <c r="D138" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E138" t="n">
-        <v>0.316996047</v>
+        <v>-0.02195122</v>
       </c>
       <c r="F138" t="n">
-        <v>0.31392271</v>
+        <v>-0.025703794</v>
       </c>
       <c r="G138" t="n">
-        <v>0.299648744</v>
+        <v>0.017584994</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1641406</v>
+        <v>0.043378995</v>
       </c>
       <c r="I138" t="n">
-        <v>0.126095752</v>
+        <v>0.043924701</v>
       </c>
       <c r="J138" t="n">
-        <v>0.168431184</v>
+        <v>0.057897695</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04</v>
+        <v>0.190338164</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4256</v>
+        <v>0.52</v>
       </c>
       <c r="M138" t="n">
         <v>4</v>
@@ -6389,42 +6389,42 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>603626.SH</t>
+          <t>003041.SZ</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.00123034</v>
+        <v>0.033392198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E139" t="n">
-        <v>0.06823027700000001</v>
+        <v>0.316996047</v>
       </c>
       <c r="F139" t="n">
-        <v>0.03956044</v>
+        <v>0.31392271</v>
       </c>
       <c r="G139" t="n">
-        <v>0.076109937</v>
+        <v>0.299648744</v>
       </c>
       <c r="H139" t="n">
-        <v>0.060215054</v>
+        <v>0.1641406</v>
       </c>
       <c r="I139" t="n">
-        <v>0.023463687</v>
+        <v>0.126095752</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.054282268</v>
+        <v>0.168431184</v>
       </c>
       <c r="K139" t="n">
-        <v>0.09241952199999999</v>
+        <v>0.04</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6899</v>
+        <v>0.4256</v>
       </c>
       <c r="M139" t="n">
         <v>4</v>
@@ -6432,42 +6432,42 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>603324.SH</t>
+          <t>603626.SH</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.04576454</v>
+        <v>0.00123034</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E140" t="n">
-        <v>0.317020769</v>
+        <v>0.06823027700000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.372862779</v>
+        <v>0.03956044</v>
       </c>
       <c r="G140" t="n">
-        <v>0.359955257</v>
+        <v>0.076109937</v>
       </c>
       <c r="H140" t="n">
-        <v>0.213146315</v>
+        <v>0.060215054</v>
       </c>
       <c r="I140" t="n">
-        <v>0.170002901</v>
+        <v>0.023463687</v>
       </c>
       <c r="J140" t="n">
-        <v>0.141356543</v>
+        <v>-0.054282268</v>
       </c>
       <c r="K140" t="n">
-        <v>0.331854274</v>
+        <v>0.09241952199999999</v>
       </c>
       <c r="L140" t="n">
-        <v>0.48</v>
+        <v>0.6899</v>
       </c>
       <c r="M140" t="n">
         <v>4</v>
@@ -6475,42 +6475,42 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>688085.SH</t>
+          <t>603324.SH</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.056613766</v>
+        <v>0.04576454</v>
       </c>
       <c r="D141" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.036357091</v>
+        <v>0.317020769</v>
       </c>
       <c r="F141" t="n">
-        <v>0.035833891</v>
+        <v>0.372862779</v>
       </c>
       <c r="G141" t="n">
-        <v>0.133614204</v>
+        <v>0.359955257</v>
       </c>
       <c r="H141" t="n">
-        <v>0.134915865</v>
+        <v>0.213146315</v>
       </c>
       <c r="I141" t="n">
-        <v>0.08195153099999999</v>
+        <v>0.170002901</v>
       </c>
       <c r="J141" t="n">
-        <v>0.17836758</v>
+        <v>0.141356543</v>
       </c>
       <c r="K141" t="n">
-        <v>0.26537382</v>
+        <v>0.331854274</v>
       </c>
       <c r="L141" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="M141" t="n">
         <v>4</v>
@@ -6518,42 +6518,42 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>600889.SH</t>
+          <t>688085.SH</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.006608101</v>
+        <v>0.056613766</v>
       </c>
       <c r="D142" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="E142" t="n">
-        <v>0.03526971</v>
+        <v>-0.036357091</v>
       </c>
       <c r="F142" t="n">
-        <v>0.006410256</v>
+        <v>0.035833891</v>
       </c>
       <c r="G142" t="n">
-        <v>0.08823529400000001</v>
+        <v>0.133614204</v>
       </c>
       <c r="H142" t="n">
-        <v>0.174067496</v>
+        <v>0.134915865</v>
       </c>
       <c r="I142" t="n">
-        <v>0.265402844</v>
+        <v>0.08195153099999999</v>
       </c>
       <c r="J142" t="n">
-        <v>0.30075188</v>
+        <v>0.17836758</v>
       </c>
       <c r="K142" t="n">
-        <v>0.360385144</v>
+        <v>0.26537382</v>
       </c>
       <c r="L142" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="M142" t="n">
         <v>4</v>
@@ -6561,42 +6561,42 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>300620.SZ</t>
+          <t>600889.SH</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7.879999999999999e-05</v>
+        <v>0.006608101</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E143" t="n">
-        <v>0.128065395</v>
+        <v>0.03526971</v>
       </c>
       <c r="F143" t="n">
-        <v>0.05982906</v>
+        <v>0.006410256</v>
       </c>
       <c r="G143" t="n">
-        <v>0.061333333</v>
+        <v>0.08823529400000001</v>
       </c>
       <c r="H143" t="n">
-        <v>0.07001321000000001</v>
+        <v>0.174067496</v>
       </c>
       <c r="I143" t="n">
-        <v>0.102727504</v>
+        <v>0.265402844</v>
       </c>
       <c r="J143" t="n">
-        <v>0.171569781</v>
+        <v>0.30075188</v>
       </c>
       <c r="K143" t="n">
-        <v>0.375554373</v>
+        <v>0.360385144</v>
       </c>
       <c r="L143" t="n">
-        <v>0.535</v>
+        <v>0.32</v>
       </c>
       <c r="M143" t="n">
         <v>4</v>
@@ -6604,42 +6604,42 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>603897.SH</t>
+          <t>300620.SZ</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.108434866</v>
+        <v>7.879999999999999e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.007683215</v>
+        <v>0.128065395</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.005306604</v>
+        <v>0.05982906</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.033333333</v>
+        <v>0.061333333</v>
       </c>
       <c r="H144" t="n">
-        <v>0.05749032599999999</v>
+        <v>0.07001321000000001</v>
       </c>
       <c r="I144" t="n">
-        <v>0.064215148</v>
+        <v>0.102727504</v>
       </c>
       <c r="J144" t="n">
-        <v>0.234739677</v>
+        <v>0.171569781</v>
       </c>
       <c r="K144" t="n">
-        <v>0.372700515</v>
+        <v>0.375554373</v>
       </c>
       <c r="L144" t="n">
-        <v>1.18</v>
+        <v>0.535</v>
       </c>
       <c r="M144" t="n">
         <v>4</v>
@@ -6647,42 +6647,42 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>605378.SH</t>
+          <t>603897.SH</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.043653415</v>
+        <v>0.108434866</v>
       </c>
       <c r="D145" t="n">
-        <v>0.25</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>0.317092867</v>
+        <v>-0.007683215</v>
       </c>
       <c r="F145" t="n">
-        <v>0.401650943</v>
+        <v>-0.005306604</v>
       </c>
       <c r="G145" t="n">
-        <v>0.282116582</v>
+        <v>-0.033333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0.329545455</v>
+        <v>0.05749032599999999</v>
       </c>
       <c r="I145" t="n">
-        <v>0.252724595</v>
+        <v>0.064215148</v>
       </c>
       <c r="J145" t="n">
-        <v>0.388527356</v>
+        <v>0.234739677</v>
       </c>
       <c r="K145" t="n">
-        <v>0.453232759</v>
+        <v>0.372700515</v>
       </c>
       <c r="L145" t="n">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
       <c r="M145" t="n">
         <v>4</v>
@@ -6690,42 +6690,42 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>002895.SZ</t>
+          <t>605378.SH</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.041899495</v>
+        <v>0.043653415</v>
       </c>
       <c r="D146" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="E146" t="n">
-        <v>0.007820137</v>
+        <v>0.317092867</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.002964427</v>
+        <v>0.401650943</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.032553408</v>
+        <v>0.282116582</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.025252525</v>
+        <v>0.329545455</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.001974334</v>
+        <v>0.252724595</v>
       </c>
       <c r="J146" t="n">
-        <v>0.216820988</v>
+        <v>0.388527356</v>
       </c>
       <c r="K146" t="n">
-        <v>0.545454545</v>
+        <v>0.453232759</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2163</v>
+        <v>0.35</v>
       </c>
       <c r="M146" t="n">
         <v>4</v>
@@ -6733,42 +6733,42 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>688315.SH</t>
+          <t>002895.SZ</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.045952678</v>
+        <v>0.041899495</v>
       </c>
       <c r="D147" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="E147" t="n">
-        <v>0.080536913</v>
+        <v>0.007820137</v>
       </c>
       <c r="F147" t="n">
-        <v>0.046956522</v>
+        <v>-0.002964427</v>
       </c>
       <c r="G147" t="n">
-        <v>0.377272727</v>
+        <v>-0.032553408</v>
       </c>
       <c r="H147" t="n">
-        <v>0.365005794</v>
+        <v>-0.025252525</v>
       </c>
       <c r="I147" t="n">
-        <v>0.278947368</v>
+        <v>-0.001974334</v>
       </c>
       <c r="J147" t="n">
-        <v>0.494278331</v>
+        <v>0.216820988</v>
       </c>
       <c r="K147" t="n">
-        <v>0.333819596</v>
+        <v>0.545454545</v>
       </c>
       <c r="L147" t="n">
-        <v>0.22</v>
+        <v>0.2163</v>
       </c>
       <c r="M147" t="n">
         <v>4</v>
@@ -6776,42 +6776,42 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>300999.SZ</t>
+          <t>688315.SH</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.08511051800000001</v>
+        <v>0.045952678</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E148" t="n">
-        <v>0.047468354</v>
+        <v>0.080536913</v>
       </c>
       <c r="F148" t="n">
-        <v>0.084642676</v>
+        <v>0.046956522</v>
       </c>
       <c r="G148" t="n">
-        <v>0.080682107</v>
+        <v>0.377272727</v>
       </c>
       <c r="H148" t="n">
-        <v>0.080682107</v>
+        <v>0.365005794</v>
       </c>
       <c r="I148" t="n">
-        <v>0.08522223599999999</v>
+        <v>0.278947368</v>
       </c>
       <c r="J148" t="n">
-        <v>0.212814645</v>
+        <v>0.494278331</v>
       </c>
       <c r="K148" t="n">
-        <v>0.102385686</v>
+        <v>0.333819596</v>
       </c>
       <c r="L148" t="n">
-        <v>0.55</v>
+        <v>0.22</v>
       </c>
       <c r="M148" t="n">
         <v>4</v>
@@ -6819,42 +6819,42 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>300973.SZ</t>
+          <t>300999.SZ</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.192819049</v>
+        <v>0.08511051800000001</v>
       </c>
       <c r="D149" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.141666667</v>
+        <v>0.047468354</v>
       </c>
       <c r="F149" t="n">
-        <v>0.200930954</v>
+        <v>0.084642676</v>
       </c>
       <c r="G149" t="n">
-        <v>0.299319728</v>
+        <v>0.080682107</v>
       </c>
       <c r="H149" t="n">
-        <v>0.299319728</v>
+        <v>0.080682107</v>
       </c>
       <c r="I149" t="n">
-        <v>0.346031746</v>
+        <v>0.08522223599999999</v>
       </c>
       <c r="J149" t="n">
-        <v>0.361675756</v>
+        <v>0.212814645</v>
       </c>
       <c r="K149" t="n">
-        <v>0.297312048</v>
+        <v>0.102385686</v>
       </c>
       <c r="L149" t="n">
-        <v>0.9690000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="M149" t="n">
         <v>4</v>
@@ -6862,42 +6862,42 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>603095.SH</t>
+          <t>300973.SZ</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.005151967</v>
+        <v>0.192819049</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.002983802</v>
+        <v>0.141666667</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.041150442</v>
+        <v>0.200930954</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.04068996</v>
+        <v>0.299319728</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.04068996</v>
+        <v>0.299319728</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.032017544</v>
+        <v>0.346031746</v>
       </c>
       <c r="J150" t="n">
-        <v>0.024865313</v>
+        <v>0.361675756</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.009005146</v>
+        <v>0.297312048</v>
       </c>
       <c r="L150" t="n">
-        <v>0.83</v>
+        <v>0.9690000000000001</v>
       </c>
       <c r="M150" t="n">
         <v>4</v>
@@ -6905,42 +6905,42 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>601279.SH</t>
+          <t>603095.SH</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.022878035</v>
+        <v>0.005151967</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E151" t="n">
-        <v>0.318077803</v>
+        <v>-0.002983802</v>
       </c>
       <c r="F151" t="n">
-        <v>0.436672968</v>
+        <v>-0.041150442</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6498237370000001</v>
+        <v>-0.04068996</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6498237370000001</v>
+        <v>-0.04068996</v>
       </c>
       <c r="I151" t="n">
-        <v>0.7818448020000001</v>
+        <v>-0.032017544</v>
       </c>
       <c r="J151" t="n">
-        <v>0.7374449340000001</v>
+        <v>0.024865313</v>
       </c>
       <c r="K151" t="n">
-        <v>0.685654008</v>
+        <v>-0.009005146</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03</v>
+        <v>0.83</v>
       </c>
       <c r="M151" t="n">
         <v>4</v>
@@ -6948,42 +6948,42 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>688386.SH</t>
+          <t>688383.SH</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.00111522</v>
+        <v>0.078588345</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="E152" t="n">
-        <v>0.037558685</v>
+        <v>0.205097087</v>
       </c>
       <c r="F152" t="n">
-        <v>0.086452763</v>
+        <v>0.192852742</v>
       </c>
       <c r="G152" t="n">
-        <v>0.086859688</v>
+        <v>0.275282142</v>
       </c>
       <c r="H152" t="n">
-        <v>0.10616961</v>
+        <v>0.317779398</v>
       </c>
       <c r="I152" t="n">
-        <v>0.191640379</v>
+        <v>0.433635971</v>
       </c>
       <c r="J152" t="n">
-        <v>0.317008163</v>
+        <v>0.415230783</v>
       </c>
       <c r="K152" t="n">
-        <v>0.353414288</v>
+        <v>0.585940957</v>
       </c>
       <c r="L152" t="n">
-        <v>0.49</v>
+        <v>1.17</v>
       </c>
       <c r="M152" t="n">
         <v>4</v>
@@ -6991,42 +6991,42 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>605086.SH</t>
+          <t>601279.SH</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.030520822</v>
+        <v>0.022878035</v>
       </c>
       <c r="D153" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E153" t="n">
-        <v>0.317109145</v>
+        <v>0.318077803</v>
       </c>
       <c r="F153" t="n">
-        <v>0.435537946</v>
+        <v>0.436672968</v>
       </c>
       <c r="G153" t="n">
-        <v>0.311268129</v>
+        <v>0.6498237370000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0.301132075</v>
+        <v>0.6498237370000001</v>
       </c>
       <c r="I153" t="n">
-        <v>0.32111437</v>
+        <v>0.7818448020000001</v>
       </c>
       <c r="J153" t="n">
-        <v>0.269428008</v>
+        <v>0.7374449340000001</v>
       </c>
       <c r="K153" t="n">
-        <v>0.288239816</v>
+        <v>0.685654008</v>
       </c>
       <c r="L153" t="n">
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="M153" t="n">
         <v>4</v>
@@ -7034,42 +7034,42 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>603876.SH</t>
+          <t>605086.SH</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.124694473</v>
+        <v>0.030520822</v>
       </c>
       <c r="D154" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="E154" t="n">
-        <v>0.054919908</v>
+        <v>0.317109145</v>
       </c>
       <c r="F154" t="n">
-        <v>0.012749004</v>
+        <v>0.435537946</v>
       </c>
       <c r="G154" t="n">
-        <v>0.008006404999999999</v>
+        <v>0.311268129</v>
       </c>
       <c r="H154" t="n">
-        <v>0.029757244</v>
+        <v>0.301132075</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04911742099999999</v>
+        <v>0.32111437</v>
       </c>
       <c r="J154" t="n">
-        <v>0.459424084</v>
+        <v>0.269428008</v>
       </c>
       <c r="K154" t="n">
-        <v>0.552546046</v>
+        <v>0.288239816</v>
       </c>
       <c r="L154" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="M154" t="n">
         <v>4</v>
@@ -7077,42 +7077,42 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>605117.SH</t>
+          <t>603876.SH</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.104126236</v>
+        <v>0.124694473</v>
       </c>
       <c r="D155" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="E155" t="n">
-        <v>0.181991672</v>
+        <v>0.054919908</v>
       </c>
       <c r="F155" t="n">
-        <v>0.012565445</v>
+        <v>0.012749004</v>
       </c>
       <c r="G155" t="n">
-        <v>0.021378165</v>
+        <v>0.008006404999999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09674329500000001</v>
+        <v>0.029757244</v>
       </c>
       <c r="I155" t="n">
-        <v>0.305596465</v>
+        <v>0.04911742099999999</v>
       </c>
       <c r="J155" t="n">
-        <v>0.539595743</v>
+        <v>0.459424084</v>
       </c>
       <c r="K155" t="n">
-        <v>0.624840866</v>
+        <v>0.552546046</v>
       </c>
       <c r="L155" t="n">
-        <v>1.44</v>
+        <v>0.6</v>
       </c>
       <c r="M155" t="n">
         <v>4</v>
@@ -7120,42 +7120,42 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>688201.SH</t>
+          <t>605117.SH</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.040260108</v>
+        <v>0.104126236</v>
       </c>
       <c r="D156" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.06713323</v>
+        <v>0.181991672</v>
       </c>
       <c r="F156" t="n">
-        <v>0.187968442</v>
+        <v>0.012565445</v>
       </c>
       <c r="G156" t="n">
-        <v>0.251318422</v>
+        <v>0.021378165</v>
       </c>
       <c r="H156" t="n">
-        <v>0.280622051</v>
+        <v>0.09674329500000001</v>
       </c>
       <c r="I156" t="n">
-        <v>0.325081967</v>
+        <v>0.305596465</v>
       </c>
       <c r="J156" t="n">
-        <v>0.25524602</v>
+        <v>0.539595743</v>
       </c>
       <c r="K156" t="n">
-        <v>0.306902357</v>
+        <v>0.624840866</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3149</v>
+        <v>1.44</v>
       </c>
       <c r="M156" t="n">
         <v>4</v>
@@ -7163,42 +7163,42 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>605016.SH</t>
+          <t>688201.SH</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.034501641</v>
+        <v>0.040260108</v>
       </c>
       <c r="D157" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E157" t="n">
-        <v>0.317223484</v>
+        <v>-0.06713323</v>
       </c>
       <c r="F157" t="n">
-        <v>0.233709501</v>
+        <v>0.187968442</v>
       </c>
       <c r="G157" t="n">
-        <v>0.260884831</v>
+        <v>0.251318422</v>
       </c>
       <c r="H157" t="n">
-        <v>0.315447154</v>
+        <v>0.280622051</v>
       </c>
       <c r="I157" t="n">
-        <v>0.504239284</v>
+        <v>0.325081967</v>
       </c>
       <c r="J157" t="n">
-        <v>0.398914906</v>
+        <v>0.25524602</v>
       </c>
       <c r="K157" t="n">
-        <v>0.242260619</v>
+        <v>0.306902357</v>
       </c>
       <c r="L157" t="n">
-        <v>0.49</v>
+        <v>0.3149</v>
       </c>
       <c r="M157" t="n">
         <v>4</v>
@@ -7206,42 +7206,42 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>603733.SH</t>
+          <t>605016.SH</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.7326417340000001</v>
+        <v>0.034501641</v>
       </c>
       <c r="D158" t="n">
-        <v>0.78</v>
+        <v>0.25</v>
       </c>
       <c r="E158" t="n">
-        <v>0.055514706</v>
+        <v>0.317223484</v>
       </c>
       <c r="F158" t="n">
-        <v>0.07189306400000001</v>
+        <v>0.233709501</v>
       </c>
       <c r="G158" t="n">
-        <v>0.061381074</v>
+        <v>0.260884831</v>
       </c>
       <c r="H158" t="n">
-        <v>0.027262401</v>
+        <v>0.315447154</v>
       </c>
       <c r="I158" t="n">
-        <v>0.020960366</v>
+        <v>0.504239284</v>
       </c>
       <c r="J158" t="n">
-        <v>0.149900728</v>
+        <v>0.398914906</v>
       </c>
       <c r="K158" t="n">
-        <v>0.35549423</v>
+        <v>0.242260619</v>
       </c>
       <c r="L158" t="n">
-        <v>0.86</v>
+        <v>0.49</v>
       </c>
       <c r="M158" t="n">
         <v>4</v>
@@ -7249,42 +7249,42 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>603986.SH</t>
+          <t>603733.SH</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.001331569</v>
+        <v>0.7326417340000001</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="E159" t="n">
-        <v>0.128058436</v>
+        <v>0.055514706</v>
       </c>
       <c r="F159" t="n">
-        <v>0.116596802</v>
+        <v>0.07189306400000001</v>
       </c>
       <c r="G159" t="n">
-        <v>0.040741781</v>
+        <v>0.061381074</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.004058585</v>
+        <v>0.027262401</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.401477833</v>
+        <v>0.020960366</v>
       </c>
       <c r="J159" t="n">
-        <v>-0.07439577</v>
+        <v>0.149900728</v>
       </c>
       <c r="K159" t="n">
-        <v>0.072484243</v>
+        <v>0.35549423</v>
       </c>
       <c r="L159" t="n">
-        <v>1.19</v>
+        <v>0.86</v>
       </c>
       <c r="M159" t="n">
         <v>4</v>
@@ -7292,42 +7292,42 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>688639.SH</t>
+          <t>603986.SH</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.043122122</v>
+        <v>0.001331569</v>
       </c>
       <c r="D160" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.183271548</v>
+        <v>0.128058436</v>
       </c>
       <c r="F160" t="n">
-        <v>0.193732845</v>
+        <v>0.116596802</v>
       </c>
       <c r="G160" t="n">
-        <v>0.17755483</v>
+        <v>0.040741781</v>
       </c>
       <c r="H160" t="n">
-        <v>0.17755483</v>
+        <v>-0.004058585</v>
       </c>
       <c r="I160" t="n">
-        <v>0.329210276</v>
+        <v>-0.401477833</v>
       </c>
       <c r="J160" t="n">
-        <v>0.290744467</v>
+        <v>-0.07439577</v>
       </c>
       <c r="K160" t="n">
-        <v>0.399488927</v>
+        <v>0.072484243</v>
       </c>
       <c r="L160" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="M160" t="n">
         <v>4</v>
@@ -7335,42 +7335,42 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>600566.SH</t>
+          <t>688639.SH</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.072275431</v>
+        <v>0.043122122</v>
       </c>
       <c r="D161" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="E161" t="n">
-        <v>0.011410788</v>
+        <v>0.183271548</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.003157895</v>
+        <v>0.193732845</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.047252747</v>
+        <v>0.17755483</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.093709291</v>
+        <v>0.17755483</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.008465608000000001</v>
+        <v>0.329210276</v>
       </c>
       <c r="J161" t="n">
-        <v>-0.09101316499999999</v>
+        <v>0.290744467</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.181649101</v>
+        <v>0.399488927</v>
       </c>
       <c r="L161" t="n">
-        <v>0.961</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M161" t="n">
         <v>4</v>
@@ -7593,42 +7593,42 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>688383.SH</t>
+          <t>688386.SH</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.078588345</v>
+        <v>0.00111522</v>
       </c>
       <c r="D167" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="E167" t="n">
-        <v>0.205097087</v>
+        <v>0.037558685</v>
       </c>
       <c r="F167" t="n">
-        <v>0.192852742</v>
+        <v>0.086452763</v>
       </c>
       <c r="G167" t="n">
-        <v>0.275282142</v>
+        <v>0.086859688</v>
       </c>
       <c r="H167" t="n">
-        <v>0.317779398</v>
+        <v>0.10616961</v>
       </c>
       <c r="I167" t="n">
-        <v>0.433635971</v>
+        <v>0.191640379</v>
       </c>
       <c r="J167" t="n">
-        <v>0.415230783</v>
+        <v>0.317008163</v>
       </c>
       <c r="K167" t="n">
-        <v>0.585940957</v>
+        <v>0.353414288</v>
       </c>
       <c r="L167" t="n">
-        <v>1.17</v>
+        <v>0.49</v>
       </c>
       <c r="M167" t="n">
         <v>4</v>
